--- a/projects/test_building/input/Scenario_PV_SelfConsumptionRate.xlsx
+++ b/projects/test_building/input/Scenario_PV_SelfConsumptionRate.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songminyu/Documents/Code/3E/RenderNew/projects/test_building/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RenderNew\projects\test_building\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C7A58A-5E43-DA45-B286-F286D06BA286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1760" yWindow="-20780" windowWidth="33060" windowHeight="19160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1755" yWindow="-20775" windowWidth="33060" windowHeight="19155"/>
   </bookViews>
   <sheets>
     <sheet name="updated" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="47">
   <si>
     <t>id_region</t>
   </si>
@@ -172,11 +171,14 @@
   <si>
     <t>fraction</t>
   </si>
+  <si>
+    <t>id_scenario</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -232,54 +234,55 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:AS18" totalsRowShown="0">
-  <autoFilter ref="A1:AS18" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <tableColumns count="45">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="id_region"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="id_sector"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="id_subsector"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="unit"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="2010"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="2011"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="2012"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="2013"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="2014"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="2015"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="2016"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="2017"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="2018"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="2019"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="2020"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="2021"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="2022"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="2023"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="2024"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="2025"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="2026"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="2027"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="2028"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="2029"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="2030"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="2031"/>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="2032"/>
-    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="2033"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="2034"/>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="2035"/>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="2036"/>
-    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="2037"/>
-    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="2038"/>
-    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="2039"/>
-    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="2040"/>
-    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="2041"/>
-    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="2042"/>
-    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="2043"/>
-    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" name="2044"/>
-    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" name="2045"/>
-    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" name="2046"/>
-    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0000-00002B000000}" name="2047"/>
-    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0000-00002C000000}" name="2048"/>
-    <tableColumn id="45" xr3:uid="{00000000-0010-0000-0000-00002D000000}" name="2049"/>
-    <tableColumn id="46" xr3:uid="{00000000-0010-0000-0000-00002E000000}" name="2050"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:AT69" totalsRowShown="0">
+  <autoFilter ref="A1:AT69"/>
+  <tableColumns count="46">
+    <tableColumn id="5" name="id_scenario"/>
+    <tableColumn id="1" name="id_region"/>
+    <tableColumn id="3" name="id_sector"/>
+    <tableColumn id="4" name="id_subsector"/>
+    <tableColumn id="6" name="unit"/>
+    <tableColumn id="7" name="2010"/>
+    <tableColumn id="8" name="2011"/>
+    <tableColumn id="9" name="2012"/>
+    <tableColumn id="10" name="2013"/>
+    <tableColumn id="11" name="2014"/>
+    <tableColumn id="12" name="2015"/>
+    <tableColumn id="13" name="2016"/>
+    <tableColumn id="14" name="2017"/>
+    <tableColumn id="15" name="2018"/>
+    <tableColumn id="16" name="2019"/>
+    <tableColumn id="17" name="2020"/>
+    <tableColumn id="2" name="2021"/>
+    <tableColumn id="18" name="2022"/>
+    <tableColumn id="19" name="2023"/>
+    <tableColumn id="20" name="2024"/>
+    <tableColumn id="21" name="2025"/>
+    <tableColumn id="22" name="2026"/>
+    <tableColumn id="23" name="2027"/>
+    <tableColumn id="24" name="2028"/>
+    <tableColumn id="25" name="2029"/>
+    <tableColumn id="26" name="2030"/>
+    <tableColumn id="27" name="2031"/>
+    <tableColumn id="28" name="2032"/>
+    <tableColumn id="29" name="2033"/>
+    <tableColumn id="30" name="2034"/>
+    <tableColumn id="31" name="2035"/>
+    <tableColumn id="32" name="2036"/>
+    <tableColumn id="33" name="2037"/>
+    <tableColumn id="34" name="2038"/>
+    <tableColumn id="35" name="2039"/>
+    <tableColumn id="36" name="2040"/>
+    <tableColumn id="37" name="2041"/>
+    <tableColumn id="38" name="2042"/>
+    <tableColumn id="39" name="2043"/>
+    <tableColumn id="40" name="2044"/>
+    <tableColumn id="41" name="2045"/>
+    <tableColumn id="42" name="2046"/>
+    <tableColumn id="43" name="2047"/>
+    <tableColumn id="44" name="2048"/>
+    <tableColumn id="45" name="2049"/>
+    <tableColumn id="46" name="2050"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -569,172 +572,175 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AT69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>2</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>3</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>4</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>5</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>6</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
         <v>9</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>3</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>31</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>45</v>
       </c>
-      <c r="E2">
-        <v>0.3</v>
-      </c>
       <c r="F2">
         <v>0.3</v>
       </c>
@@ -855,23 +861,26 @@
       <c r="AS2">
         <v>0.3</v>
       </c>
+      <c r="AT2">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>9</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>3</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>32</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>45</v>
       </c>
-      <c r="E3">
-        <v>0.3</v>
-      </c>
       <c r="F3">
         <v>0.3</v>
       </c>
@@ -992,23 +1001,26 @@
       <c r="AS3">
         <v>0.3</v>
       </c>
+      <c r="AT3">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
         <v>9</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>33</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>45</v>
       </c>
-      <c r="E4">
-        <v>0.3</v>
-      </c>
       <c r="F4">
         <v>0.3</v>
       </c>
@@ -1129,23 +1141,26 @@
       <c r="AS4">
         <v>0.3</v>
       </c>
+      <c r="AT4">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
         <v>9</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>3</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>34</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>45</v>
       </c>
-      <c r="E5">
-        <v>0.3</v>
-      </c>
       <c r="F5">
         <v>0.3</v>
       </c>
@@ -1266,23 +1281,26 @@
       <c r="AS5">
         <v>0.3</v>
       </c>
+      <c r="AT5">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
         <v>9</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>3</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>35</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>45</v>
       </c>
-      <c r="E6">
-        <v>0.3</v>
-      </c>
       <c r="F6">
         <v>0.3</v>
       </c>
@@ -1403,23 +1421,26 @@
       <c r="AS6">
         <v>0.3</v>
       </c>
+      <c r="AT6">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
         <v>9</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>3</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>36</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>45</v>
       </c>
-      <c r="E7">
-        <v>0.3</v>
-      </c>
       <c r="F7">
         <v>0.3</v>
       </c>
@@ -1540,23 +1561,26 @@
       <c r="AS7">
         <v>0.3</v>
       </c>
+      <c r="AT7">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
         <v>9</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>3</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>37</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>45</v>
       </c>
-      <c r="E8">
-        <v>0.3</v>
-      </c>
       <c r="F8">
         <v>0.3</v>
       </c>
@@ -1677,23 +1701,26 @@
       <c r="AS8">
         <v>0.3</v>
       </c>
+      <c r="AT8">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
         <v>9</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>3</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>38</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>45</v>
       </c>
-      <c r="E9">
-        <v>0.3</v>
-      </c>
       <c r="F9">
         <v>0.3</v>
       </c>
@@ -1814,23 +1841,26 @@
       <c r="AS9">
         <v>0.3</v>
       </c>
+      <c r="AT9">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>3</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>39</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>45</v>
       </c>
-      <c r="E10">
-        <v>0.3</v>
-      </c>
       <c r="F10">
         <v>0.3</v>
       </c>
@@ -1951,23 +1981,26 @@
       <c r="AS10">
         <v>0.3</v>
       </c>
+      <c r="AT10">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>3</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>310</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>45</v>
       </c>
-      <c r="E11">
-        <v>0.3</v>
-      </c>
       <c r="F11">
         <v>0.3</v>
       </c>
@@ -2088,23 +2121,26 @@
       <c r="AS11">
         <v>0.3</v>
       </c>
+      <c r="AT11">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
         <v>9</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>3</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>311</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>45</v>
       </c>
-      <c r="E12">
-        <v>0.3</v>
-      </c>
       <c r="F12">
         <v>0.3</v>
       </c>
@@ -2225,23 +2261,26 @@
       <c r="AS12">
         <v>0.3</v>
       </c>
+      <c r="AT12">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
         <v>9</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>3</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>312</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>45</v>
       </c>
-      <c r="E13">
-        <v>0.3</v>
-      </c>
       <c r="F13">
         <v>0.3</v>
       </c>
@@ -2362,23 +2401,26 @@
       <c r="AS13">
         <v>0.3</v>
       </c>
+      <c r="AT13">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
         <v>9</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>3</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>313</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>45</v>
       </c>
-      <c r="E14">
-        <v>0.3</v>
-      </c>
       <c r="F14">
         <v>0.3</v>
       </c>
@@ -2499,23 +2541,26 @@
       <c r="AS14">
         <v>0.3</v>
       </c>
+      <c r="AT14">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
         <v>9</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>3</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>314</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>45</v>
       </c>
-      <c r="E15">
-        <v>0.3</v>
-      </c>
       <c r="F15">
         <v>0.3</v>
       </c>
@@ -2636,23 +2681,26 @@
       <c r="AS15">
         <v>0.3</v>
       </c>
+      <c r="AT15">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
         <v>9</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>3</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>315</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>45</v>
       </c>
-      <c r="E16">
-        <v>0.3</v>
-      </c>
       <c r="F16">
         <v>0.3</v>
       </c>
@@ -2773,23 +2821,26 @@
       <c r="AS16">
         <v>0.3</v>
       </c>
+      <c r="AT16">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
         <v>9</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>3</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>316</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>45</v>
       </c>
-      <c r="E17">
-        <v>0.3</v>
-      </c>
       <c r="F17">
         <v>0.3</v>
       </c>
@@ -2910,23 +2961,26 @@
       <c r="AS17">
         <v>0.3</v>
       </c>
+      <c r="AT17">
+        <v>0.3</v>
+      </c>
     </row>
-    <row r="18" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
         <v>9</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>6</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>61</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>45</v>
       </c>
-      <c r="E18">
-        <v>0.3</v>
-      </c>
       <c r="F18">
         <v>0.3</v>
       </c>
@@ -3046,6 +3100,7149 @@
       </c>
       <c r="AS18">
         <v>0.3</v>
+      </c>
+      <c r="AT18">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>31</v>
+      </c>
+      <c r="E19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19">
+        <v>0.5</v>
+      </c>
+      <c r="G19">
+        <v>0.5</v>
+      </c>
+      <c r="H19">
+        <v>0.5</v>
+      </c>
+      <c r="I19">
+        <v>0.5</v>
+      </c>
+      <c r="J19">
+        <v>0.5</v>
+      </c>
+      <c r="K19">
+        <v>0.5</v>
+      </c>
+      <c r="L19">
+        <v>0.5</v>
+      </c>
+      <c r="M19">
+        <v>0.5</v>
+      </c>
+      <c r="N19">
+        <v>0.5</v>
+      </c>
+      <c r="O19">
+        <v>0.5</v>
+      </c>
+      <c r="P19">
+        <v>0.5</v>
+      </c>
+      <c r="Q19">
+        <v>0.5</v>
+      </c>
+      <c r="R19">
+        <v>0.5</v>
+      </c>
+      <c r="S19">
+        <v>0.5</v>
+      </c>
+      <c r="T19">
+        <v>0.5</v>
+      </c>
+      <c r="U19">
+        <v>0.5</v>
+      </c>
+      <c r="V19">
+        <v>0.5</v>
+      </c>
+      <c r="W19">
+        <v>0.5</v>
+      </c>
+      <c r="X19">
+        <v>0.5</v>
+      </c>
+      <c r="Y19">
+        <v>0.5</v>
+      </c>
+      <c r="Z19">
+        <v>0.5</v>
+      </c>
+      <c r="AA19">
+        <v>0.5</v>
+      </c>
+      <c r="AB19">
+        <v>0.5</v>
+      </c>
+      <c r="AC19">
+        <v>0.5</v>
+      </c>
+      <c r="AD19">
+        <v>0.5</v>
+      </c>
+      <c r="AE19">
+        <v>0.5</v>
+      </c>
+      <c r="AF19">
+        <v>0.5</v>
+      </c>
+      <c r="AG19">
+        <v>0.5</v>
+      </c>
+      <c r="AH19">
+        <v>0.5</v>
+      </c>
+      <c r="AI19">
+        <v>0.5</v>
+      </c>
+      <c r="AJ19">
+        <v>0.5</v>
+      </c>
+      <c r="AK19">
+        <v>0.5</v>
+      </c>
+      <c r="AL19">
+        <v>0.5</v>
+      </c>
+      <c r="AM19">
+        <v>0.5</v>
+      </c>
+      <c r="AN19">
+        <v>0.5</v>
+      </c>
+      <c r="AO19">
+        <v>0.5</v>
+      </c>
+      <c r="AP19">
+        <v>0.5</v>
+      </c>
+      <c r="AQ19">
+        <v>0.5</v>
+      </c>
+      <c r="AR19">
+        <v>0.5</v>
+      </c>
+      <c r="AS19">
+        <v>0.5</v>
+      </c>
+      <c r="AT19">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>10</v>
+      </c>
+      <c r="B20">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>32</v>
+      </c>
+      <c r="E20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20">
+        <v>0.5</v>
+      </c>
+      <c r="G20">
+        <v>0.5</v>
+      </c>
+      <c r="H20">
+        <v>0.5</v>
+      </c>
+      <c r="I20">
+        <v>0.5</v>
+      </c>
+      <c r="J20">
+        <v>0.5</v>
+      </c>
+      <c r="K20">
+        <v>0.5</v>
+      </c>
+      <c r="L20">
+        <v>0.5</v>
+      </c>
+      <c r="M20">
+        <v>0.5</v>
+      </c>
+      <c r="N20">
+        <v>0.5</v>
+      </c>
+      <c r="O20">
+        <v>0.5</v>
+      </c>
+      <c r="P20">
+        <v>0.5</v>
+      </c>
+      <c r="Q20">
+        <v>0.5</v>
+      </c>
+      <c r="R20">
+        <v>0.5</v>
+      </c>
+      <c r="S20">
+        <v>0.5</v>
+      </c>
+      <c r="T20">
+        <v>0.5</v>
+      </c>
+      <c r="U20">
+        <v>0.5</v>
+      </c>
+      <c r="V20">
+        <v>0.5</v>
+      </c>
+      <c r="W20">
+        <v>0.5</v>
+      </c>
+      <c r="X20">
+        <v>0.5</v>
+      </c>
+      <c r="Y20">
+        <v>0.5</v>
+      </c>
+      <c r="Z20">
+        <v>0.5</v>
+      </c>
+      <c r="AA20">
+        <v>0.5</v>
+      </c>
+      <c r="AB20">
+        <v>0.5</v>
+      </c>
+      <c r="AC20">
+        <v>0.5</v>
+      </c>
+      <c r="AD20">
+        <v>0.5</v>
+      </c>
+      <c r="AE20">
+        <v>0.5</v>
+      </c>
+      <c r="AF20">
+        <v>0.5</v>
+      </c>
+      <c r="AG20">
+        <v>0.5</v>
+      </c>
+      <c r="AH20">
+        <v>0.5</v>
+      </c>
+      <c r="AI20">
+        <v>0.5</v>
+      </c>
+      <c r="AJ20">
+        <v>0.5</v>
+      </c>
+      <c r="AK20">
+        <v>0.5</v>
+      </c>
+      <c r="AL20">
+        <v>0.5</v>
+      </c>
+      <c r="AM20">
+        <v>0.5</v>
+      </c>
+      <c r="AN20">
+        <v>0.5</v>
+      </c>
+      <c r="AO20">
+        <v>0.5</v>
+      </c>
+      <c r="AP20">
+        <v>0.5</v>
+      </c>
+      <c r="AQ20">
+        <v>0.5</v>
+      </c>
+      <c r="AR20">
+        <v>0.5</v>
+      </c>
+      <c r="AS20">
+        <v>0.5</v>
+      </c>
+      <c r="AT20">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>10</v>
+      </c>
+      <c r="B21">
+        <v>9</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>33</v>
+      </c>
+      <c r="E21" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21">
+        <v>0.5</v>
+      </c>
+      <c r="G21">
+        <v>0.5</v>
+      </c>
+      <c r="H21">
+        <v>0.5</v>
+      </c>
+      <c r="I21">
+        <v>0.5</v>
+      </c>
+      <c r="J21">
+        <v>0.5</v>
+      </c>
+      <c r="K21">
+        <v>0.5</v>
+      </c>
+      <c r="L21">
+        <v>0.5</v>
+      </c>
+      <c r="M21">
+        <v>0.5</v>
+      </c>
+      <c r="N21">
+        <v>0.5</v>
+      </c>
+      <c r="O21">
+        <v>0.5</v>
+      </c>
+      <c r="P21">
+        <v>0.5</v>
+      </c>
+      <c r="Q21">
+        <v>0.5</v>
+      </c>
+      <c r="R21">
+        <v>0.5</v>
+      </c>
+      <c r="S21">
+        <v>0.5</v>
+      </c>
+      <c r="T21">
+        <v>0.5</v>
+      </c>
+      <c r="U21">
+        <v>0.5</v>
+      </c>
+      <c r="V21">
+        <v>0.5</v>
+      </c>
+      <c r="W21">
+        <v>0.5</v>
+      </c>
+      <c r="X21">
+        <v>0.5</v>
+      </c>
+      <c r="Y21">
+        <v>0.5</v>
+      </c>
+      <c r="Z21">
+        <v>0.5</v>
+      </c>
+      <c r="AA21">
+        <v>0.5</v>
+      </c>
+      <c r="AB21">
+        <v>0.5</v>
+      </c>
+      <c r="AC21">
+        <v>0.5</v>
+      </c>
+      <c r="AD21">
+        <v>0.5</v>
+      </c>
+      <c r="AE21">
+        <v>0.5</v>
+      </c>
+      <c r="AF21">
+        <v>0.5</v>
+      </c>
+      <c r="AG21">
+        <v>0.5</v>
+      </c>
+      <c r="AH21">
+        <v>0.5</v>
+      </c>
+      <c r="AI21">
+        <v>0.5</v>
+      </c>
+      <c r="AJ21">
+        <v>0.5</v>
+      </c>
+      <c r="AK21">
+        <v>0.5</v>
+      </c>
+      <c r="AL21">
+        <v>0.5</v>
+      </c>
+      <c r="AM21">
+        <v>0.5</v>
+      </c>
+      <c r="AN21">
+        <v>0.5</v>
+      </c>
+      <c r="AO21">
+        <v>0.5</v>
+      </c>
+      <c r="AP21">
+        <v>0.5</v>
+      </c>
+      <c r="AQ21">
+        <v>0.5</v>
+      </c>
+      <c r="AR21">
+        <v>0.5</v>
+      </c>
+      <c r="AS21">
+        <v>0.5</v>
+      </c>
+      <c r="AT21">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>10</v>
+      </c>
+      <c r="B22">
+        <v>9</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>34</v>
+      </c>
+      <c r="E22" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22">
+        <v>0.5</v>
+      </c>
+      <c r="G22">
+        <v>0.5</v>
+      </c>
+      <c r="H22">
+        <v>0.5</v>
+      </c>
+      <c r="I22">
+        <v>0.5</v>
+      </c>
+      <c r="J22">
+        <v>0.5</v>
+      </c>
+      <c r="K22">
+        <v>0.5</v>
+      </c>
+      <c r="L22">
+        <v>0.5</v>
+      </c>
+      <c r="M22">
+        <v>0.5</v>
+      </c>
+      <c r="N22">
+        <v>0.5</v>
+      </c>
+      <c r="O22">
+        <v>0.5</v>
+      </c>
+      <c r="P22">
+        <v>0.5</v>
+      </c>
+      <c r="Q22">
+        <v>0.5</v>
+      </c>
+      <c r="R22">
+        <v>0.5</v>
+      </c>
+      <c r="S22">
+        <v>0.5</v>
+      </c>
+      <c r="T22">
+        <v>0.5</v>
+      </c>
+      <c r="U22">
+        <v>0.5</v>
+      </c>
+      <c r="V22">
+        <v>0.5</v>
+      </c>
+      <c r="W22">
+        <v>0.5</v>
+      </c>
+      <c r="X22">
+        <v>0.5</v>
+      </c>
+      <c r="Y22">
+        <v>0.5</v>
+      </c>
+      <c r="Z22">
+        <v>0.5</v>
+      </c>
+      <c r="AA22">
+        <v>0.5</v>
+      </c>
+      <c r="AB22">
+        <v>0.5</v>
+      </c>
+      <c r="AC22">
+        <v>0.5</v>
+      </c>
+      <c r="AD22">
+        <v>0.5</v>
+      </c>
+      <c r="AE22">
+        <v>0.5</v>
+      </c>
+      <c r="AF22">
+        <v>0.5</v>
+      </c>
+      <c r="AG22">
+        <v>0.5</v>
+      </c>
+      <c r="AH22">
+        <v>0.5</v>
+      </c>
+      <c r="AI22">
+        <v>0.5</v>
+      </c>
+      <c r="AJ22">
+        <v>0.5</v>
+      </c>
+      <c r="AK22">
+        <v>0.5</v>
+      </c>
+      <c r="AL22">
+        <v>0.5</v>
+      </c>
+      <c r="AM22">
+        <v>0.5</v>
+      </c>
+      <c r="AN22">
+        <v>0.5</v>
+      </c>
+      <c r="AO22">
+        <v>0.5</v>
+      </c>
+      <c r="AP22">
+        <v>0.5</v>
+      </c>
+      <c r="AQ22">
+        <v>0.5</v>
+      </c>
+      <c r="AR22">
+        <v>0.5</v>
+      </c>
+      <c r="AS22">
+        <v>0.5</v>
+      </c>
+      <c r="AT22">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>10</v>
+      </c>
+      <c r="B23">
+        <v>9</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>35</v>
+      </c>
+      <c r="E23" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23">
+        <v>0.5</v>
+      </c>
+      <c r="G23">
+        <v>0.5</v>
+      </c>
+      <c r="H23">
+        <v>0.5</v>
+      </c>
+      <c r="I23">
+        <v>0.5</v>
+      </c>
+      <c r="J23">
+        <v>0.5</v>
+      </c>
+      <c r="K23">
+        <v>0.5</v>
+      </c>
+      <c r="L23">
+        <v>0.5</v>
+      </c>
+      <c r="M23">
+        <v>0.5</v>
+      </c>
+      <c r="N23">
+        <v>0.5</v>
+      </c>
+      <c r="O23">
+        <v>0.5</v>
+      </c>
+      <c r="P23">
+        <v>0.5</v>
+      </c>
+      <c r="Q23">
+        <v>0.5</v>
+      </c>
+      <c r="R23">
+        <v>0.5</v>
+      </c>
+      <c r="S23">
+        <v>0.5</v>
+      </c>
+      <c r="T23">
+        <v>0.5</v>
+      </c>
+      <c r="U23">
+        <v>0.5</v>
+      </c>
+      <c r="V23">
+        <v>0.5</v>
+      </c>
+      <c r="W23">
+        <v>0.5</v>
+      </c>
+      <c r="X23">
+        <v>0.5</v>
+      </c>
+      <c r="Y23">
+        <v>0.5</v>
+      </c>
+      <c r="Z23">
+        <v>0.5</v>
+      </c>
+      <c r="AA23">
+        <v>0.5</v>
+      </c>
+      <c r="AB23">
+        <v>0.5</v>
+      </c>
+      <c r="AC23">
+        <v>0.5</v>
+      </c>
+      <c r="AD23">
+        <v>0.5</v>
+      </c>
+      <c r="AE23">
+        <v>0.5</v>
+      </c>
+      <c r="AF23">
+        <v>0.5</v>
+      </c>
+      <c r="AG23">
+        <v>0.5</v>
+      </c>
+      <c r="AH23">
+        <v>0.5</v>
+      </c>
+      <c r="AI23">
+        <v>0.5</v>
+      </c>
+      <c r="AJ23">
+        <v>0.5</v>
+      </c>
+      <c r="AK23">
+        <v>0.5</v>
+      </c>
+      <c r="AL23">
+        <v>0.5</v>
+      </c>
+      <c r="AM23">
+        <v>0.5</v>
+      </c>
+      <c r="AN23">
+        <v>0.5</v>
+      </c>
+      <c r="AO23">
+        <v>0.5</v>
+      </c>
+      <c r="AP23">
+        <v>0.5</v>
+      </c>
+      <c r="AQ23">
+        <v>0.5</v>
+      </c>
+      <c r="AR23">
+        <v>0.5</v>
+      </c>
+      <c r="AS23">
+        <v>0.5</v>
+      </c>
+      <c r="AT23">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>10</v>
+      </c>
+      <c r="B24">
+        <v>9</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>36</v>
+      </c>
+      <c r="E24" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24">
+        <v>0.5</v>
+      </c>
+      <c r="G24">
+        <v>0.5</v>
+      </c>
+      <c r="H24">
+        <v>0.5</v>
+      </c>
+      <c r="I24">
+        <v>0.5</v>
+      </c>
+      <c r="J24">
+        <v>0.5</v>
+      </c>
+      <c r="K24">
+        <v>0.5</v>
+      </c>
+      <c r="L24">
+        <v>0.5</v>
+      </c>
+      <c r="M24">
+        <v>0.5</v>
+      </c>
+      <c r="N24">
+        <v>0.5</v>
+      </c>
+      <c r="O24">
+        <v>0.5</v>
+      </c>
+      <c r="P24">
+        <v>0.5</v>
+      </c>
+      <c r="Q24">
+        <v>0.5</v>
+      </c>
+      <c r="R24">
+        <v>0.5</v>
+      </c>
+      <c r="S24">
+        <v>0.5</v>
+      </c>
+      <c r="T24">
+        <v>0.5</v>
+      </c>
+      <c r="U24">
+        <v>0.5</v>
+      </c>
+      <c r="V24">
+        <v>0.5</v>
+      </c>
+      <c r="W24">
+        <v>0.5</v>
+      </c>
+      <c r="X24">
+        <v>0.5</v>
+      </c>
+      <c r="Y24">
+        <v>0.5</v>
+      </c>
+      <c r="Z24">
+        <v>0.5</v>
+      </c>
+      <c r="AA24">
+        <v>0.5</v>
+      </c>
+      <c r="AB24">
+        <v>0.5</v>
+      </c>
+      <c r="AC24">
+        <v>0.5</v>
+      </c>
+      <c r="AD24">
+        <v>0.5</v>
+      </c>
+      <c r="AE24">
+        <v>0.5</v>
+      </c>
+      <c r="AF24">
+        <v>0.5</v>
+      </c>
+      <c r="AG24">
+        <v>0.5</v>
+      </c>
+      <c r="AH24">
+        <v>0.5</v>
+      </c>
+      <c r="AI24">
+        <v>0.5</v>
+      </c>
+      <c r="AJ24">
+        <v>0.5</v>
+      </c>
+      <c r="AK24">
+        <v>0.5</v>
+      </c>
+      <c r="AL24">
+        <v>0.5</v>
+      </c>
+      <c r="AM24">
+        <v>0.5</v>
+      </c>
+      <c r="AN24">
+        <v>0.5</v>
+      </c>
+      <c r="AO24">
+        <v>0.5</v>
+      </c>
+      <c r="AP24">
+        <v>0.5</v>
+      </c>
+      <c r="AQ24">
+        <v>0.5</v>
+      </c>
+      <c r="AR24">
+        <v>0.5</v>
+      </c>
+      <c r="AS24">
+        <v>0.5</v>
+      </c>
+      <c r="AT24">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>10</v>
+      </c>
+      <c r="B25">
+        <v>9</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>37</v>
+      </c>
+      <c r="E25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25">
+        <v>0.5</v>
+      </c>
+      <c r="G25">
+        <v>0.5</v>
+      </c>
+      <c r="H25">
+        <v>0.5</v>
+      </c>
+      <c r="I25">
+        <v>0.5</v>
+      </c>
+      <c r="J25">
+        <v>0.5</v>
+      </c>
+      <c r="K25">
+        <v>0.5</v>
+      </c>
+      <c r="L25">
+        <v>0.5</v>
+      </c>
+      <c r="M25">
+        <v>0.5</v>
+      </c>
+      <c r="N25">
+        <v>0.5</v>
+      </c>
+      <c r="O25">
+        <v>0.5</v>
+      </c>
+      <c r="P25">
+        <v>0.5</v>
+      </c>
+      <c r="Q25">
+        <v>0.5</v>
+      </c>
+      <c r="R25">
+        <v>0.5</v>
+      </c>
+      <c r="S25">
+        <v>0.5</v>
+      </c>
+      <c r="T25">
+        <v>0.5</v>
+      </c>
+      <c r="U25">
+        <v>0.5</v>
+      </c>
+      <c r="V25">
+        <v>0.5</v>
+      </c>
+      <c r="W25">
+        <v>0.5</v>
+      </c>
+      <c r="X25">
+        <v>0.5</v>
+      </c>
+      <c r="Y25">
+        <v>0.5</v>
+      </c>
+      <c r="Z25">
+        <v>0.5</v>
+      </c>
+      <c r="AA25">
+        <v>0.5</v>
+      </c>
+      <c r="AB25">
+        <v>0.5</v>
+      </c>
+      <c r="AC25">
+        <v>0.5</v>
+      </c>
+      <c r="AD25">
+        <v>0.5</v>
+      </c>
+      <c r="AE25">
+        <v>0.5</v>
+      </c>
+      <c r="AF25">
+        <v>0.5</v>
+      </c>
+      <c r="AG25">
+        <v>0.5</v>
+      </c>
+      <c r="AH25">
+        <v>0.5</v>
+      </c>
+      <c r="AI25">
+        <v>0.5</v>
+      </c>
+      <c r="AJ25">
+        <v>0.5</v>
+      </c>
+      <c r="AK25">
+        <v>0.5</v>
+      </c>
+      <c r="AL25">
+        <v>0.5</v>
+      </c>
+      <c r="AM25">
+        <v>0.5</v>
+      </c>
+      <c r="AN25">
+        <v>0.5</v>
+      </c>
+      <c r="AO25">
+        <v>0.5</v>
+      </c>
+      <c r="AP25">
+        <v>0.5</v>
+      </c>
+      <c r="AQ25">
+        <v>0.5</v>
+      </c>
+      <c r="AR25">
+        <v>0.5</v>
+      </c>
+      <c r="AS25">
+        <v>0.5</v>
+      </c>
+      <c r="AT25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>10</v>
+      </c>
+      <c r="B26">
+        <v>9</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>38</v>
+      </c>
+      <c r="E26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26">
+        <v>0.5</v>
+      </c>
+      <c r="G26">
+        <v>0.5</v>
+      </c>
+      <c r="H26">
+        <v>0.5</v>
+      </c>
+      <c r="I26">
+        <v>0.5</v>
+      </c>
+      <c r="J26">
+        <v>0.5</v>
+      </c>
+      <c r="K26">
+        <v>0.5</v>
+      </c>
+      <c r="L26">
+        <v>0.5</v>
+      </c>
+      <c r="M26">
+        <v>0.5</v>
+      </c>
+      <c r="N26">
+        <v>0.5</v>
+      </c>
+      <c r="O26">
+        <v>0.5</v>
+      </c>
+      <c r="P26">
+        <v>0.5</v>
+      </c>
+      <c r="Q26">
+        <v>0.5</v>
+      </c>
+      <c r="R26">
+        <v>0.5</v>
+      </c>
+      <c r="S26">
+        <v>0.5</v>
+      </c>
+      <c r="T26">
+        <v>0.5</v>
+      </c>
+      <c r="U26">
+        <v>0.5</v>
+      </c>
+      <c r="V26">
+        <v>0.5</v>
+      </c>
+      <c r="W26">
+        <v>0.5</v>
+      </c>
+      <c r="X26">
+        <v>0.5</v>
+      </c>
+      <c r="Y26">
+        <v>0.5</v>
+      </c>
+      <c r="Z26">
+        <v>0.5</v>
+      </c>
+      <c r="AA26">
+        <v>0.5</v>
+      </c>
+      <c r="AB26">
+        <v>0.5</v>
+      </c>
+      <c r="AC26">
+        <v>0.5</v>
+      </c>
+      <c r="AD26">
+        <v>0.5</v>
+      </c>
+      <c r="AE26">
+        <v>0.5</v>
+      </c>
+      <c r="AF26">
+        <v>0.5</v>
+      </c>
+      <c r="AG26">
+        <v>0.5</v>
+      </c>
+      <c r="AH26">
+        <v>0.5</v>
+      </c>
+      <c r="AI26">
+        <v>0.5</v>
+      </c>
+      <c r="AJ26">
+        <v>0.5</v>
+      </c>
+      <c r="AK26">
+        <v>0.5</v>
+      </c>
+      <c r="AL26">
+        <v>0.5</v>
+      </c>
+      <c r="AM26">
+        <v>0.5</v>
+      </c>
+      <c r="AN26">
+        <v>0.5</v>
+      </c>
+      <c r="AO26">
+        <v>0.5</v>
+      </c>
+      <c r="AP26">
+        <v>0.5</v>
+      </c>
+      <c r="AQ26">
+        <v>0.5</v>
+      </c>
+      <c r="AR26">
+        <v>0.5</v>
+      </c>
+      <c r="AS26">
+        <v>0.5</v>
+      </c>
+      <c r="AT26">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <v>9</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>39</v>
+      </c>
+      <c r="E27" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27">
+        <v>0.5</v>
+      </c>
+      <c r="G27">
+        <v>0.5</v>
+      </c>
+      <c r="H27">
+        <v>0.5</v>
+      </c>
+      <c r="I27">
+        <v>0.5</v>
+      </c>
+      <c r="J27">
+        <v>0.5</v>
+      </c>
+      <c r="K27">
+        <v>0.5</v>
+      </c>
+      <c r="L27">
+        <v>0.5</v>
+      </c>
+      <c r="M27">
+        <v>0.5</v>
+      </c>
+      <c r="N27">
+        <v>0.5</v>
+      </c>
+      <c r="O27">
+        <v>0.5</v>
+      </c>
+      <c r="P27">
+        <v>0.5</v>
+      </c>
+      <c r="Q27">
+        <v>0.5</v>
+      </c>
+      <c r="R27">
+        <v>0.5</v>
+      </c>
+      <c r="S27">
+        <v>0.5</v>
+      </c>
+      <c r="T27">
+        <v>0.5</v>
+      </c>
+      <c r="U27">
+        <v>0.5</v>
+      </c>
+      <c r="V27">
+        <v>0.5</v>
+      </c>
+      <c r="W27">
+        <v>0.5</v>
+      </c>
+      <c r="X27">
+        <v>0.5</v>
+      </c>
+      <c r="Y27">
+        <v>0.5</v>
+      </c>
+      <c r="Z27">
+        <v>0.5</v>
+      </c>
+      <c r="AA27">
+        <v>0.5</v>
+      </c>
+      <c r="AB27">
+        <v>0.5</v>
+      </c>
+      <c r="AC27">
+        <v>0.5</v>
+      </c>
+      <c r="AD27">
+        <v>0.5</v>
+      </c>
+      <c r="AE27">
+        <v>0.5</v>
+      </c>
+      <c r="AF27">
+        <v>0.5</v>
+      </c>
+      <c r="AG27">
+        <v>0.5</v>
+      </c>
+      <c r="AH27">
+        <v>0.5</v>
+      </c>
+      <c r="AI27">
+        <v>0.5</v>
+      </c>
+      <c r="AJ27">
+        <v>0.5</v>
+      </c>
+      <c r="AK27">
+        <v>0.5</v>
+      </c>
+      <c r="AL27">
+        <v>0.5</v>
+      </c>
+      <c r="AM27">
+        <v>0.5</v>
+      </c>
+      <c r="AN27">
+        <v>0.5</v>
+      </c>
+      <c r="AO27">
+        <v>0.5</v>
+      </c>
+      <c r="AP27">
+        <v>0.5</v>
+      </c>
+      <c r="AQ27">
+        <v>0.5</v>
+      </c>
+      <c r="AR27">
+        <v>0.5</v>
+      </c>
+      <c r="AS27">
+        <v>0.5</v>
+      </c>
+      <c r="AT27">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>310</v>
+      </c>
+      <c r="E28" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28">
+        <v>0.5</v>
+      </c>
+      <c r="G28">
+        <v>0.5</v>
+      </c>
+      <c r="H28">
+        <v>0.5</v>
+      </c>
+      <c r="I28">
+        <v>0.5</v>
+      </c>
+      <c r="J28">
+        <v>0.5</v>
+      </c>
+      <c r="K28">
+        <v>0.5</v>
+      </c>
+      <c r="L28">
+        <v>0.5</v>
+      </c>
+      <c r="M28">
+        <v>0.5</v>
+      </c>
+      <c r="N28">
+        <v>0.5</v>
+      </c>
+      <c r="O28">
+        <v>0.5</v>
+      </c>
+      <c r="P28">
+        <v>0.5</v>
+      </c>
+      <c r="Q28">
+        <v>0.5</v>
+      </c>
+      <c r="R28">
+        <v>0.5</v>
+      </c>
+      <c r="S28">
+        <v>0.5</v>
+      </c>
+      <c r="T28">
+        <v>0.5</v>
+      </c>
+      <c r="U28">
+        <v>0.5</v>
+      </c>
+      <c r="V28">
+        <v>0.5</v>
+      </c>
+      <c r="W28">
+        <v>0.5</v>
+      </c>
+      <c r="X28">
+        <v>0.5</v>
+      </c>
+      <c r="Y28">
+        <v>0.5</v>
+      </c>
+      <c r="Z28">
+        <v>0.5</v>
+      </c>
+      <c r="AA28">
+        <v>0.5</v>
+      </c>
+      <c r="AB28">
+        <v>0.5</v>
+      </c>
+      <c r="AC28">
+        <v>0.5</v>
+      </c>
+      <c r="AD28">
+        <v>0.5</v>
+      </c>
+      <c r="AE28">
+        <v>0.5</v>
+      </c>
+      <c r="AF28">
+        <v>0.5</v>
+      </c>
+      <c r="AG28">
+        <v>0.5</v>
+      </c>
+      <c r="AH28">
+        <v>0.5</v>
+      </c>
+      <c r="AI28">
+        <v>0.5</v>
+      </c>
+      <c r="AJ28">
+        <v>0.5</v>
+      </c>
+      <c r="AK28">
+        <v>0.5</v>
+      </c>
+      <c r="AL28">
+        <v>0.5</v>
+      </c>
+      <c r="AM28">
+        <v>0.5</v>
+      </c>
+      <c r="AN28">
+        <v>0.5</v>
+      </c>
+      <c r="AO28">
+        <v>0.5</v>
+      </c>
+      <c r="AP28">
+        <v>0.5</v>
+      </c>
+      <c r="AQ28">
+        <v>0.5</v>
+      </c>
+      <c r="AR28">
+        <v>0.5</v>
+      </c>
+      <c r="AS28">
+        <v>0.5</v>
+      </c>
+      <c r="AT28">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>9</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>311</v>
+      </c>
+      <c r="E29" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29">
+        <v>0.5</v>
+      </c>
+      <c r="G29">
+        <v>0.5</v>
+      </c>
+      <c r="H29">
+        <v>0.5</v>
+      </c>
+      <c r="I29">
+        <v>0.5</v>
+      </c>
+      <c r="J29">
+        <v>0.5</v>
+      </c>
+      <c r="K29">
+        <v>0.5</v>
+      </c>
+      <c r="L29">
+        <v>0.5</v>
+      </c>
+      <c r="M29">
+        <v>0.5</v>
+      </c>
+      <c r="N29">
+        <v>0.5</v>
+      </c>
+      <c r="O29">
+        <v>0.5</v>
+      </c>
+      <c r="P29">
+        <v>0.5</v>
+      </c>
+      <c r="Q29">
+        <v>0.5</v>
+      </c>
+      <c r="R29">
+        <v>0.5</v>
+      </c>
+      <c r="S29">
+        <v>0.5</v>
+      </c>
+      <c r="T29">
+        <v>0.5</v>
+      </c>
+      <c r="U29">
+        <v>0.5</v>
+      </c>
+      <c r="V29">
+        <v>0.5</v>
+      </c>
+      <c r="W29">
+        <v>0.5</v>
+      </c>
+      <c r="X29">
+        <v>0.5</v>
+      </c>
+      <c r="Y29">
+        <v>0.5</v>
+      </c>
+      <c r="Z29">
+        <v>0.5</v>
+      </c>
+      <c r="AA29">
+        <v>0.5</v>
+      </c>
+      <c r="AB29">
+        <v>0.5</v>
+      </c>
+      <c r="AC29">
+        <v>0.5</v>
+      </c>
+      <c r="AD29">
+        <v>0.5</v>
+      </c>
+      <c r="AE29">
+        <v>0.5</v>
+      </c>
+      <c r="AF29">
+        <v>0.5</v>
+      </c>
+      <c r="AG29">
+        <v>0.5</v>
+      </c>
+      <c r="AH29">
+        <v>0.5</v>
+      </c>
+      <c r="AI29">
+        <v>0.5</v>
+      </c>
+      <c r="AJ29">
+        <v>0.5</v>
+      </c>
+      <c r="AK29">
+        <v>0.5</v>
+      </c>
+      <c r="AL29">
+        <v>0.5</v>
+      </c>
+      <c r="AM29">
+        <v>0.5</v>
+      </c>
+      <c r="AN29">
+        <v>0.5</v>
+      </c>
+      <c r="AO29">
+        <v>0.5</v>
+      </c>
+      <c r="AP29">
+        <v>0.5</v>
+      </c>
+      <c r="AQ29">
+        <v>0.5</v>
+      </c>
+      <c r="AR29">
+        <v>0.5</v>
+      </c>
+      <c r="AS29">
+        <v>0.5</v>
+      </c>
+      <c r="AT29">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>10</v>
+      </c>
+      <c r="B30">
+        <v>9</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>312</v>
+      </c>
+      <c r="E30" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30">
+        <v>0.5</v>
+      </c>
+      <c r="G30">
+        <v>0.5</v>
+      </c>
+      <c r="H30">
+        <v>0.5</v>
+      </c>
+      <c r="I30">
+        <v>0.5</v>
+      </c>
+      <c r="J30">
+        <v>0.5</v>
+      </c>
+      <c r="K30">
+        <v>0.5</v>
+      </c>
+      <c r="L30">
+        <v>0.5</v>
+      </c>
+      <c r="M30">
+        <v>0.5</v>
+      </c>
+      <c r="N30">
+        <v>0.5</v>
+      </c>
+      <c r="O30">
+        <v>0.5</v>
+      </c>
+      <c r="P30">
+        <v>0.5</v>
+      </c>
+      <c r="Q30">
+        <v>0.5</v>
+      </c>
+      <c r="R30">
+        <v>0.5</v>
+      </c>
+      <c r="S30">
+        <v>0.5</v>
+      </c>
+      <c r="T30">
+        <v>0.5</v>
+      </c>
+      <c r="U30">
+        <v>0.5</v>
+      </c>
+      <c r="V30">
+        <v>0.5</v>
+      </c>
+      <c r="W30">
+        <v>0.5</v>
+      </c>
+      <c r="X30">
+        <v>0.5</v>
+      </c>
+      <c r="Y30">
+        <v>0.5</v>
+      </c>
+      <c r="Z30">
+        <v>0.5</v>
+      </c>
+      <c r="AA30">
+        <v>0.5</v>
+      </c>
+      <c r="AB30">
+        <v>0.5</v>
+      </c>
+      <c r="AC30">
+        <v>0.5</v>
+      </c>
+      <c r="AD30">
+        <v>0.5</v>
+      </c>
+      <c r="AE30">
+        <v>0.5</v>
+      </c>
+      <c r="AF30">
+        <v>0.5</v>
+      </c>
+      <c r="AG30">
+        <v>0.5</v>
+      </c>
+      <c r="AH30">
+        <v>0.5</v>
+      </c>
+      <c r="AI30">
+        <v>0.5</v>
+      </c>
+      <c r="AJ30">
+        <v>0.5</v>
+      </c>
+      <c r="AK30">
+        <v>0.5</v>
+      </c>
+      <c r="AL30">
+        <v>0.5</v>
+      </c>
+      <c r="AM30">
+        <v>0.5</v>
+      </c>
+      <c r="AN30">
+        <v>0.5</v>
+      </c>
+      <c r="AO30">
+        <v>0.5</v>
+      </c>
+      <c r="AP30">
+        <v>0.5</v>
+      </c>
+      <c r="AQ30">
+        <v>0.5</v>
+      </c>
+      <c r="AR30">
+        <v>0.5</v>
+      </c>
+      <c r="AS30">
+        <v>0.5</v>
+      </c>
+      <c r="AT30">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>10</v>
+      </c>
+      <c r="B31">
+        <v>9</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>313</v>
+      </c>
+      <c r="E31" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31">
+        <v>0.5</v>
+      </c>
+      <c r="G31">
+        <v>0.5</v>
+      </c>
+      <c r="H31">
+        <v>0.5</v>
+      </c>
+      <c r="I31">
+        <v>0.5</v>
+      </c>
+      <c r="J31">
+        <v>0.5</v>
+      </c>
+      <c r="K31">
+        <v>0.5</v>
+      </c>
+      <c r="L31">
+        <v>0.5</v>
+      </c>
+      <c r="M31">
+        <v>0.5</v>
+      </c>
+      <c r="N31">
+        <v>0.5</v>
+      </c>
+      <c r="O31">
+        <v>0.5</v>
+      </c>
+      <c r="P31">
+        <v>0.5</v>
+      </c>
+      <c r="Q31">
+        <v>0.5</v>
+      </c>
+      <c r="R31">
+        <v>0.5</v>
+      </c>
+      <c r="S31">
+        <v>0.5</v>
+      </c>
+      <c r="T31">
+        <v>0.5</v>
+      </c>
+      <c r="U31">
+        <v>0.5</v>
+      </c>
+      <c r="V31">
+        <v>0.5</v>
+      </c>
+      <c r="W31">
+        <v>0.5</v>
+      </c>
+      <c r="X31">
+        <v>0.5</v>
+      </c>
+      <c r="Y31">
+        <v>0.5</v>
+      </c>
+      <c r="Z31">
+        <v>0.5</v>
+      </c>
+      <c r="AA31">
+        <v>0.5</v>
+      </c>
+      <c r="AB31">
+        <v>0.5</v>
+      </c>
+      <c r="AC31">
+        <v>0.5</v>
+      </c>
+      <c r="AD31">
+        <v>0.5</v>
+      </c>
+      <c r="AE31">
+        <v>0.5</v>
+      </c>
+      <c r="AF31">
+        <v>0.5</v>
+      </c>
+      <c r="AG31">
+        <v>0.5</v>
+      </c>
+      <c r="AH31">
+        <v>0.5</v>
+      </c>
+      <c r="AI31">
+        <v>0.5</v>
+      </c>
+      <c r="AJ31">
+        <v>0.5</v>
+      </c>
+      <c r="AK31">
+        <v>0.5</v>
+      </c>
+      <c r="AL31">
+        <v>0.5</v>
+      </c>
+      <c r="AM31">
+        <v>0.5</v>
+      </c>
+      <c r="AN31">
+        <v>0.5</v>
+      </c>
+      <c r="AO31">
+        <v>0.5</v>
+      </c>
+      <c r="AP31">
+        <v>0.5</v>
+      </c>
+      <c r="AQ31">
+        <v>0.5</v>
+      </c>
+      <c r="AR31">
+        <v>0.5</v>
+      </c>
+      <c r="AS31">
+        <v>0.5</v>
+      </c>
+      <c r="AT31">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>10</v>
+      </c>
+      <c r="B32">
+        <v>9</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>314</v>
+      </c>
+      <c r="E32" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32">
+        <v>0.5</v>
+      </c>
+      <c r="G32">
+        <v>0.5</v>
+      </c>
+      <c r="H32">
+        <v>0.5</v>
+      </c>
+      <c r="I32">
+        <v>0.5</v>
+      </c>
+      <c r="J32">
+        <v>0.5</v>
+      </c>
+      <c r="K32">
+        <v>0.5</v>
+      </c>
+      <c r="L32">
+        <v>0.5</v>
+      </c>
+      <c r="M32">
+        <v>0.5</v>
+      </c>
+      <c r="N32">
+        <v>0.5</v>
+      </c>
+      <c r="O32">
+        <v>0.5</v>
+      </c>
+      <c r="P32">
+        <v>0.5</v>
+      </c>
+      <c r="Q32">
+        <v>0.5</v>
+      </c>
+      <c r="R32">
+        <v>0.5</v>
+      </c>
+      <c r="S32">
+        <v>0.5</v>
+      </c>
+      <c r="T32">
+        <v>0.5</v>
+      </c>
+      <c r="U32">
+        <v>0.5</v>
+      </c>
+      <c r="V32">
+        <v>0.5</v>
+      </c>
+      <c r="W32">
+        <v>0.5</v>
+      </c>
+      <c r="X32">
+        <v>0.5</v>
+      </c>
+      <c r="Y32">
+        <v>0.5</v>
+      </c>
+      <c r="Z32">
+        <v>0.5</v>
+      </c>
+      <c r="AA32">
+        <v>0.5</v>
+      </c>
+      <c r="AB32">
+        <v>0.5</v>
+      </c>
+      <c r="AC32">
+        <v>0.5</v>
+      </c>
+      <c r="AD32">
+        <v>0.5</v>
+      </c>
+      <c r="AE32">
+        <v>0.5</v>
+      </c>
+      <c r="AF32">
+        <v>0.5</v>
+      </c>
+      <c r="AG32">
+        <v>0.5</v>
+      </c>
+      <c r="AH32">
+        <v>0.5</v>
+      </c>
+      <c r="AI32">
+        <v>0.5</v>
+      </c>
+      <c r="AJ32">
+        <v>0.5</v>
+      </c>
+      <c r="AK32">
+        <v>0.5</v>
+      </c>
+      <c r="AL32">
+        <v>0.5</v>
+      </c>
+      <c r="AM32">
+        <v>0.5</v>
+      </c>
+      <c r="AN32">
+        <v>0.5</v>
+      </c>
+      <c r="AO32">
+        <v>0.5</v>
+      </c>
+      <c r="AP32">
+        <v>0.5</v>
+      </c>
+      <c r="AQ32">
+        <v>0.5</v>
+      </c>
+      <c r="AR32">
+        <v>0.5</v>
+      </c>
+      <c r="AS32">
+        <v>0.5</v>
+      </c>
+      <c r="AT32">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>10</v>
+      </c>
+      <c r="B33">
+        <v>9</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>315</v>
+      </c>
+      <c r="E33" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33">
+        <v>0.5</v>
+      </c>
+      <c r="G33">
+        <v>0.5</v>
+      </c>
+      <c r="H33">
+        <v>0.5</v>
+      </c>
+      <c r="I33">
+        <v>0.5</v>
+      </c>
+      <c r="J33">
+        <v>0.5</v>
+      </c>
+      <c r="K33">
+        <v>0.5</v>
+      </c>
+      <c r="L33">
+        <v>0.5</v>
+      </c>
+      <c r="M33">
+        <v>0.5</v>
+      </c>
+      <c r="N33">
+        <v>0.5</v>
+      </c>
+      <c r="O33">
+        <v>0.5</v>
+      </c>
+      <c r="P33">
+        <v>0.5</v>
+      </c>
+      <c r="Q33">
+        <v>0.5</v>
+      </c>
+      <c r="R33">
+        <v>0.5</v>
+      </c>
+      <c r="S33">
+        <v>0.5</v>
+      </c>
+      <c r="T33">
+        <v>0.5</v>
+      </c>
+      <c r="U33">
+        <v>0.5</v>
+      </c>
+      <c r="V33">
+        <v>0.5</v>
+      </c>
+      <c r="W33">
+        <v>0.5</v>
+      </c>
+      <c r="X33">
+        <v>0.5</v>
+      </c>
+      <c r="Y33">
+        <v>0.5</v>
+      </c>
+      <c r="Z33">
+        <v>0.5</v>
+      </c>
+      <c r="AA33">
+        <v>0.5</v>
+      </c>
+      <c r="AB33">
+        <v>0.5</v>
+      </c>
+      <c r="AC33">
+        <v>0.5</v>
+      </c>
+      <c r="AD33">
+        <v>0.5</v>
+      </c>
+      <c r="AE33">
+        <v>0.5</v>
+      </c>
+      <c r="AF33">
+        <v>0.5</v>
+      </c>
+      <c r="AG33">
+        <v>0.5</v>
+      </c>
+      <c r="AH33">
+        <v>0.5</v>
+      </c>
+      <c r="AI33">
+        <v>0.5</v>
+      </c>
+      <c r="AJ33">
+        <v>0.5</v>
+      </c>
+      <c r="AK33">
+        <v>0.5</v>
+      </c>
+      <c r="AL33">
+        <v>0.5</v>
+      </c>
+      <c r="AM33">
+        <v>0.5</v>
+      </c>
+      <c r="AN33">
+        <v>0.5</v>
+      </c>
+      <c r="AO33">
+        <v>0.5</v>
+      </c>
+      <c r="AP33">
+        <v>0.5</v>
+      </c>
+      <c r="AQ33">
+        <v>0.5</v>
+      </c>
+      <c r="AR33">
+        <v>0.5</v>
+      </c>
+      <c r="AS33">
+        <v>0.5</v>
+      </c>
+      <c r="AT33">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>10</v>
+      </c>
+      <c r="B34">
+        <v>9</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>316</v>
+      </c>
+      <c r="E34" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34">
+        <v>0.5</v>
+      </c>
+      <c r="G34">
+        <v>0.5</v>
+      </c>
+      <c r="H34">
+        <v>0.5</v>
+      </c>
+      <c r="I34">
+        <v>0.5</v>
+      </c>
+      <c r="J34">
+        <v>0.5</v>
+      </c>
+      <c r="K34">
+        <v>0.5</v>
+      </c>
+      <c r="L34">
+        <v>0.5</v>
+      </c>
+      <c r="M34">
+        <v>0.5</v>
+      </c>
+      <c r="N34">
+        <v>0.5</v>
+      </c>
+      <c r="O34">
+        <v>0.5</v>
+      </c>
+      <c r="P34">
+        <v>0.5</v>
+      </c>
+      <c r="Q34">
+        <v>0.5</v>
+      </c>
+      <c r="R34">
+        <v>0.5</v>
+      </c>
+      <c r="S34">
+        <v>0.5</v>
+      </c>
+      <c r="T34">
+        <v>0.5</v>
+      </c>
+      <c r="U34">
+        <v>0.5</v>
+      </c>
+      <c r="V34">
+        <v>0.5</v>
+      </c>
+      <c r="W34">
+        <v>0.5</v>
+      </c>
+      <c r="X34">
+        <v>0.5</v>
+      </c>
+      <c r="Y34">
+        <v>0.5</v>
+      </c>
+      <c r="Z34">
+        <v>0.5</v>
+      </c>
+      <c r="AA34">
+        <v>0.5</v>
+      </c>
+      <c r="AB34">
+        <v>0.5</v>
+      </c>
+      <c r="AC34">
+        <v>0.5</v>
+      </c>
+      <c r="AD34">
+        <v>0.5</v>
+      </c>
+      <c r="AE34">
+        <v>0.5</v>
+      </c>
+      <c r="AF34">
+        <v>0.5</v>
+      </c>
+      <c r="AG34">
+        <v>0.5</v>
+      </c>
+      <c r="AH34">
+        <v>0.5</v>
+      </c>
+      <c r="AI34">
+        <v>0.5</v>
+      </c>
+      <c r="AJ34">
+        <v>0.5</v>
+      </c>
+      <c r="AK34">
+        <v>0.5</v>
+      </c>
+      <c r="AL34">
+        <v>0.5</v>
+      </c>
+      <c r="AM34">
+        <v>0.5</v>
+      </c>
+      <c r="AN34">
+        <v>0.5</v>
+      </c>
+      <c r="AO34">
+        <v>0.5</v>
+      </c>
+      <c r="AP34">
+        <v>0.5</v>
+      </c>
+      <c r="AQ34">
+        <v>0.5</v>
+      </c>
+      <c r="AR34">
+        <v>0.5</v>
+      </c>
+      <c r="AS34">
+        <v>0.5</v>
+      </c>
+      <c r="AT34">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>10</v>
+      </c>
+      <c r="B35">
+        <v>9</v>
+      </c>
+      <c r="C35">
+        <v>6</v>
+      </c>
+      <c r="D35">
+        <v>61</v>
+      </c>
+      <c r="E35" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35">
+        <v>0.5</v>
+      </c>
+      <c r="G35">
+        <v>0.5</v>
+      </c>
+      <c r="H35">
+        <v>0.5</v>
+      </c>
+      <c r="I35">
+        <v>0.5</v>
+      </c>
+      <c r="J35">
+        <v>0.5</v>
+      </c>
+      <c r="K35">
+        <v>0.5</v>
+      </c>
+      <c r="L35">
+        <v>0.5</v>
+      </c>
+      <c r="M35">
+        <v>0.5</v>
+      </c>
+      <c r="N35">
+        <v>0.5</v>
+      </c>
+      <c r="O35">
+        <v>0.5</v>
+      </c>
+      <c r="P35">
+        <v>0.5</v>
+      </c>
+      <c r="Q35">
+        <v>0.5</v>
+      </c>
+      <c r="R35">
+        <v>0.5</v>
+      </c>
+      <c r="S35">
+        <v>0.5</v>
+      </c>
+      <c r="T35">
+        <v>0.5</v>
+      </c>
+      <c r="U35">
+        <v>0.5</v>
+      </c>
+      <c r="V35">
+        <v>0.5</v>
+      </c>
+      <c r="W35">
+        <v>0.5</v>
+      </c>
+      <c r="X35">
+        <v>0.5</v>
+      </c>
+      <c r="Y35">
+        <v>0.5</v>
+      </c>
+      <c r="Z35">
+        <v>0.5</v>
+      </c>
+      <c r="AA35">
+        <v>0.5</v>
+      </c>
+      <c r="AB35">
+        <v>0.5</v>
+      </c>
+      <c r="AC35">
+        <v>0.5</v>
+      </c>
+      <c r="AD35">
+        <v>0.5</v>
+      </c>
+      <c r="AE35">
+        <v>0.5</v>
+      </c>
+      <c r="AF35">
+        <v>0.5</v>
+      </c>
+      <c r="AG35">
+        <v>0.5</v>
+      </c>
+      <c r="AH35">
+        <v>0.5</v>
+      </c>
+      <c r="AI35">
+        <v>0.5</v>
+      </c>
+      <c r="AJ35">
+        <v>0.5</v>
+      </c>
+      <c r="AK35">
+        <v>0.5</v>
+      </c>
+      <c r="AL35">
+        <v>0.5</v>
+      </c>
+      <c r="AM35">
+        <v>0.5</v>
+      </c>
+      <c r="AN35">
+        <v>0.5</v>
+      </c>
+      <c r="AO35">
+        <v>0.5</v>
+      </c>
+      <c r="AP35">
+        <v>0.5</v>
+      </c>
+      <c r="AQ35">
+        <v>0.5</v>
+      </c>
+      <c r="AR35">
+        <v>0.5</v>
+      </c>
+      <c r="AS35">
+        <v>0.5</v>
+      </c>
+      <c r="AT35">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>20</v>
+      </c>
+      <c r="B36">
+        <v>9</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>31</v>
+      </c>
+      <c r="E36" t="s">
+        <v>45</v>
+      </c>
+      <c r="F36">
+        <v>0.3</v>
+      </c>
+      <c r="G36">
+        <v>0.3</v>
+      </c>
+      <c r="H36">
+        <v>0.3</v>
+      </c>
+      <c r="I36">
+        <v>0.3</v>
+      </c>
+      <c r="J36">
+        <v>0.3</v>
+      </c>
+      <c r="K36">
+        <v>0.3</v>
+      </c>
+      <c r="L36">
+        <v>0.3</v>
+      </c>
+      <c r="M36">
+        <v>0.3</v>
+      </c>
+      <c r="N36">
+        <v>0.3</v>
+      </c>
+      <c r="O36">
+        <v>0.3</v>
+      </c>
+      <c r="P36">
+        <v>0.3</v>
+      </c>
+      <c r="Q36">
+        <v>0.3</v>
+      </c>
+      <c r="R36">
+        <v>0.3</v>
+      </c>
+      <c r="S36">
+        <v>0.3</v>
+      </c>
+      <c r="T36">
+        <v>0.3</v>
+      </c>
+      <c r="U36">
+        <v>0.3</v>
+      </c>
+      <c r="V36">
+        <v>0.3</v>
+      </c>
+      <c r="W36">
+        <v>0.3</v>
+      </c>
+      <c r="X36">
+        <v>0.3</v>
+      </c>
+      <c r="Y36">
+        <v>0.3</v>
+      </c>
+      <c r="Z36">
+        <v>0.3</v>
+      </c>
+      <c r="AA36">
+        <v>0.3</v>
+      </c>
+      <c r="AB36">
+        <v>0.3</v>
+      </c>
+      <c r="AC36">
+        <v>0.3</v>
+      </c>
+      <c r="AD36">
+        <v>0.3</v>
+      </c>
+      <c r="AE36">
+        <v>0.3</v>
+      </c>
+      <c r="AF36">
+        <v>0.3</v>
+      </c>
+      <c r="AG36">
+        <v>0.3</v>
+      </c>
+      <c r="AH36">
+        <v>0.3</v>
+      </c>
+      <c r="AI36">
+        <v>0.3</v>
+      </c>
+      <c r="AJ36">
+        <v>0.3</v>
+      </c>
+      <c r="AK36">
+        <v>0.3</v>
+      </c>
+      <c r="AL36">
+        <v>0.3</v>
+      </c>
+      <c r="AM36">
+        <v>0.3</v>
+      </c>
+      <c r="AN36">
+        <v>0.3</v>
+      </c>
+      <c r="AO36">
+        <v>0.3</v>
+      </c>
+      <c r="AP36">
+        <v>0.3</v>
+      </c>
+      <c r="AQ36">
+        <v>0.3</v>
+      </c>
+      <c r="AR36">
+        <v>0.3</v>
+      </c>
+      <c r="AS36">
+        <v>0.3</v>
+      </c>
+      <c r="AT36">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>20</v>
+      </c>
+      <c r="B37">
+        <v>9</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37">
+        <v>32</v>
+      </c>
+      <c r="E37" t="s">
+        <v>45</v>
+      </c>
+      <c r="F37">
+        <v>0.3</v>
+      </c>
+      <c r="G37">
+        <v>0.3</v>
+      </c>
+      <c r="H37">
+        <v>0.3</v>
+      </c>
+      <c r="I37">
+        <v>0.3</v>
+      </c>
+      <c r="J37">
+        <v>0.3</v>
+      </c>
+      <c r="K37">
+        <v>0.3</v>
+      </c>
+      <c r="L37">
+        <v>0.3</v>
+      </c>
+      <c r="M37">
+        <v>0.3</v>
+      </c>
+      <c r="N37">
+        <v>0.3</v>
+      </c>
+      <c r="O37">
+        <v>0.3</v>
+      </c>
+      <c r="P37">
+        <v>0.3</v>
+      </c>
+      <c r="Q37">
+        <v>0.3</v>
+      </c>
+      <c r="R37">
+        <v>0.3</v>
+      </c>
+      <c r="S37">
+        <v>0.3</v>
+      </c>
+      <c r="T37">
+        <v>0.3</v>
+      </c>
+      <c r="U37">
+        <v>0.3</v>
+      </c>
+      <c r="V37">
+        <v>0.3</v>
+      </c>
+      <c r="W37">
+        <v>0.3</v>
+      </c>
+      <c r="X37">
+        <v>0.3</v>
+      </c>
+      <c r="Y37">
+        <v>0.3</v>
+      </c>
+      <c r="Z37">
+        <v>0.3</v>
+      </c>
+      <c r="AA37">
+        <v>0.3</v>
+      </c>
+      <c r="AB37">
+        <v>0.3</v>
+      </c>
+      <c r="AC37">
+        <v>0.3</v>
+      </c>
+      <c r="AD37">
+        <v>0.3</v>
+      </c>
+      <c r="AE37">
+        <v>0.3</v>
+      </c>
+      <c r="AF37">
+        <v>0.3</v>
+      </c>
+      <c r="AG37">
+        <v>0.3</v>
+      </c>
+      <c r="AH37">
+        <v>0.3</v>
+      </c>
+      <c r="AI37">
+        <v>0.3</v>
+      </c>
+      <c r="AJ37">
+        <v>0.3</v>
+      </c>
+      <c r="AK37">
+        <v>0.3</v>
+      </c>
+      <c r="AL37">
+        <v>0.3</v>
+      </c>
+      <c r="AM37">
+        <v>0.3</v>
+      </c>
+      <c r="AN37">
+        <v>0.3</v>
+      </c>
+      <c r="AO37">
+        <v>0.3</v>
+      </c>
+      <c r="AP37">
+        <v>0.3</v>
+      </c>
+      <c r="AQ37">
+        <v>0.3</v>
+      </c>
+      <c r="AR37">
+        <v>0.3</v>
+      </c>
+      <c r="AS37">
+        <v>0.3</v>
+      </c>
+      <c r="AT37">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>20</v>
+      </c>
+      <c r="B38">
+        <v>9</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38">
+        <v>33</v>
+      </c>
+      <c r="E38" t="s">
+        <v>45</v>
+      </c>
+      <c r="F38">
+        <v>0.3</v>
+      </c>
+      <c r="G38">
+        <v>0.3</v>
+      </c>
+      <c r="H38">
+        <v>0.3</v>
+      </c>
+      <c r="I38">
+        <v>0.3</v>
+      </c>
+      <c r="J38">
+        <v>0.3</v>
+      </c>
+      <c r="K38">
+        <v>0.3</v>
+      </c>
+      <c r="L38">
+        <v>0.3</v>
+      </c>
+      <c r="M38">
+        <v>0.3</v>
+      </c>
+      <c r="N38">
+        <v>0.3</v>
+      </c>
+      <c r="O38">
+        <v>0.3</v>
+      </c>
+      <c r="P38">
+        <v>0.3</v>
+      </c>
+      <c r="Q38">
+        <v>0.3</v>
+      </c>
+      <c r="R38">
+        <v>0.3</v>
+      </c>
+      <c r="S38">
+        <v>0.3</v>
+      </c>
+      <c r="T38">
+        <v>0.3</v>
+      </c>
+      <c r="U38">
+        <v>0.3</v>
+      </c>
+      <c r="V38">
+        <v>0.3</v>
+      </c>
+      <c r="W38">
+        <v>0.3</v>
+      </c>
+      <c r="X38">
+        <v>0.3</v>
+      </c>
+      <c r="Y38">
+        <v>0.3</v>
+      </c>
+      <c r="Z38">
+        <v>0.3</v>
+      </c>
+      <c r="AA38">
+        <v>0.3</v>
+      </c>
+      <c r="AB38">
+        <v>0.3</v>
+      </c>
+      <c r="AC38">
+        <v>0.3</v>
+      </c>
+      <c r="AD38">
+        <v>0.3</v>
+      </c>
+      <c r="AE38">
+        <v>0.3</v>
+      </c>
+      <c r="AF38">
+        <v>0.3</v>
+      </c>
+      <c r="AG38">
+        <v>0.3</v>
+      </c>
+      <c r="AH38">
+        <v>0.3</v>
+      </c>
+      <c r="AI38">
+        <v>0.3</v>
+      </c>
+      <c r="AJ38">
+        <v>0.3</v>
+      </c>
+      <c r="AK38">
+        <v>0.3</v>
+      </c>
+      <c r="AL38">
+        <v>0.3</v>
+      </c>
+      <c r="AM38">
+        <v>0.3</v>
+      </c>
+      <c r="AN38">
+        <v>0.3</v>
+      </c>
+      <c r="AO38">
+        <v>0.3</v>
+      </c>
+      <c r="AP38">
+        <v>0.3</v>
+      </c>
+      <c r="AQ38">
+        <v>0.3</v>
+      </c>
+      <c r="AR38">
+        <v>0.3</v>
+      </c>
+      <c r="AS38">
+        <v>0.3</v>
+      </c>
+      <c r="AT38">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>20</v>
+      </c>
+      <c r="B39">
+        <v>9</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39">
+        <v>34</v>
+      </c>
+      <c r="E39" t="s">
+        <v>45</v>
+      </c>
+      <c r="F39">
+        <v>0.3</v>
+      </c>
+      <c r="G39">
+        <v>0.3</v>
+      </c>
+      <c r="H39">
+        <v>0.3</v>
+      </c>
+      <c r="I39">
+        <v>0.3</v>
+      </c>
+      <c r="J39">
+        <v>0.3</v>
+      </c>
+      <c r="K39">
+        <v>0.3</v>
+      </c>
+      <c r="L39">
+        <v>0.3</v>
+      </c>
+      <c r="M39">
+        <v>0.3</v>
+      </c>
+      <c r="N39">
+        <v>0.3</v>
+      </c>
+      <c r="O39">
+        <v>0.3</v>
+      </c>
+      <c r="P39">
+        <v>0.3</v>
+      </c>
+      <c r="Q39">
+        <v>0.3</v>
+      </c>
+      <c r="R39">
+        <v>0.3</v>
+      </c>
+      <c r="S39">
+        <v>0.3</v>
+      </c>
+      <c r="T39">
+        <v>0.3</v>
+      </c>
+      <c r="U39">
+        <v>0.3</v>
+      </c>
+      <c r="V39">
+        <v>0.3</v>
+      </c>
+      <c r="W39">
+        <v>0.3</v>
+      </c>
+      <c r="X39">
+        <v>0.3</v>
+      </c>
+      <c r="Y39">
+        <v>0.3</v>
+      </c>
+      <c r="Z39">
+        <v>0.3</v>
+      </c>
+      <c r="AA39">
+        <v>0.3</v>
+      </c>
+      <c r="AB39">
+        <v>0.3</v>
+      </c>
+      <c r="AC39">
+        <v>0.3</v>
+      </c>
+      <c r="AD39">
+        <v>0.3</v>
+      </c>
+      <c r="AE39">
+        <v>0.3</v>
+      </c>
+      <c r="AF39">
+        <v>0.3</v>
+      </c>
+      <c r="AG39">
+        <v>0.3</v>
+      </c>
+      <c r="AH39">
+        <v>0.3</v>
+      </c>
+      <c r="AI39">
+        <v>0.3</v>
+      </c>
+      <c r="AJ39">
+        <v>0.3</v>
+      </c>
+      <c r="AK39">
+        <v>0.3</v>
+      </c>
+      <c r="AL39">
+        <v>0.3</v>
+      </c>
+      <c r="AM39">
+        <v>0.3</v>
+      </c>
+      <c r="AN39">
+        <v>0.3</v>
+      </c>
+      <c r="AO39">
+        <v>0.3</v>
+      </c>
+      <c r="AP39">
+        <v>0.3</v>
+      </c>
+      <c r="AQ39">
+        <v>0.3</v>
+      </c>
+      <c r="AR39">
+        <v>0.3</v>
+      </c>
+      <c r="AS39">
+        <v>0.3</v>
+      </c>
+      <c r="AT39">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>20</v>
+      </c>
+      <c r="B40">
+        <v>9</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>35</v>
+      </c>
+      <c r="E40" t="s">
+        <v>45</v>
+      </c>
+      <c r="F40">
+        <v>0.3</v>
+      </c>
+      <c r="G40">
+        <v>0.3</v>
+      </c>
+      <c r="H40">
+        <v>0.3</v>
+      </c>
+      <c r="I40">
+        <v>0.3</v>
+      </c>
+      <c r="J40">
+        <v>0.3</v>
+      </c>
+      <c r="K40">
+        <v>0.3</v>
+      </c>
+      <c r="L40">
+        <v>0.3</v>
+      </c>
+      <c r="M40">
+        <v>0.3</v>
+      </c>
+      <c r="N40">
+        <v>0.3</v>
+      </c>
+      <c r="O40">
+        <v>0.3</v>
+      </c>
+      <c r="P40">
+        <v>0.3</v>
+      </c>
+      <c r="Q40">
+        <v>0.3</v>
+      </c>
+      <c r="R40">
+        <v>0.3</v>
+      </c>
+      <c r="S40">
+        <v>0.3</v>
+      </c>
+      <c r="T40">
+        <v>0.3</v>
+      </c>
+      <c r="U40">
+        <v>0.3</v>
+      </c>
+      <c r="V40">
+        <v>0.3</v>
+      </c>
+      <c r="W40">
+        <v>0.3</v>
+      </c>
+      <c r="X40">
+        <v>0.3</v>
+      </c>
+      <c r="Y40">
+        <v>0.3</v>
+      </c>
+      <c r="Z40">
+        <v>0.3</v>
+      </c>
+      <c r="AA40">
+        <v>0.3</v>
+      </c>
+      <c r="AB40">
+        <v>0.3</v>
+      </c>
+      <c r="AC40">
+        <v>0.3</v>
+      </c>
+      <c r="AD40">
+        <v>0.3</v>
+      </c>
+      <c r="AE40">
+        <v>0.3</v>
+      </c>
+      <c r="AF40">
+        <v>0.3</v>
+      </c>
+      <c r="AG40">
+        <v>0.3</v>
+      </c>
+      <c r="AH40">
+        <v>0.3</v>
+      </c>
+      <c r="AI40">
+        <v>0.3</v>
+      </c>
+      <c r="AJ40">
+        <v>0.3</v>
+      </c>
+      <c r="AK40">
+        <v>0.3</v>
+      </c>
+      <c r="AL40">
+        <v>0.3</v>
+      </c>
+      <c r="AM40">
+        <v>0.3</v>
+      </c>
+      <c r="AN40">
+        <v>0.3</v>
+      </c>
+      <c r="AO40">
+        <v>0.3</v>
+      </c>
+      <c r="AP40">
+        <v>0.3</v>
+      </c>
+      <c r="AQ40">
+        <v>0.3</v>
+      </c>
+      <c r="AR40">
+        <v>0.3</v>
+      </c>
+      <c r="AS40">
+        <v>0.3</v>
+      </c>
+      <c r="AT40">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>20</v>
+      </c>
+      <c r="B41">
+        <v>9</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41">
+        <v>36</v>
+      </c>
+      <c r="E41" t="s">
+        <v>45</v>
+      </c>
+      <c r="F41">
+        <v>0.3</v>
+      </c>
+      <c r="G41">
+        <v>0.3</v>
+      </c>
+      <c r="H41">
+        <v>0.3</v>
+      </c>
+      <c r="I41">
+        <v>0.3</v>
+      </c>
+      <c r="J41">
+        <v>0.3</v>
+      </c>
+      <c r="K41">
+        <v>0.3</v>
+      </c>
+      <c r="L41">
+        <v>0.3</v>
+      </c>
+      <c r="M41">
+        <v>0.3</v>
+      </c>
+      <c r="N41">
+        <v>0.3</v>
+      </c>
+      <c r="O41">
+        <v>0.3</v>
+      </c>
+      <c r="P41">
+        <v>0.3</v>
+      </c>
+      <c r="Q41">
+        <v>0.3</v>
+      </c>
+      <c r="R41">
+        <v>0.3</v>
+      </c>
+      <c r="S41">
+        <v>0.3</v>
+      </c>
+      <c r="T41">
+        <v>0.3</v>
+      </c>
+      <c r="U41">
+        <v>0.3</v>
+      </c>
+      <c r="V41">
+        <v>0.3</v>
+      </c>
+      <c r="W41">
+        <v>0.3</v>
+      </c>
+      <c r="X41">
+        <v>0.3</v>
+      </c>
+      <c r="Y41">
+        <v>0.3</v>
+      </c>
+      <c r="Z41">
+        <v>0.3</v>
+      </c>
+      <c r="AA41">
+        <v>0.3</v>
+      </c>
+      <c r="AB41">
+        <v>0.3</v>
+      </c>
+      <c r="AC41">
+        <v>0.3</v>
+      </c>
+      <c r="AD41">
+        <v>0.3</v>
+      </c>
+      <c r="AE41">
+        <v>0.3</v>
+      </c>
+      <c r="AF41">
+        <v>0.3</v>
+      </c>
+      <c r="AG41">
+        <v>0.3</v>
+      </c>
+      <c r="AH41">
+        <v>0.3</v>
+      </c>
+      <c r="AI41">
+        <v>0.3</v>
+      </c>
+      <c r="AJ41">
+        <v>0.3</v>
+      </c>
+      <c r="AK41">
+        <v>0.3</v>
+      </c>
+      <c r="AL41">
+        <v>0.3</v>
+      </c>
+      <c r="AM41">
+        <v>0.3</v>
+      </c>
+      <c r="AN41">
+        <v>0.3</v>
+      </c>
+      <c r="AO41">
+        <v>0.3</v>
+      </c>
+      <c r="AP41">
+        <v>0.3</v>
+      </c>
+      <c r="AQ41">
+        <v>0.3</v>
+      </c>
+      <c r="AR41">
+        <v>0.3</v>
+      </c>
+      <c r="AS41">
+        <v>0.3</v>
+      </c>
+      <c r="AT41">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>20</v>
+      </c>
+      <c r="B42">
+        <v>9</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42">
+        <v>37</v>
+      </c>
+      <c r="E42" t="s">
+        <v>45</v>
+      </c>
+      <c r="F42">
+        <v>0.3</v>
+      </c>
+      <c r="G42">
+        <v>0.3</v>
+      </c>
+      <c r="H42">
+        <v>0.3</v>
+      </c>
+      <c r="I42">
+        <v>0.3</v>
+      </c>
+      <c r="J42">
+        <v>0.3</v>
+      </c>
+      <c r="K42">
+        <v>0.3</v>
+      </c>
+      <c r="L42">
+        <v>0.3</v>
+      </c>
+      <c r="M42">
+        <v>0.3</v>
+      </c>
+      <c r="N42">
+        <v>0.3</v>
+      </c>
+      <c r="O42">
+        <v>0.3</v>
+      </c>
+      <c r="P42">
+        <v>0.3</v>
+      </c>
+      <c r="Q42">
+        <v>0.3</v>
+      </c>
+      <c r="R42">
+        <v>0.3</v>
+      </c>
+      <c r="S42">
+        <v>0.3</v>
+      </c>
+      <c r="T42">
+        <v>0.3</v>
+      </c>
+      <c r="U42">
+        <v>0.3</v>
+      </c>
+      <c r="V42">
+        <v>0.3</v>
+      </c>
+      <c r="W42">
+        <v>0.3</v>
+      </c>
+      <c r="X42">
+        <v>0.3</v>
+      </c>
+      <c r="Y42">
+        <v>0.3</v>
+      </c>
+      <c r="Z42">
+        <v>0.3</v>
+      </c>
+      <c r="AA42">
+        <v>0.3</v>
+      </c>
+      <c r="AB42">
+        <v>0.3</v>
+      </c>
+      <c r="AC42">
+        <v>0.3</v>
+      </c>
+      <c r="AD42">
+        <v>0.3</v>
+      </c>
+      <c r="AE42">
+        <v>0.3</v>
+      </c>
+      <c r="AF42">
+        <v>0.3</v>
+      </c>
+      <c r="AG42">
+        <v>0.3</v>
+      </c>
+      <c r="AH42">
+        <v>0.3</v>
+      </c>
+      <c r="AI42">
+        <v>0.3</v>
+      </c>
+      <c r="AJ42">
+        <v>0.3</v>
+      </c>
+      <c r="AK42">
+        <v>0.3</v>
+      </c>
+      <c r="AL42">
+        <v>0.3</v>
+      </c>
+      <c r="AM42">
+        <v>0.3</v>
+      </c>
+      <c r="AN42">
+        <v>0.3</v>
+      </c>
+      <c r="AO42">
+        <v>0.3</v>
+      </c>
+      <c r="AP42">
+        <v>0.3</v>
+      </c>
+      <c r="AQ42">
+        <v>0.3</v>
+      </c>
+      <c r="AR42">
+        <v>0.3</v>
+      </c>
+      <c r="AS42">
+        <v>0.3</v>
+      </c>
+      <c r="AT42">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>20</v>
+      </c>
+      <c r="B43">
+        <v>9</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43">
+        <v>38</v>
+      </c>
+      <c r="E43" t="s">
+        <v>45</v>
+      </c>
+      <c r="F43">
+        <v>0.3</v>
+      </c>
+      <c r="G43">
+        <v>0.3</v>
+      </c>
+      <c r="H43">
+        <v>0.3</v>
+      </c>
+      <c r="I43">
+        <v>0.3</v>
+      </c>
+      <c r="J43">
+        <v>0.3</v>
+      </c>
+      <c r="K43">
+        <v>0.3</v>
+      </c>
+      <c r="L43">
+        <v>0.3</v>
+      </c>
+      <c r="M43">
+        <v>0.3</v>
+      </c>
+      <c r="N43">
+        <v>0.3</v>
+      </c>
+      <c r="O43">
+        <v>0.3</v>
+      </c>
+      <c r="P43">
+        <v>0.3</v>
+      </c>
+      <c r="Q43">
+        <v>0.3</v>
+      </c>
+      <c r="R43">
+        <v>0.3</v>
+      </c>
+      <c r="S43">
+        <v>0.3</v>
+      </c>
+      <c r="T43">
+        <v>0.3</v>
+      </c>
+      <c r="U43">
+        <v>0.3</v>
+      </c>
+      <c r="V43">
+        <v>0.3</v>
+      </c>
+      <c r="W43">
+        <v>0.3</v>
+      </c>
+      <c r="X43">
+        <v>0.3</v>
+      </c>
+      <c r="Y43">
+        <v>0.3</v>
+      </c>
+      <c r="Z43">
+        <v>0.3</v>
+      </c>
+      <c r="AA43">
+        <v>0.3</v>
+      </c>
+      <c r="AB43">
+        <v>0.3</v>
+      </c>
+      <c r="AC43">
+        <v>0.3</v>
+      </c>
+      <c r="AD43">
+        <v>0.3</v>
+      </c>
+      <c r="AE43">
+        <v>0.3</v>
+      </c>
+      <c r="AF43">
+        <v>0.3</v>
+      </c>
+      <c r="AG43">
+        <v>0.3</v>
+      </c>
+      <c r="AH43">
+        <v>0.3</v>
+      </c>
+      <c r="AI43">
+        <v>0.3</v>
+      </c>
+      <c r="AJ43">
+        <v>0.3</v>
+      </c>
+      <c r="AK43">
+        <v>0.3</v>
+      </c>
+      <c r="AL43">
+        <v>0.3</v>
+      </c>
+      <c r="AM43">
+        <v>0.3</v>
+      </c>
+      <c r="AN43">
+        <v>0.3</v>
+      </c>
+      <c r="AO43">
+        <v>0.3</v>
+      </c>
+      <c r="AP43">
+        <v>0.3</v>
+      </c>
+      <c r="AQ43">
+        <v>0.3</v>
+      </c>
+      <c r="AR43">
+        <v>0.3</v>
+      </c>
+      <c r="AS43">
+        <v>0.3</v>
+      </c>
+      <c r="AT43">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>20</v>
+      </c>
+      <c r="B44">
+        <v>9</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44">
+        <v>39</v>
+      </c>
+      <c r="E44" t="s">
+        <v>45</v>
+      </c>
+      <c r="F44">
+        <v>0.3</v>
+      </c>
+      <c r="G44">
+        <v>0.3</v>
+      </c>
+      <c r="H44">
+        <v>0.3</v>
+      </c>
+      <c r="I44">
+        <v>0.3</v>
+      </c>
+      <c r="J44">
+        <v>0.3</v>
+      </c>
+      <c r="K44">
+        <v>0.3</v>
+      </c>
+      <c r="L44">
+        <v>0.3</v>
+      </c>
+      <c r="M44">
+        <v>0.3</v>
+      </c>
+      <c r="N44">
+        <v>0.3</v>
+      </c>
+      <c r="O44">
+        <v>0.3</v>
+      </c>
+      <c r="P44">
+        <v>0.3</v>
+      </c>
+      <c r="Q44">
+        <v>0.3</v>
+      </c>
+      <c r="R44">
+        <v>0.3</v>
+      </c>
+      <c r="S44">
+        <v>0.3</v>
+      </c>
+      <c r="T44">
+        <v>0.3</v>
+      </c>
+      <c r="U44">
+        <v>0.3</v>
+      </c>
+      <c r="V44">
+        <v>0.3</v>
+      </c>
+      <c r="W44">
+        <v>0.3</v>
+      </c>
+      <c r="X44">
+        <v>0.3</v>
+      </c>
+      <c r="Y44">
+        <v>0.3</v>
+      </c>
+      <c r="Z44">
+        <v>0.3</v>
+      </c>
+      <c r="AA44">
+        <v>0.3</v>
+      </c>
+      <c r="AB44">
+        <v>0.3</v>
+      </c>
+      <c r="AC44">
+        <v>0.3</v>
+      </c>
+      <c r="AD44">
+        <v>0.3</v>
+      </c>
+      <c r="AE44">
+        <v>0.3</v>
+      </c>
+      <c r="AF44">
+        <v>0.3</v>
+      </c>
+      <c r="AG44">
+        <v>0.3</v>
+      </c>
+      <c r="AH44">
+        <v>0.3</v>
+      </c>
+      <c r="AI44">
+        <v>0.3</v>
+      </c>
+      <c r="AJ44">
+        <v>0.3</v>
+      </c>
+      <c r="AK44">
+        <v>0.3</v>
+      </c>
+      <c r="AL44">
+        <v>0.3</v>
+      </c>
+      <c r="AM44">
+        <v>0.3</v>
+      </c>
+      <c r="AN44">
+        <v>0.3</v>
+      </c>
+      <c r="AO44">
+        <v>0.3</v>
+      </c>
+      <c r="AP44">
+        <v>0.3</v>
+      </c>
+      <c r="AQ44">
+        <v>0.3</v>
+      </c>
+      <c r="AR44">
+        <v>0.3</v>
+      </c>
+      <c r="AS44">
+        <v>0.3</v>
+      </c>
+      <c r="AT44">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>20</v>
+      </c>
+      <c r="B45">
+        <v>9</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45">
+        <v>310</v>
+      </c>
+      <c r="E45" t="s">
+        <v>45</v>
+      </c>
+      <c r="F45">
+        <v>0.3</v>
+      </c>
+      <c r="G45">
+        <v>0.3</v>
+      </c>
+      <c r="H45">
+        <v>0.3</v>
+      </c>
+      <c r="I45">
+        <v>0.3</v>
+      </c>
+      <c r="J45">
+        <v>0.3</v>
+      </c>
+      <c r="K45">
+        <v>0.3</v>
+      </c>
+      <c r="L45">
+        <v>0.3</v>
+      </c>
+      <c r="M45">
+        <v>0.3</v>
+      </c>
+      <c r="N45">
+        <v>0.3</v>
+      </c>
+      <c r="O45">
+        <v>0.3</v>
+      </c>
+      <c r="P45">
+        <v>0.3</v>
+      </c>
+      <c r="Q45">
+        <v>0.3</v>
+      </c>
+      <c r="R45">
+        <v>0.3</v>
+      </c>
+      <c r="S45">
+        <v>0.3</v>
+      </c>
+      <c r="T45">
+        <v>0.3</v>
+      </c>
+      <c r="U45">
+        <v>0.3</v>
+      </c>
+      <c r="V45">
+        <v>0.3</v>
+      </c>
+      <c r="W45">
+        <v>0.3</v>
+      </c>
+      <c r="X45">
+        <v>0.3</v>
+      </c>
+      <c r="Y45">
+        <v>0.3</v>
+      </c>
+      <c r="Z45">
+        <v>0.3</v>
+      </c>
+      <c r="AA45">
+        <v>0.3</v>
+      </c>
+      <c r="AB45">
+        <v>0.3</v>
+      </c>
+      <c r="AC45">
+        <v>0.3</v>
+      </c>
+      <c r="AD45">
+        <v>0.3</v>
+      </c>
+      <c r="AE45">
+        <v>0.3</v>
+      </c>
+      <c r="AF45">
+        <v>0.3</v>
+      </c>
+      <c r="AG45">
+        <v>0.3</v>
+      </c>
+      <c r="AH45">
+        <v>0.3</v>
+      </c>
+      <c r="AI45">
+        <v>0.3</v>
+      </c>
+      <c r="AJ45">
+        <v>0.3</v>
+      </c>
+      <c r="AK45">
+        <v>0.3</v>
+      </c>
+      <c r="AL45">
+        <v>0.3</v>
+      </c>
+      <c r="AM45">
+        <v>0.3</v>
+      </c>
+      <c r="AN45">
+        <v>0.3</v>
+      </c>
+      <c r="AO45">
+        <v>0.3</v>
+      </c>
+      <c r="AP45">
+        <v>0.3</v>
+      </c>
+      <c r="AQ45">
+        <v>0.3</v>
+      </c>
+      <c r="AR45">
+        <v>0.3</v>
+      </c>
+      <c r="AS45">
+        <v>0.3</v>
+      </c>
+      <c r="AT45">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>20</v>
+      </c>
+      <c r="B46">
+        <v>9</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46">
+        <v>311</v>
+      </c>
+      <c r="E46" t="s">
+        <v>45</v>
+      </c>
+      <c r="F46">
+        <v>0.3</v>
+      </c>
+      <c r="G46">
+        <v>0.3</v>
+      </c>
+      <c r="H46">
+        <v>0.3</v>
+      </c>
+      <c r="I46">
+        <v>0.3</v>
+      </c>
+      <c r="J46">
+        <v>0.3</v>
+      </c>
+      <c r="K46">
+        <v>0.3</v>
+      </c>
+      <c r="L46">
+        <v>0.3</v>
+      </c>
+      <c r="M46">
+        <v>0.3</v>
+      </c>
+      <c r="N46">
+        <v>0.3</v>
+      </c>
+      <c r="O46">
+        <v>0.3</v>
+      </c>
+      <c r="P46">
+        <v>0.3</v>
+      </c>
+      <c r="Q46">
+        <v>0.3</v>
+      </c>
+      <c r="R46">
+        <v>0.3</v>
+      </c>
+      <c r="S46">
+        <v>0.3</v>
+      </c>
+      <c r="T46">
+        <v>0.3</v>
+      </c>
+      <c r="U46">
+        <v>0.3</v>
+      </c>
+      <c r="V46">
+        <v>0.3</v>
+      </c>
+      <c r="W46">
+        <v>0.3</v>
+      </c>
+      <c r="X46">
+        <v>0.3</v>
+      </c>
+      <c r="Y46">
+        <v>0.3</v>
+      </c>
+      <c r="Z46">
+        <v>0.3</v>
+      </c>
+      <c r="AA46">
+        <v>0.3</v>
+      </c>
+      <c r="AB46">
+        <v>0.3</v>
+      </c>
+      <c r="AC46">
+        <v>0.3</v>
+      </c>
+      <c r="AD46">
+        <v>0.3</v>
+      </c>
+      <c r="AE46">
+        <v>0.3</v>
+      </c>
+      <c r="AF46">
+        <v>0.3</v>
+      </c>
+      <c r="AG46">
+        <v>0.3</v>
+      </c>
+      <c r="AH46">
+        <v>0.3</v>
+      </c>
+      <c r="AI46">
+        <v>0.3</v>
+      </c>
+      <c r="AJ46">
+        <v>0.3</v>
+      </c>
+      <c r="AK46">
+        <v>0.3</v>
+      </c>
+      <c r="AL46">
+        <v>0.3</v>
+      </c>
+      <c r="AM46">
+        <v>0.3</v>
+      </c>
+      <c r="AN46">
+        <v>0.3</v>
+      </c>
+      <c r="AO46">
+        <v>0.3</v>
+      </c>
+      <c r="AP46">
+        <v>0.3</v>
+      </c>
+      <c r="AQ46">
+        <v>0.3</v>
+      </c>
+      <c r="AR46">
+        <v>0.3</v>
+      </c>
+      <c r="AS46">
+        <v>0.3</v>
+      </c>
+      <c r="AT46">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>20</v>
+      </c>
+      <c r="B47">
+        <v>9</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="D47">
+        <v>312</v>
+      </c>
+      <c r="E47" t="s">
+        <v>45</v>
+      </c>
+      <c r="F47">
+        <v>0.3</v>
+      </c>
+      <c r="G47">
+        <v>0.3</v>
+      </c>
+      <c r="H47">
+        <v>0.3</v>
+      </c>
+      <c r="I47">
+        <v>0.3</v>
+      </c>
+      <c r="J47">
+        <v>0.3</v>
+      </c>
+      <c r="K47">
+        <v>0.3</v>
+      </c>
+      <c r="L47">
+        <v>0.3</v>
+      </c>
+      <c r="M47">
+        <v>0.3</v>
+      </c>
+      <c r="N47">
+        <v>0.3</v>
+      </c>
+      <c r="O47">
+        <v>0.3</v>
+      </c>
+      <c r="P47">
+        <v>0.3</v>
+      </c>
+      <c r="Q47">
+        <v>0.3</v>
+      </c>
+      <c r="R47">
+        <v>0.3</v>
+      </c>
+      <c r="S47">
+        <v>0.3</v>
+      </c>
+      <c r="T47">
+        <v>0.3</v>
+      </c>
+      <c r="U47">
+        <v>0.3</v>
+      </c>
+      <c r="V47">
+        <v>0.3</v>
+      </c>
+      <c r="W47">
+        <v>0.3</v>
+      </c>
+      <c r="X47">
+        <v>0.3</v>
+      </c>
+      <c r="Y47">
+        <v>0.3</v>
+      </c>
+      <c r="Z47">
+        <v>0.3</v>
+      </c>
+      <c r="AA47">
+        <v>0.3</v>
+      </c>
+      <c r="AB47">
+        <v>0.3</v>
+      </c>
+      <c r="AC47">
+        <v>0.3</v>
+      </c>
+      <c r="AD47">
+        <v>0.3</v>
+      </c>
+      <c r="AE47">
+        <v>0.3</v>
+      </c>
+      <c r="AF47">
+        <v>0.3</v>
+      </c>
+      <c r="AG47">
+        <v>0.3</v>
+      </c>
+      <c r="AH47">
+        <v>0.3</v>
+      </c>
+      <c r="AI47">
+        <v>0.3</v>
+      </c>
+      <c r="AJ47">
+        <v>0.3</v>
+      </c>
+      <c r="AK47">
+        <v>0.3</v>
+      </c>
+      <c r="AL47">
+        <v>0.3</v>
+      </c>
+      <c r="AM47">
+        <v>0.3</v>
+      </c>
+      <c r="AN47">
+        <v>0.3</v>
+      </c>
+      <c r="AO47">
+        <v>0.3</v>
+      </c>
+      <c r="AP47">
+        <v>0.3</v>
+      </c>
+      <c r="AQ47">
+        <v>0.3</v>
+      </c>
+      <c r="AR47">
+        <v>0.3</v>
+      </c>
+      <c r="AS47">
+        <v>0.3</v>
+      </c>
+      <c r="AT47">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>20</v>
+      </c>
+      <c r="B48">
+        <v>9</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="D48">
+        <v>313</v>
+      </c>
+      <c r="E48" t="s">
+        <v>45</v>
+      </c>
+      <c r="F48">
+        <v>0.3</v>
+      </c>
+      <c r="G48">
+        <v>0.3</v>
+      </c>
+      <c r="H48">
+        <v>0.3</v>
+      </c>
+      <c r="I48">
+        <v>0.3</v>
+      </c>
+      <c r="J48">
+        <v>0.3</v>
+      </c>
+      <c r="K48">
+        <v>0.3</v>
+      </c>
+      <c r="L48">
+        <v>0.3</v>
+      </c>
+      <c r="M48">
+        <v>0.3</v>
+      </c>
+      <c r="N48">
+        <v>0.3</v>
+      </c>
+      <c r="O48">
+        <v>0.3</v>
+      </c>
+      <c r="P48">
+        <v>0.3</v>
+      </c>
+      <c r="Q48">
+        <v>0.3</v>
+      </c>
+      <c r="R48">
+        <v>0.3</v>
+      </c>
+      <c r="S48">
+        <v>0.3</v>
+      </c>
+      <c r="T48">
+        <v>0.3</v>
+      </c>
+      <c r="U48">
+        <v>0.3</v>
+      </c>
+      <c r="V48">
+        <v>0.3</v>
+      </c>
+      <c r="W48">
+        <v>0.3</v>
+      </c>
+      <c r="X48">
+        <v>0.3</v>
+      </c>
+      <c r="Y48">
+        <v>0.3</v>
+      </c>
+      <c r="Z48">
+        <v>0.3</v>
+      </c>
+      <c r="AA48">
+        <v>0.3</v>
+      </c>
+      <c r="AB48">
+        <v>0.3</v>
+      </c>
+      <c r="AC48">
+        <v>0.3</v>
+      </c>
+      <c r="AD48">
+        <v>0.3</v>
+      </c>
+      <c r="AE48">
+        <v>0.3</v>
+      </c>
+      <c r="AF48">
+        <v>0.3</v>
+      </c>
+      <c r="AG48">
+        <v>0.3</v>
+      </c>
+      <c r="AH48">
+        <v>0.3</v>
+      </c>
+      <c r="AI48">
+        <v>0.3</v>
+      </c>
+      <c r="AJ48">
+        <v>0.3</v>
+      </c>
+      <c r="AK48">
+        <v>0.3</v>
+      </c>
+      <c r="AL48">
+        <v>0.3</v>
+      </c>
+      <c r="AM48">
+        <v>0.3</v>
+      </c>
+      <c r="AN48">
+        <v>0.3</v>
+      </c>
+      <c r="AO48">
+        <v>0.3</v>
+      </c>
+      <c r="AP48">
+        <v>0.3</v>
+      </c>
+      <c r="AQ48">
+        <v>0.3</v>
+      </c>
+      <c r="AR48">
+        <v>0.3</v>
+      </c>
+      <c r="AS48">
+        <v>0.3</v>
+      </c>
+      <c r="AT48">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>20</v>
+      </c>
+      <c r="B49">
+        <v>9</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="D49">
+        <v>314</v>
+      </c>
+      <c r="E49" t="s">
+        <v>45</v>
+      </c>
+      <c r="F49">
+        <v>0.3</v>
+      </c>
+      <c r="G49">
+        <v>0.3</v>
+      </c>
+      <c r="H49">
+        <v>0.3</v>
+      </c>
+      <c r="I49">
+        <v>0.3</v>
+      </c>
+      <c r="J49">
+        <v>0.3</v>
+      </c>
+      <c r="K49">
+        <v>0.3</v>
+      </c>
+      <c r="L49">
+        <v>0.3</v>
+      </c>
+      <c r="M49">
+        <v>0.3</v>
+      </c>
+      <c r="N49">
+        <v>0.3</v>
+      </c>
+      <c r="O49">
+        <v>0.3</v>
+      </c>
+      <c r="P49">
+        <v>0.3</v>
+      </c>
+      <c r="Q49">
+        <v>0.3</v>
+      </c>
+      <c r="R49">
+        <v>0.3</v>
+      </c>
+      <c r="S49">
+        <v>0.3</v>
+      </c>
+      <c r="T49">
+        <v>0.3</v>
+      </c>
+      <c r="U49">
+        <v>0.3</v>
+      </c>
+      <c r="V49">
+        <v>0.3</v>
+      </c>
+      <c r="W49">
+        <v>0.3</v>
+      </c>
+      <c r="X49">
+        <v>0.3</v>
+      </c>
+      <c r="Y49">
+        <v>0.3</v>
+      </c>
+      <c r="Z49">
+        <v>0.3</v>
+      </c>
+      <c r="AA49">
+        <v>0.3</v>
+      </c>
+      <c r="AB49">
+        <v>0.3</v>
+      </c>
+      <c r="AC49">
+        <v>0.3</v>
+      </c>
+      <c r="AD49">
+        <v>0.3</v>
+      </c>
+      <c r="AE49">
+        <v>0.3</v>
+      </c>
+      <c r="AF49">
+        <v>0.3</v>
+      </c>
+      <c r="AG49">
+        <v>0.3</v>
+      </c>
+      <c r="AH49">
+        <v>0.3</v>
+      </c>
+      <c r="AI49">
+        <v>0.3</v>
+      </c>
+      <c r="AJ49">
+        <v>0.3</v>
+      </c>
+      <c r="AK49">
+        <v>0.3</v>
+      </c>
+      <c r="AL49">
+        <v>0.3</v>
+      </c>
+      <c r="AM49">
+        <v>0.3</v>
+      </c>
+      <c r="AN49">
+        <v>0.3</v>
+      </c>
+      <c r="AO49">
+        <v>0.3</v>
+      </c>
+      <c r="AP49">
+        <v>0.3</v>
+      </c>
+      <c r="AQ49">
+        <v>0.3</v>
+      </c>
+      <c r="AR49">
+        <v>0.3</v>
+      </c>
+      <c r="AS49">
+        <v>0.3</v>
+      </c>
+      <c r="AT49">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>20</v>
+      </c>
+      <c r="B50">
+        <v>9</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="D50">
+        <v>315</v>
+      </c>
+      <c r="E50" t="s">
+        <v>45</v>
+      </c>
+      <c r="F50">
+        <v>0.3</v>
+      </c>
+      <c r="G50">
+        <v>0.3</v>
+      </c>
+      <c r="H50">
+        <v>0.3</v>
+      </c>
+      <c r="I50">
+        <v>0.3</v>
+      </c>
+      <c r="J50">
+        <v>0.3</v>
+      </c>
+      <c r="K50">
+        <v>0.3</v>
+      </c>
+      <c r="L50">
+        <v>0.3</v>
+      </c>
+      <c r="M50">
+        <v>0.3</v>
+      </c>
+      <c r="N50">
+        <v>0.3</v>
+      </c>
+      <c r="O50">
+        <v>0.3</v>
+      </c>
+      <c r="P50">
+        <v>0.3</v>
+      </c>
+      <c r="Q50">
+        <v>0.3</v>
+      </c>
+      <c r="R50">
+        <v>0.3</v>
+      </c>
+      <c r="S50">
+        <v>0.3</v>
+      </c>
+      <c r="T50">
+        <v>0.3</v>
+      </c>
+      <c r="U50">
+        <v>0.3</v>
+      </c>
+      <c r="V50">
+        <v>0.3</v>
+      </c>
+      <c r="W50">
+        <v>0.3</v>
+      </c>
+      <c r="X50">
+        <v>0.3</v>
+      </c>
+      <c r="Y50">
+        <v>0.3</v>
+      </c>
+      <c r="Z50">
+        <v>0.3</v>
+      </c>
+      <c r="AA50">
+        <v>0.3</v>
+      </c>
+      <c r="AB50">
+        <v>0.3</v>
+      </c>
+      <c r="AC50">
+        <v>0.3</v>
+      </c>
+      <c r="AD50">
+        <v>0.3</v>
+      </c>
+      <c r="AE50">
+        <v>0.3</v>
+      </c>
+      <c r="AF50">
+        <v>0.3</v>
+      </c>
+      <c r="AG50">
+        <v>0.3</v>
+      </c>
+      <c r="AH50">
+        <v>0.3</v>
+      </c>
+      <c r="AI50">
+        <v>0.3</v>
+      </c>
+      <c r="AJ50">
+        <v>0.3</v>
+      </c>
+      <c r="AK50">
+        <v>0.3</v>
+      </c>
+      <c r="AL50">
+        <v>0.3</v>
+      </c>
+      <c r="AM50">
+        <v>0.3</v>
+      </c>
+      <c r="AN50">
+        <v>0.3</v>
+      </c>
+      <c r="AO50">
+        <v>0.3</v>
+      </c>
+      <c r="AP50">
+        <v>0.3</v>
+      </c>
+      <c r="AQ50">
+        <v>0.3</v>
+      </c>
+      <c r="AR50">
+        <v>0.3</v>
+      </c>
+      <c r="AS50">
+        <v>0.3</v>
+      </c>
+      <c r="AT50">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>20</v>
+      </c>
+      <c r="B51">
+        <v>9</v>
+      </c>
+      <c r="C51">
+        <v>3</v>
+      </c>
+      <c r="D51">
+        <v>316</v>
+      </c>
+      <c r="E51" t="s">
+        <v>45</v>
+      </c>
+      <c r="F51">
+        <v>0.3</v>
+      </c>
+      <c r="G51">
+        <v>0.3</v>
+      </c>
+      <c r="H51">
+        <v>0.3</v>
+      </c>
+      <c r="I51">
+        <v>0.3</v>
+      </c>
+      <c r="J51">
+        <v>0.3</v>
+      </c>
+      <c r="K51">
+        <v>0.3</v>
+      </c>
+      <c r="L51">
+        <v>0.3</v>
+      </c>
+      <c r="M51">
+        <v>0.3</v>
+      </c>
+      <c r="N51">
+        <v>0.3</v>
+      </c>
+      <c r="O51">
+        <v>0.3</v>
+      </c>
+      <c r="P51">
+        <v>0.3</v>
+      </c>
+      <c r="Q51">
+        <v>0.3</v>
+      </c>
+      <c r="R51">
+        <v>0.3</v>
+      </c>
+      <c r="S51">
+        <v>0.3</v>
+      </c>
+      <c r="T51">
+        <v>0.3</v>
+      </c>
+      <c r="U51">
+        <v>0.3</v>
+      </c>
+      <c r="V51">
+        <v>0.3</v>
+      </c>
+      <c r="W51">
+        <v>0.3</v>
+      </c>
+      <c r="X51">
+        <v>0.3</v>
+      </c>
+      <c r="Y51">
+        <v>0.3</v>
+      </c>
+      <c r="Z51">
+        <v>0.3</v>
+      </c>
+      <c r="AA51">
+        <v>0.3</v>
+      </c>
+      <c r="AB51">
+        <v>0.3</v>
+      </c>
+      <c r="AC51">
+        <v>0.3</v>
+      </c>
+      <c r="AD51">
+        <v>0.3</v>
+      </c>
+      <c r="AE51">
+        <v>0.3</v>
+      </c>
+      <c r="AF51">
+        <v>0.3</v>
+      </c>
+      <c r="AG51">
+        <v>0.3</v>
+      </c>
+      <c r="AH51">
+        <v>0.3</v>
+      </c>
+      <c r="AI51">
+        <v>0.3</v>
+      </c>
+      <c r="AJ51">
+        <v>0.3</v>
+      </c>
+      <c r="AK51">
+        <v>0.3</v>
+      </c>
+      <c r="AL51">
+        <v>0.3</v>
+      </c>
+      <c r="AM51">
+        <v>0.3</v>
+      </c>
+      <c r="AN51">
+        <v>0.3</v>
+      </c>
+      <c r="AO51">
+        <v>0.3</v>
+      </c>
+      <c r="AP51">
+        <v>0.3</v>
+      </c>
+      <c r="AQ51">
+        <v>0.3</v>
+      </c>
+      <c r="AR51">
+        <v>0.3</v>
+      </c>
+      <c r="AS51">
+        <v>0.3</v>
+      </c>
+      <c r="AT51">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>20</v>
+      </c>
+      <c r="B52">
+        <v>9</v>
+      </c>
+      <c r="C52">
+        <v>6</v>
+      </c>
+      <c r="D52">
+        <v>61</v>
+      </c>
+      <c r="E52" t="s">
+        <v>45</v>
+      </c>
+      <c r="F52">
+        <v>0.3</v>
+      </c>
+      <c r="G52">
+        <v>0.3</v>
+      </c>
+      <c r="H52">
+        <v>0.3</v>
+      </c>
+      <c r="I52">
+        <v>0.3</v>
+      </c>
+      <c r="J52">
+        <v>0.3</v>
+      </c>
+      <c r="K52">
+        <v>0.3</v>
+      </c>
+      <c r="L52">
+        <v>0.3</v>
+      </c>
+      <c r="M52">
+        <v>0.3</v>
+      </c>
+      <c r="N52">
+        <v>0.3</v>
+      </c>
+      <c r="O52">
+        <v>0.3</v>
+      </c>
+      <c r="P52">
+        <v>0.3</v>
+      </c>
+      <c r="Q52">
+        <v>0.3</v>
+      </c>
+      <c r="R52">
+        <v>0.3</v>
+      </c>
+      <c r="S52">
+        <v>0.3</v>
+      </c>
+      <c r="T52">
+        <v>0.3</v>
+      </c>
+      <c r="U52">
+        <v>0.3</v>
+      </c>
+      <c r="V52">
+        <v>0.3</v>
+      </c>
+      <c r="W52">
+        <v>0.3</v>
+      </c>
+      <c r="X52">
+        <v>0.3</v>
+      </c>
+      <c r="Y52">
+        <v>0.3</v>
+      </c>
+      <c r="Z52">
+        <v>0.3</v>
+      </c>
+      <c r="AA52">
+        <v>0.3</v>
+      </c>
+      <c r="AB52">
+        <v>0.3</v>
+      </c>
+      <c r="AC52">
+        <v>0.3</v>
+      </c>
+      <c r="AD52">
+        <v>0.3</v>
+      </c>
+      <c r="AE52">
+        <v>0.3</v>
+      </c>
+      <c r="AF52">
+        <v>0.3</v>
+      </c>
+      <c r="AG52">
+        <v>0.3</v>
+      </c>
+      <c r="AH52">
+        <v>0.3</v>
+      </c>
+      <c r="AI52">
+        <v>0.3</v>
+      </c>
+      <c r="AJ52">
+        <v>0.3</v>
+      </c>
+      <c r="AK52">
+        <v>0.3</v>
+      </c>
+      <c r="AL52">
+        <v>0.3</v>
+      </c>
+      <c r="AM52">
+        <v>0.3</v>
+      </c>
+      <c r="AN52">
+        <v>0.3</v>
+      </c>
+      <c r="AO52">
+        <v>0.3</v>
+      </c>
+      <c r="AP52">
+        <v>0.3</v>
+      </c>
+      <c r="AQ52">
+        <v>0.3</v>
+      </c>
+      <c r="AR52">
+        <v>0.3</v>
+      </c>
+      <c r="AS52">
+        <v>0.3</v>
+      </c>
+      <c r="AT52">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>30</v>
+      </c>
+      <c r="B53">
+        <v>9</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
+      </c>
+      <c r="D53">
+        <v>31</v>
+      </c>
+      <c r="E53" t="s">
+        <v>45</v>
+      </c>
+      <c r="F53">
+        <v>0.15</v>
+      </c>
+      <c r="G53">
+        <v>0.15</v>
+      </c>
+      <c r="H53">
+        <v>0.15</v>
+      </c>
+      <c r="I53">
+        <v>0.15</v>
+      </c>
+      <c r="J53">
+        <v>0.15</v>
+      </c>
+      <c r="K53">
+        <v>0.15</v>
+      </c>
+      <c r="L53">
+        <v>0.15</v>
+      </c>
+      <c r="M53">
+        <v>0.15</v>
+      </c>
+      <c r="N53">
+        <v>0.15</v>
+      </c>
+      <c r="O53">
+        <v>0.15</v>
+      </c>
+      <c r="P53">
+        <v>0.15</v>
+      </c>
+      <c r="Q53">
+        <v>0.15</v>
+      </c>
+      <c r="R53">
+        <v>0.15</v>
+      </c>
+      <c r="S53">
+        <v>0.15</v>
+      </c>
+      <c r="T53">
+        <v>0.15</v>
+      </c>
+      <c r="U53">
+        <v>0.15</v>
+      </c>
+      <c r="V53">
+        <v>0.15</v>
+      </c>
+      <c r="W53">
+        <v>0.15</v>
+      </c>
+      <c r="X53">
+        <v>0.15</v>
+      </c>
+      <c r="Y53">
+        <v>0.15</v>
+      </c>
+      <c r="Z53">
+        <v>0.15</v>
+      </c>
+      <c r="AA53">
+        <v>0.15</v>
+      </c>
+      <c r="AB53">
+        <v>0.15</v>
+      </c>
+      <c r="AC53">
+        <v>0.15</v>
+      </c>
+      <c r="AD53">
+        <v>0.15</v>
+      </c>
+      <c r="AE53">
+        <v>0.15</v>
+      </c>
+      <c r="AF53">
+        <v>0.15</v>
+      </c>
+      <c r="AG53">
+        <v>0.15</v>
+      </c>
+      <c r="AH53">
+        <v>0.15</v>
+      </c>
+      <c r="AI53">
+        <v>0.15</v>
+      </c>
+      <c r="AJ53">
+        <v>0.15</v>
+      </c>
+      <c r="AK53">
+        <v>0.15</v>
+      </c>
+      <c r="AL53">
+        <v>0.15</v>
+      </c>
+      <c r="AM53">
+        <v>0.15</v>
+      </c>
+      <c r="AN53">
+        <v>0.15</v>
+      </c>
+      <c r="AO53">
+        <v>0.15</v>
+      </c>
+      <c r="AP53">
+        <v>0.15</v>
+      </c>
+      <c r="AQ53">
+        <v>0.15</v>
+      </c>
+      <c r="AR53">
+        <v>0.15</v>
+      </c>
+      <c r="AS53">
+        <v>0.15</v>
+      </c>
+      <c r="AT53">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>30</v>
+      </c>
+      <c r="B54">
+        <v>9</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+      <c r="D54">
+        <v>32</v>
+      </c>
+      <c r="E54" t="s">
+        <v>45</v>
+      </c>
+      <c r="F54">
+        <v>0.15</v>
+      </c>
+      <c r="G54">
+        <v>0.15</v>
+      </c>
+      <c r="H54">
+        <v>0.15</v>
+      </c>
+      <c r="I54">
+        <v>0.15</v>
+      </c>
+      <c r="J54">
+        <v>0.15</v>
+      </c>
+      <c r="K54">
+        <v>0.15</v>
+      </c>
+      <c r="L54">
+        <v>0.15</v>
+      </c>
+      <c r="M54">
+        <v>0.15</v>
+      </c>
+      <c r="N54">
+        <v>0.15</v>
+      </c>
+      <c r="O54">
+        <v>0.15</v>
+      </c>
+      <c r="P54">
+        <v>0.15</v>
+      </c>
+      <c r="Q54">
+        <v>0.15</v>
+      </c>
+      <c r="R54">
+        <v>0.15</v>
+      </c>
+      <c r="S54">
+        <v>0.15</v>
+      </c>
+      <c r="T54">
+        <v>0.15</v>
+      </c>
+      <c r="U54">
+        <v>0.15</v>
+      </c>
+      <c r="V54">
+        <v>0.15</v>
+      </c>
+      <c r="W54">
+        <v>0.15</v>
+      </c>
+      <c r="X54">
+        <v>0.15</v>
+      </c>
+      <c r="Y54">
+        <v>0.15</v>
+      </c>
+      <c r="Z54">
+        <v>0.15</v>
+      </c>
+      <c r="AA54">
+        <v>0.15</v>
+      </c>
+      <c r="AB54">
+        <v>0.15</v>
+      </c>
+      <c r="AC54">
+        <v>0.15</v>
+      </c>
+      <c r="AD54">
+        <v>0.15</v>
+      </c>
+      <c r="AE54">
+        <v>0.15</v>
+      </c>
+      <c r="AF54">
+        <v>0.15</v>
+      </c>
+      <c r="AG54">
+        <v>0.15</v>
+      </c>
+      <c r="AH54">
+        <v>0.15</v>
+      </c>
+      <c r="AI54">
+        <v>0.15</v>
+      </c>
+      <c r="AJ54">
+        <v>0.15</v>
+      </c>
+      <c r="AK54">
+        <v>0.15</v>
+      </c>
+      <c r="AL54">
+        <v>0.15</v>
+      </c>
+      <c r="AM54">
+        <v>0.15</v>
+      </c>
+      <c r="AN54">
+        <v>0.15</v>
+      </c>
+      <c r="AO54">
+        <v>0.15</v>
+      </c>
+      <c r="AP54">
+        <v>0.15</v>
+      </c>
+      <c r="AQ54">
+        <v>0.15</v>
+      </c>
+      <c r="AR54">
+        <v>0.15</v>
+      </c>
+      <c r="AS54">
+        <v>0.15</v>
+      </c>
+      <c r="AT54">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>30</v>
+      </c>
+      <c r="B55">
+        <v>9</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+      <c r="D55">
+        <v>33</v>
+      </c>
+      <c r="E55" t="s">
+        <v>45</v>
+      </c>
+      <c r="F55">
+        <v>0.15</v>
+      </c>
+      <c r="G55">
+        <v>0.15</v>
+      </c>
+      <c r="H55">
+        <v>0.15</v>
+      </c>
+      <c r="I55">
+        <v>0.15</v>
+      </c>
+      <c r="J55">
+        <v>0.15</v>
+      </c>
+      <c r="K55">
+        <v>0.15</v>
+      </c>
+      <c r="L55">
+        <v>0.15</v>
+      </c>
+      <c r="M55">
+        <v>0.15</v>
+      </c>
+      <c r="N55">
+        <v>0.15</v>
+      </c>
+      <c r="O55">
+        <v>0.15</v>
+      </c>
+      <c r="P55">
+        <v>0.15</v>
+      </c>
+      <c r="Q55">
+        <v>0.15</v>
+      </c>
+      <c r="R55">
+        <v>0.15</v>
+      </c>
+      <c r="S55">
+        <v>0.15</v>
+      </c>
+      <c r="T55">
+        <v>0.15</v>
+      </c>
+      <c r="U55">
+        <v>0.15</v>
+      </c>
+      <c r="V55">
+        <v>0.15</v>
+      </c>
+      <c r="W55">
+        <v>0.15</v>
+      </c>
+      <c r="X55">
+        <v>0.15</v>
+      </c>
+      <c r="Y55">
+        <v>0.15</v>
+      </c>
+      <c r="Z55">
+        <v>0.15</v>
+      </c>
+      <c r="AA55">
+        <v>0.15</v>
+      </c>
+      <c r="AB55">
+        <v>0.15</v>
+      </c>
+      <c r="AC55">
+        <v>0.15</v>
+      </c>
+      <c r="AD55">
+        <v>0.15</v>
+      </c>
+      <c r="AE55">
+        <v>0.15</v>
+      </c>
+      <c r="AF55">
+        <v>0.15</v>
+      </c>
+      <c r="AG55">
+        <v>0.15</v>
+      </c>
+      <c r="AH55">
+        <v>0.15</v>
+      </c>
+      <c r="AI55">
+        <v>0.15</v>
+      </c>
+      <c r="AJ55">
+        <v>0.15</v>
+      </c>
+      <c r="AK55">
+        <v>0.15</v>
+      </c>
+      <c r="AL55">
+        <v>0.15</v>
+      </c>
+      <c r="AM55">
+        <v>0.15</v>
+      </c>
+      <c r="AN55">
+        <v>0.15</v>
+      </c>
+      <c r="AO55">
+        <v>0.15</v>
+      </c>
+      <c r="AP55">
+        <v>0.15</v>
+      </c>
+      <c r="AQ55">
+        <v>0.15</v>
+      </c>
+      <c r="AR55">
+        <v>0.15</v>
+      </c>
+      <c r="AS55">
+        <v>0.15</v>
+      </c>
+      <c r="AT55">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>30</v>
+      </c>
+      <c r="B56">
+        <v>9</v>
+      </c>
+      <c r="C56">
+        <v>3</v>
+      </c>
+      <c r="D56">
+        <v>34</v>
+      </c>
+      <c r="E56" t="s">
+        <v>45</v>
+      </c>
+      <c r="F56">
+        <v>0.15</v>
+      </c>
+      <c r="G56">
+        <v>0.15</v>
+      </c>
+      <c r="H56">
+        <v>0.15</v>
+      </c>
+      <c r="I56">
+        <v>0.15</v>
+      </c>
+      <c r="J56">
+        <v>0.15</v>
+      </c>
+      <c r="K56">
+        <v>0.15</v>
+      </c>
+      <c r="L56">
+        <v>0.15</v>
+      </c>
+      <c r="M56">
+        <v>0.15</v>
+      </c>
+      <c r="N56">
+        <v>0.15</v>
+      </c>
+      <c r="O56">
+        <v>0.15</v>
+      </c>
+      <c r="P56">
+        <v>0.15</v>
+      </c>
+      <c r="Q56">
+        <v>0.15</v>
+      </c>
+      <c r="R56">
+        <v>0.15</v>
+      </c>
+      <c r="S56">
+        <v>0.15</v>
+      </c>
+      <c r="T56">
+        <v>0.15</v>
+      </c>
+      <c r="U56">
+        <v>0.15</v>
+      </c>
+      <c r="V56">
+        <v>0.15</v>
+      </c>
+      <c r="W56">
+        <v>0.15</v>
+      </c>
+      <c r="X56">
+        <v>0.15</v>
+      </c>
+      <c r="Y56">
+        <v>0.15</v>
+      </c>
+      <c r="Z56">
+        <v>0.15</v>
+      </c>
+      <c r="AA56">
+        <v>0.15</v>
+      </c>
+      <c r="AB56">
+        <v>0.15</v>
+      </c>
+      <c r="AC56">
+        <v>0.15</v>
+      </c>
+      <c r="AD56">
+        <v>0.15</v>
+      </c>
+      <c r="AE56">
+        <v>0.15</v>
+      </c>
+      <c r="AF56">
+        <v>0.15</v>
+      </c>
+      <c r="AG56">
+        <v>0.15</v>
+      </c>
+      <c r="AH56">
+        <v>0.15</v>
+      </c>
+      <c r="AI56">
+        <v>0.15</v>
+      </c>
+      <c r="AJ56">
+        <v>0.15</v>
+      </c>
+      <c r="AK56">
+        <v>0.15</v>
+      </c>
+      <c r="AL56">
+        <v>0.15</v>
+      </c>
+      <c r="AM56">
+        <v>0.15</v>
+      </c>
+      <c r="AN56">
+        <v>0.15</v>
+      </c>
+      <c r="AO56">
+        <v>0.15</v>
+      </c>
+      <c r="AP56">
+        <v>0.15</v>
+      </c>
+      <c r="AQ56">
+        <v>0.15</v>
+      </c>
+      <c r="AR56">
+        <v>0.15</v>
+      </c>
+      <c r="AS56">
+        <v>0.15</v>
+      </c>
+      <c r="AT56">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>30</v>
+      </c>
+      <c r="B57">
+        <v>9</v>
+      </c>
+      <c r="C57">
+        <v>3</v>
+      </c>
+      <c r="D57">
+        <v>35</v>
+      </c>
+      <c r="E57" t="s">
+        <v>45</v>
+      </c>
+      <c r="F57">
+        <v>0.15</v>
+      </c>
+      <c r="G57">
+        <v>0.15</v>
+      </c>
+      <c r="H57">
+        <v>0.15</v>
+      </c>
+      <c r="I57">
+        <v>0.15</v>
+      </c>
+      <c r="J57">
+        <v>0.15</v>
+      </c>
+      <c r="K57">
+        <v>0.15</v>
+      </c>
+      <c r="L57">
+        <v>0.15</v>
+      </c>
+      <c r="M57">
+        <v>0.15</v>
+      </c>
+      <c r="N57">
+        <v>0.15</v>
+      </c>
+      <c r="O57">
+        <v>0.15</v>
+      </c>
+      <c r="P57">
+        <v>0.15</v>
+      </c>
+      <c r="Q57">
+        <v>0.15</v>
+      </c>
+      <c r="R57">
+        <v>0.15</v>
+      </c>
+      <c r="S57">
+        <v>0.15</v>
+      </c>
+      <c r="T57">
+        <v>0.15</v>
+      </c>
+      <c r="U57">
+        <v>0.15</v>
+      </c>
+      <c r="V57">
+        <v>0.15</v>
+      </c>
+      <c r="W57">
+        <v>0.15</v>
+      </c>
+      <c r="X57">
+        <v>0.15</v>
+      </c>
+      <c r="Y57">
+        <v>0.15</v>
+      </c>
+      <c r="Z57">
+        <v>0.15</v>
+      </c>
+      <c r="AA57">
+        <v>0.15</v>
+      </c>
+      <c r="AB57">
+        <v>0.15</v>
+      </c>
+      <c r="AC57">
+        <v>0.15</v>
+      </c>
+      <c r="AD57">
+        <v>0.15</v>
+      </c>
+      <c r="AE57">
+        <v>0.15</v>
+      </c>
+      <c r="AF57">
+        <v>0.15</v>
+      </c>
+      <c r="AG57">
+        <v>0.15</v>
+      </c>
+      <c r="AH57">
+        <v>0.15</v>
+      </c>
+      <c r="AI57">
+        <v>0.15</v>
+      </c>
+      <c r="AJ57">
+        <v>0.15</v>
+      </c>
+      <c r="AK57">
+        <v>0.15</v>
+      </c>
+      <c r="AL57">
+        <v>0.15</v>
+      </c>
+      <c r="AM57">
+        <v>0.15</v>
+      </c>
+      <c r="AN57">
+        <v>0.15</v>
+      </c>
+      <c r="AO57">
+        <v>0.15</v>
+      </c>
+      <c r="AP57">
+        <v>0.15</v>
+      </c>
+      <c r="AQ57">
+        <v>0.15</v>
+      </c>
+      <c r="AR57">
+        <v>0.15</v>
+      </c>
+      <c r="AS57">
+        <v>0.15</v>
+      </c>
+      <c r="AT57">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>30</v>
+      </c>
+      <c r="B58">
+        <v>9</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="D58">
+        <v>36</v>
+      </c>
+      <c r="E58" t="s">
+        <v>45</v>
+      </c>
+      <c r="F58">
+        <v>0.15</v>
+      </c>
+      <c r="G58">
+        <v>0.15</v>
+      </c>
+      <c r="H58">
+        <v>0.15</v>
+      </c>
+      <c r="I58">
+        <v>0.15</v>
+      </c>
+      <c r="J58">
+        <v>0.15</v>
+      </c>
+      <c r="K58">
+        <v>0.15</v>
+      </c>
+      <c r="L58">
+        <v>0.15</v>
+      </c>
+      <c r="M58">
+        <v>0.15</v>
+      </c>
+      <c r="N58">
+        <v>0.15</v>
+      </c>
+      <c r="O58">
+        <v>0.15</v>
+      </c>
+      <c r="P58">
+        <v>0.15</v>
+      </c>
+      <c r="Q58">
+        <v>0.15</v>
+      </c>
+      <c r="R58">
+        <v>0.15</v>
+      </c>
+      <c r="S58">
+        <v>0.15</v>
+      </c>
+      <c r="T58">
+        <v>0.15</v>
+      </c>
+      <c r="U58">
+        <v>0.15</v>
+      </c>
+      <c r="V58">
+        <v>0.15</v>
+      </c>
+      <c r="W58">
+        <v>0.15</v>
+      </c>
+      <c r="X58">
+        <v>0.15</v>
+      </c>
+      <c r="Y58">
+        <v>0.15</v>
+      </c>
+      <c r="Z58">
+        <v>0.15</v>
+      </c>
+      <c r="AA58">
+        <v>0.15</v>
+      </c>
+      <c r="AB58">
+        <v>0.15</v>
+      </c>
+      <c r="AC58">
+        <v>0.15</v>
+      </c>
+      <c r="AD58">
+        <v>0.15</v>
+      </c>
+      <c r="AE58">
+        <v>0.15</v>
+      </c>
+      <c r="AF58">
+        <v>0.15</v>
+      </c>
+      <c r="AG58">
+        <v>0.15</v>
+      </c>
+      <c r="AH58">
+        <v>0.15</v>
+      </c>
+      <c r="AI58">
+        <v>0.15</v>
+      </c>
+      <c r="AJ58">
+        <v>0.15</v>
+      </c>
+      <c r="AK58">
+        <v>0.15</v>
+      </c>
+      <c r="AL58">
+        <v>0.15</v>
+      </c>
+      <c r="AM58">
+        <v>0.15</v>
+      </c>
+      <c r="AN58">
+        <v>0.15</v>
+      </c>
+      <c r="AO58">
+        <v>0.15</v>
+      </c>
+      <c r="AP58">
+        <v>0.15</v>
+      </c>
+      <c r="AQ58">
+        <v>0.15</v>
+      </c>
+      <c r="AR58">
+        <v>0.15</v>
+      </c>
+      <c r="AS58">
+        <v>0.15</v>
+      </c>
+      <c r="AT58">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>30</v>
+      </c>
+      <c r="B59">
+        <v>9</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+      <c r="D59">
+        <v>37</v>
+      </c>
+      <c r="E59" t="s">
+        <v>45</v>
+      </c>
+      <c r="F59">
+        <v>0.15</v>
+      </c>
+      <c r="G59">
+        <v>0.15</v>
+      </c>
+      <c r="H59">
+        <v>0.15</v>
+      </c>
+      <c r="I59">
+        <v>0.15</v>
+      </c>
+      <c r="J59">
+        <v>0.15</v>
+      </c>
+      <c r="K59">
+        <v>0.15</v>
+      </c>
+      <c r="L59">
+        <v>0.15</v>
+      </c>
+      <c r="M59">
+        <v>0.15</v>
+      </c>
+      <c r="N59">
+        <v>0.15</v>
+      </c>
+      <c r="O59">
+        <v>0.15</v>
+      </c>
+      <c r="P59">
+        <v>0.15</v>
+      </c>
+      <c r="Q59">
+        <v>0.15</v>
+      </c>
+      <c r="R59">
+        <v>0.15</v>
+      </c>
+      <c r="S59">
+        <v>0.15</v>
+      </c>
+      <c r="T59">
+        <v>0.15</v>
+      </c>
+      <c r="U59">
+        <v>0.15</v>
+      </c>
+      <c r="V59">
+        <v>0.15</v>
+      </c>
+      <c r="W59">
+        <v>0.15</v>
+      </c>
+      <c r="X59">
+        <v>0.15</v>
+      </c>
+      <c r="Y59">
+        <v>0.15</v>
+      </c>
+      <c r="Z59">
+        <v>0.15</v>
+      </c>
+      <c r="AA59">
+        <v>0.15</v>
+      </c>
+      <c r="AB59">
+        <v>0.15</v>
+      </c>
+      <c r="AC59">
+        <v>0.15</v>
+      </c>
+      <c r="AD59">
+        <v>0.15</v>
+      </c>
+      <c r="AE59">
+        <v>0.15</v>
+      </c>
+      <c r="AF59">
+        <v>0.15</v>
+      </c>
+      <c r="AG59">
+        <v>0.15</v>
+      </c>
+      <c r="AH59">
+        <v>0.15</v>
+      </c>
+      <c r="AI59">
+        <v>0.15</v>
+      </c>
+      <c r="AJ59">
+        <v>0.15</v>
+      </c>
+      <c r="AK59">
+        <v>0.15</v>
+      </c>
+      <c r="AL59">
+        <v>0.15</v>
+      </c>
+      <c r="AM59">
+        <v>0.15</v>
+      </c>
+      <c r="AN59">
+        <v>0.15</v>
+      </c>
+      <c r="AO59">
+        <v>0.15</v>
+      </c>
+      <c r="AP59">
+        <v>0.15</v>
+      </c>
+      <c r="AQ59">
+        <v>0.15</v>
+      </c>
+      <c r="AR59">
+        <v>0.15</v>
+      </c>
+      <c r="AS59">
+        <v>0.15</v>
+      </c>
+      <c r="AT59">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>30</v>
+      </c>
+      <c r="B60">
+        <v>9</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+      <c r="D60">
+        <v>38</v>
+      </c>
+      <c r="E60" t="s">
+        <v>45</v>
+      </c>
+      <c r="F60">
+        <v>0.15</v>
+      </c>
+      <c r="G60">
+        <v>0.15</v>
+      </c>
+      <c r="H60">
+        <v>0.15</v>
+      </c>
+      <c r="I60">
+        <v>0.15</v>
+      </c>
+      <c r="J60">
+        <v>0.15</v>
+      </c>
+      <c r="K60">
+        <v>0.15</v>
+      </c>
+      <c r="L60">
+        <v>0.15</v>
+      </c>
+      <c r="M60">
+        <v>0.15</v>
+      </c>
+      <c r="N60">
+        <v>0.15</v>
+      </c>
+      <c r="O60">
+        <v>0.15</v>
+      </c>
+      <c r="P60">
+        <v>0.15</v>
+      </c>
+      <c r="Q60">
+        <v>0.15</v>
+      </c>
+      <c r="R60">
+        <v>0.15</v>
+      </c>
+      <c r="S60">
+        <v>0.15</v>
+      </c>
+      <c r="T60">
+        <v>0.15</v>
+      </c>
+      <c r="U60">
+        <v>0.15</v>
+      </c>
+      <c r="V60">
+        <v>0.15</v>
+      </c>
+      <c r="W60">
+        <v>0.15</v>
+      </c>
+      <c r="X60">
+        <v>0.15</v>
+      </c>
+      <c r="Y60">
+        <v>0.15</v>
+      </c>
+      <c r="Z60">
+        <v>0.15</v>
+      </c>
+      <c r="AA60">
+        <v>0.15</v>
+      </c>
+      <c r="AB60">
+        <v>0.15</v>
+      </c>
+      <c r="AC60">
+        <v>0.15</v>
+      </c>
+      <c r="AD60">
+        <v>0.15</v>
+      </c>
+      <c r="AE60">
+        <v>0.15</v>
+      </c>
+      <c r="AF60">
+        <v>0.15</v>
+      </c>
+      <c r="AG60">
+        <v>0.15</v>
+      </c>
+      <c r="AH60">
+        <v>0.15</v>
+      </c>
+      <c r="AI60">
+        <v>0.15</v>
+      </c>
+      <c r="AJ60">
+        <v>0.15</v>
+      </c>
+      <c r="AK60">
+        <v>0.15</v>
+      </c>
+      <c r="AL60">
+        <v>0.15</v>
+      </c>
+      <c r="AM60">
+        <v>0.15</v>
+      </c>
+      <c r="AN60">
+        <v>0.15</v>
+      </c>
+      <c r="AO60">
+        <v>0.15</v>
+      </c>
+      <c r="AP60">
+        <v>0.15</v>
+      </c>
+      <c r="AQ60">
+        <v>0.15</v>
+      </c>
+      <c r="AR60">
+        <v>0.15</v>
+      </c>
+      <c r="AS60">
+        <v>0.15</v>
+      </c>
+      <c r="AT60">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>30</v>
+      </c>
+      <c r="B61">
+        <v>9</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+      <c r="D61">
+        <v>39</v>
+      </c>
+      <c r="E61" t="s">
+        <v>45</v>
+      </c>
+      <c r="F61">
+        <v>0.15</v>
+      </c>
+      <c r="G61">
+        <v>0.15</v>
+      </c>
+      <c r="H61">
+        <v>0.15</v>
+      </c>
+      <c r="I61">
+        <v>0.15</v>
+      </c>
+      <c r="J61">
+        <v>0.15</v>
+      </c>
+      <c r="K61">
+        <v>0.15</v>
+      </c>
+      <c r="L61">
+        <v>0.15</v>
+      </c>
+      <c r="M61">
+        <v>0.15</v>
+      </c>
+      <c r="N61">
+        <v>0.15</v>
+      </c>
+      <c r="O61">
+        <v>0.15</v>
+      </c>
+      <c r="P61">
+        <v>0.15</v>
+      </c>
+      <c r="Q61">
+        <v>0.15</v>
+      </c>
+      <c r="R61">
+        <v>0.15</v>
+      </c>
+      <c r="S61">
+        <v>0.15</v>
+      </c>
+      <c r="T61">
+        <v>0.15</v>
+      </c>
+      <c r="U61">
+        <v>0.15</v>
+      </c>
+      <c r="V61">
+        <v>0.15</v>
+      </c>
+      <c r="W61">
+        <v>0.15</v>
+      </c>
+      <c r="X61">
+        <v>0.15</v>
+      </c>
+      <c r="Y61">
+        <v>0.15</v>
+      </c>
+      <c r="Z61">
+        <v>0.15</v>
+      </c>
+      <c r="AA61">
+        <v>0.15</v>
+      </c>
+      <c r="AB61">
+        <v>0.15</v>
+      </c>
+      <c r="AC61">
+        <v>0.15</v>
+      </c>
+      <c r="AD61">
+        <v>0.15</v>
+      </c>
+      <c r="AE61">
+        <v>0.15</v>
+      </c>
+      <c r="AF61">
+        <v>0.15</v>
+      </c>
+      <c r="AG61">
+        <v>0.15</v>
+      </c>
+      <c r="AH61">
+        <v>0.15</v>
+      </c>
+      <c r="AI61">
+        <v>0.15</v>
+      </c>
+      <c r="AJ61">
+        <v>0.15</v>
+      </c>
+      <c r="AK61">
+        <v>0.15</v>
+      </c>
+      <c r="AL61">
+        <v>0.15</v>
+      </c>
+      <c r="AM61">
+        <v>0.15</v>
+      </c>
+      <c r="AN61">
+        <v>0.15</v>
+      </c>
+      <c r="AO61">
+        <v>0.15</v>
+      </c>
+      <c r="AP61">
+        <v>0.15</v>
+      </c>
+      <c r="AQ61">
+        <v>0.15</v>
+      </c>
+      <c r="AR61">
+        <v>0.15</v>
+      </c>
+      <c r="AS61">
+        <v>0.15</v>
+      </c>
+      <c r="AT61">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>30</v>
+      </c>
+      <c r="B62">
+        <v>9</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+      <c r="D62">
+        <v>310</v>
+      </c>
+      <c r="E62" t="s">
+        <v>45</v>
+      </c>
+      <c r="F62">
+        <v>0.15</v>
+      </c>
+      <c r="G62">
+        <v>0.15</v>
+      </c>
+      <c r="H62">
+        <v>0.15</v>
+      </c>
+      <c r="I62">
+        <v>0.15</v>
+      </c>
+      <c r="J62">
+        <v>0.15</v>
+      </c>
+      <c r="K62">
+        <v>0.15</v>
+      </c>
+      <c r="L62">
+        <v>0.15</v>
+      </c>
+      <c r="M62">
+        <v>0.15</v>
+      </c>
+      <c r="N62">
+        <v>0.15</v>
+      </c>
+      <c r="O62">
+        <v>0.15</v>
+      </c>
+      <c r="P62">
+        <v>0.15</v>
+      </c>
+      <c r="Q62">
+        <v>0.15</v>
+      </c>
+      <c r="R62">
+        <v>0.15</v>
+      </c>
+      <c r="S62">
+        <v>0.15</v>
+      </c>
+      <c r="T62">
+        <v>0.15</v>
+      </c>
+      <c r="U62">
+        <v>0.15</v>
+      </c>
+      <c r="V62">
+        <v>0.15</v>
+      </c>
+      <c r="W62">
+        <v>0.15</v>
+      </c>
+      <c r="X62">
+        <v>0.15</v>
+      </c>
+      <c r="Y62">
+        <v>0.15</v>
+      </c>
+      <c r="Z62">
+        <v>0.15</v>
+      </c>
+      <c r="AA62">
+        <v>0.15</v>
+      </c>
+      <c r="AB62">
+        <v>0.15</v>
+      </c>
+      <c r="AC62">
+        <v>0.15</v>
+      </c>
+      <c r="AD62">
+        <v>0.15</v>
+      </c>
+      <c r="AE62">
+        <v>0.15</v>
+      </c>
+      <c r="AF62">
+        <v>0.15</v>
+      </c>
+      <c r="AG62">
+        <v>0.15</v>
+      </c>
+      <c r="AH62">
+        <v>0.15</v>
+      </c>
+      <c r="AI62">
+        <v>0.15</v>
+      </c>
+      <c r="AJ62">
+        <v>0.15</v>
+      </c>
+      <c r="AK62">
+        <v>0.15</v>
+      </c>
+      <c r="AL62">
+        <v>0.15</v>
+      </c>
+      <c r="AM62">
+        <v>0.15</v>
+      </c>
+      <c r="AN62">
+        <v>0.15</v>
+      </c>
+      <c r="AO62">
+        <v>0.15</v>
+      </c>
+      <c r="AP62">
+        <v>0.15</v>
+      </c>
+      <c r="AQ62">
+        <v>0.15</v>
+      </c>
+      <c r="AR62">
+        <v>0.15</v>
+      </c>
+      <c r="AS62">
+        <v>0.15</v>
+      </c>
+      <c r="AT62">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>30</v>
+      </c>
+      <c r="B63">
+        <v>9</v>
+      </c>
+      <c r="C63">
+        <v>3</v>
+      </c>
+      <c r="D63">
+        <v>311</v>
+      </c>
+      <c r="E63" t="s">
+        <v>45</v>
+      </c>
+      <c r="F63">
+        <v>0.15</v>
+      </c>
+      <c r="G63">
+        <v>0.15</v>
+      </c>
+      <c r="H63">
+        <v>0.15</v>
+      </c>
+      <c r="I63">
+        <v>0.15</v>
+      </c>
+      <c r="J63">
+        <v>0.15</v>
+      </c>
+      <c r="K63">
+        <v>0.15</v>
+      </c>
+      <c r="L63">
+        <v>0.15</v>
+      </c>
+      <c r="M63">
+        <v>0.15</v>
+      </c>
+      <c r="N63">
+        <v>0.15</v>
+      </c>
+      <c r="O63">
+        <v>0.15</v>
+      </c>
+      <c r="P63">
+        <v>0.15</v>
+      </c>
+      <c r="Q63">
+        <v>0.15</v>
+      </c>
+      <c r="R63">
+        <v>0.15</v>
+      </c>
+      <c r="S63">
+        <v>0.15</v>
+      </c>
+      <c r="T63">
+        <v>0.15</v>
+      </c>
+      <c r="U63">
+        <v>0.15</v>
+      </c>
+      <c r="V63">
+        <v>0.15</v>
+      </c>
+      <c r="W63">
+        <v>0.15</v>
+      </c>
+      <c r="X63">
+        <v>0.15</v>
+      </c>
+      <c r="Y63">
+        <v>0.15</v>
+      </c>
+      <c r="Z63">
+        <v>0.15</v>
+      </c>
+      <c r="AA63">
+        <v>0.15</v>
+      </c>
+      <c r="AB63">
+        <v>0.15</v>
+      </c>
+      <c r="AC63">
+        <v>0.15</v>
+      </c>
+      <c r="AD63">
+        <v>0.15</v>
+      </c>
+      <c r="AE63">
+        <v>0.15</v>
+      </c>
+      <c r="AF63">
+        <v>0.15</v>
+      </c>
+      <c r="AG63">
+        <v>0.15</v>
+      </c>
+      <c r="AH63">
+        <v>0.15</v>
+      </c>
+      <c r="AI63">
+        <v>0.15</v>
+      </c>
+      <c r="AJ63">
+        <v>0.15</v>
+      </c>
+      <c r="AK63">
+        <v>0.15</v>
+      </c>
+      <c r="AL63">
+        <v>0.15</v>
+      </c>
+      <c r="AM63">
+        <v>0.15</v>
+      </c>
+      <c r="AN63">
+        <v>0.15</v>
+      </c>
+      <c r="AO63">
+        <v>0.15</v>
+      </c>
+      <c r="AP63">
+        <v>0.15</v>
+      </c>
+      <c r="AQ63">
+        <v>0.15</v>
+      </c>
+      <c r="AR63">
+        <v>0.15</v>
+      </c>
+      <c r="AS63">
+        <v>0.15</v>
+      </c>
+      <c r="AT63">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>30</v>
+      </c>
+      <c r="B64">
+        <v>9</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="D64">
+        <v>312</v>
+      </c>
+      <c r="E64" t="s">
+        <v>45</v>
+      </c>
+      <c r="F64">
+        <v>0.15</v>
+      </c>
+      <c r="G64">
+        <v>0.15</v>
+      </c>
+      <c r="H64">
+        <v>0.15</v>
+      </c>
+      <c r="I64">
+        <v>0.15</v>
+      </c>
+      <c r="J64">
+        <v>0.15</v>
+      </c>
+      <c r="K64">
+        <v>0.15</v>
+      </c>
+      <c r="L64">
+        <v>0.15</v>
+      </c>
+      <c r="M64">
+        <v>0.15</v>
+      </c>
+      <c r="N64">
+        <v>0.15</v>
+      </c>
+      <c r="O64">
+        <v>0.15</v>
+      </c>
+      <c r="P64">
+        <v>0.15</v>
+      </c>
+      <c r="Q64">
+        <v>0.15</v>
+      </c>
+      <c r="R64">
+        <v>0.15</v>
+      </c>
+      <c r="S64">
+        <v>0.15</v>
+      </c>
+      <c r="T64">
+        <v>0.15</v>
+      </c>
+      <c r="U64">
+        <v>0.15</v>
+      </c>
+      <c r="V64">
+        <v>0.15</v>
+      </c>
+      <c r="W64">
+        <v>0.15</v>
+      </c>
+      <c r="X64">
+        <v>0.15</v>
+      </c>
+      <c r="Y64">
+        <v>0.15</v>
+      </c>
+      <c r="Z64">
+        <v>0.15</v>
+      </c>
+      <c r="AA64">
+        <v>0.15</v>
+      </c>
+      <c r="AB64">
+        <v>0.15</v>
+      </c>
+      <c r="AC64">
+        <v>0.15</v>
+      </c>
+      <c r="AD64">
+        <v>0.15</v>
+      </c>
+      <c r="AE64">
+        <v>0.15</v>
+      </c>
+      <c r="AF64">
+        <v>0.15</v>
+      </c>
+      <c r="AG64">
+        <v>0.15</v>
+      </c>
+      <c r="AH64">
+        <v>0.15</v>
+      </c>
+      <c r="AI64">
+        <v>0.15</v>
+      </c>
+      <c r="AJ64">
+        <v>0.15</v>
+      </c>
+      <c r="AK64">
+        <v>0.15</v>
+      </c>
+      <c r="AL64">
+        <v>0.15</v>
+      </c>
+      <c r="AM64">
+        <v>0.15</v>
+      </c>
+      <c r="AN64">
+        <v>0.15</v>
+      </c>
+      <c r="AO64">
+        <v>0.15</v>
+      </c>
+      <c r="AP64">
+        <v>0.15</v>
+      </c>
+      <c r="AQ64">
+        <v>0.15</v>
+      </c>
+      <c r="AR64">
+        <v>0.15</v>
+      </c>
+      <c r="AS64">
+        <v>0.15</v>
+      </c>
+      <c r="AT64">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>30</v>
+      </c>
+      <c r="B65">
+        <v>9</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+      <c r="D65">
+        <v>313</v>
+      </c>
+      <c r="E65" t="s">
+        <v>45</v>
+      </c>
+      <c r="F65">
+        <v>0.15</v>
+      </c>
+      <c r="G65">
+        <v>0.15</v>
+      </c>
+      <c r="H65">
+        <v>0.15</v>
+      </c>
+      <c r="I65">
+        <v>0.15</v>
+      </c>
+      <c r="J65">
+        <v>0.15</v>
+      </c>
+      <c r="K65">
+        <v>0.15</v>
+      </c>
+      <c r="L65">
+        <v>0.15</v>
+      </c>
+      <c r="M65">
+        <v>0.15</v>
+      </c>
+      <c r="N65">
+        <v>0.15</v>
+      </c>
+      <c r="O65">
+        <v>0.15</v>
+      </c>
+      <c r="P65">
+        <v>0.15</v>
+      </c>
+      <c r="Q65">
+        <v>0.15</v>
+      </c>
+      <c r="R65">
+        <v>0.15</v>
+      </c>
+      <c r="S65">
+        <v>0.15</v>
+      </c>
+      <c r="T65">
+        <v>0.15</v>
+      </c>
+      <c r="U65">
+        <v>0.15</v>
+      </c>
+      <c r="V65">
+        <v>0.15</v>
+      </c>
+      <c r="W65">
+        <v>0.15</v>
+      </c>
+      <c r="X65">
+        <v>0.15</v>
+      </c>
+      <c r="Y65">
+        <v>0.15</v>
+      </c>
+      <c r="Z65">
+        <v>0.15</v>
+      </c>
+      <c r="AA65">
+        <v>0.15</v>
+      </c>
+      <c r="AB65">
+        <v>0.15</v>
+      </c>
+      <c r="AC65">
+        <v>0.15</v>
+      </c>
+      <c r="AD65">
+        <v>0.15</v>
+      </c>
+      <c r="AE65">
+        <v>0.15</v>
+      </c>
+      <c r="AF65">
+        <v>0.15</v>
+      </c>
+      <c r="AG65">
+        <v>0.15</v>
+      </c>
+      <c r="AH65">
+        <v>0.15</v>
+      </c>
+      <c r="AI65">
+        <v>0.15</v>
+      </c>
+      <c r="AJ65">
+        <v>0.15</v>
+      </c>
+      <c r="AK65">
+        <v>0.15</v>
+      </c>
+      <c r="AL65">
+        <v>0.15</v>
+      </c>
+      <c r="AM65">
+        <v>0.15</v>
+      </c>
+      <c r="AN65">
+        <v>0.15</v>
+      </c>
+      <c r="AO65">
+        <v>0.15</v>
+      </c>
+      <c r="AP65">
+        <v>0.15</v>
+      </c>
+      <c r="AQ65">
+        <v>0.15</v>
+      </c>
+      <c r="AR65">
+        <v>0.15</v>
+      </c>
+      <c r="AS65">
+        <v>0.15</v>
+      </c>
+      <c r="AT65">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>30</v>
+      </c>
+      <c r="B66">
+        <v>9</v>
+      </c>
+      <c r="C66">
+        <v>3</v>
+      </c>
+      <c r="D66">
+        <v>314</v>
+      </c>
+      <c r="E66" t="s">
+        <v>45</v>
+      </c>
+      <c r="F66">
+        <v>0.15</v>
+      </c>
+      <c r="G66">
+        <v>0.15</v>
+      </c>
+      <c r="H66">
+        <v>0.15</v>
+      </c>
+      <c r="I66">
+        <v>0.15</v>
+      </c>
+      <c r="J66">
+        <v>0.15</v>
+      </c>
+      <c r="K66">
+        <v>0.15</v>
+      </c>
+      <c r="L66">
+        <v>0.15</v>
+      </c>
+      <c r="M66">
+        <v>0.15</v>
+      </c>
+      <c r="N66">
+        <v>0.15</v>
+      </c>
+      <c r="O66">
+        <v>0.15</v>
+      </c>
+      <c r="P66">
+        <v>0.15</v>
+      </c>
+      <c r="Q66">
+        <v>0.15</v>
+      </c>
+      <c r="R66">
+        <v>0.15</v>
+      </c>
+      <c r="S66">
+        <v>0.15</v>
+      </c>
+      <c r="T66">
+        <v>0.15</v>
+      </c>
+      <c r="U66">
+        <v>0.15</v>
+      </c>
+      <c r="V66">
+        <v>0.15</v>
+      </c>
+      <c r="W66">
+        <v>0.15</v>
+      </c>
+      <c r="X66">
+        <v>0.15</v>
+      </c>
+      <c r="Y66">
+        <v>0.15</v>
+      </c>
+      <c r="Z66">
+        <v>0.15</v>
+      </c>
+      <c r="AA66">
+        <v>0.15</v>
+      </c>
+      <c r="AB66">
+        <v>0.15</v>
+      </c>
+      <c r="AC66">
+        <v>0.15</v>
+      </c>
+      <c r="AD66">
+        <v>0.15</v>
+      </c>
+      <c r="AE66">
+        <v>0.15</v>
+      </c>
+      <c r="AF66">
+        <v>0.15</v>
+      </c>
+      <c r="AG66">
+        <v>0.15</v>
+      </c>
+      <c r="AH66">
+        <v>0.15</v>
+      </c>
+      <c r="AI66">
+        <v>0.15</v>
+      </c>
+      <c r="AJ66">
+        <v>0.15</v>
+      </c>
+      <c r="AK66">
+        <v>0.15</v>
+      </c>
+      <c r="AL66">
+        <v>0.15</v>
+      </c>
+      <c r="AM66">
+        <v>0.15</v>
+      </c>
+      <c r="AN66">
+        <v>0.15</v>
+      </c>
+      <c r="AO66">
+        <v>0.15</v>
+      </c>
+      <c r="AP66">
+        <v>0.15</v>
+      </c>
+      <c r="AQ66">
+        <v>0.15</v>
+      </c>
+      <c r="AR66">
+        <v>0.15</v>
+      </c>
+      <c r="AS66">
+        <v>0.15</v>
+      </c>
+      <c r="AT66">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>30</v>
+      </c>
+      <c r="B67">
+        <v>9</v>
+      </c>
+      <c r="C67">
+        <v>3</v>
+      </c>
+      <c r="D67">
+        <v>315</v>
+      </c>
+      <c r="E67" t="s">
+        <v>45</v>
+      </c>
+      <c r="F67">
+        <v>0.15</v>
+      </c>
+      <c r="G67">
+        <v>0.15</v>
+      </c>
+      <c r="H67">
+        <v>0.15</v>
+      </c>
+      <c r="I67">
+        <v>0.15</v>
+      </c>
+      <c r="J67">
+        <v>0.15</v>
+      </c>
+      <c r="K67">
+        <v>0.15</v>
+      </c>
+      <c r="L67">
+        <v>0.15</v>
+      </c>
+      <c r="M67">
+        <v>0.15</v>
+      </c>
+      <c r="N67">
+        <v>0.15</v>
+      </c>
+      <c r="O67">
+        <v>0.15</v>
+      </c>
+      <c r="P67">
+        <v>0.15</v>
+      </c>
+      <c r="Q67">
+        <v>0.15</v>
+      </c>
+      <c r="R67">
+        <v>0.15</v>
+      </c>
+      <c r="S67">
+        <v>0.15</v>
+      </c>
+      <c r="T67">
+        <v>0.15</v>
+      </c>
+      <c r="U67">
+        <v>0.15</v>
+      </c>
+      <c r="V67">
+        <v>0.15</v>
+      </c>
+      <c r="W67">
+        <v>0.15</v>
+      </c>
+      <c r="X67">
+        <v>0.15</v>
+      </c>
+      <c r="Y67">
+        <v>0.15</v>
+      </c>
+      <c r="Z67">
+        <v>0.15</v>
+      </c>
+      <c r="AA67">
+        <v>0.15</v>
+      </c>
+      <c r="AB67">
+        <v>0.15</v>
+      </c>
+      <c r="AC67">
+        <v>0.15</v>
+      </c>
+      <c r="AD67">
+        <v>0.15</v>
+      </c>
+      <c r="AE67">
+        <v>0.15</v>
+      </c>
+      <c r="AF67">
+        <v>0.15</v>
+      </c>
+      <c r="AG67">
+        <v>0.15</v>
+      </c>
+      <c r="AH67">
+        <v>0.15</v>
+      </c>
+      <c r="AI67">
+        <v>0.15</v>
+      </c>
+      <c r="AJ67">
+        <v>0.15</v>
+      </c>
+      <c r="AK67">
+        <v>0.15</v>
+      </c>
+      <c r="AL67">
+        <v>0.15</v>
+      </c>
+      <c r="AM67">
+        <v>0.15</v>
+      </c>
+      <c r="AN67">
+        <v>0.15</v>
+      </c>
+      <c r="AO67">
+        <v>0.15</v>
+      </c>
+      <c r="AP67">
+        <v>0.15</v>
+      </c>
+      <c r="AQ67">
+        <v>0.15</v>
+      </c>
+      <c r="AR67">
+        <v>0.15</v>
+      </c>
+      <c r="AS67">
+        <v>0.15</v>
+      </c>
+      <c r="AT67">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>30</v>
+      </c>
+      <c r="B68">
+        <v>9</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
+      </c>
+      <c r="D68">
+        <v>316</v>
+      </c>
+      <c r="E68" t="s">
+        <v>45</v>
+      </c>
+      <c r="F68">
+        <v>0.15</v>
+      </c>
+      <c r="G68">
+        <v>0.15</v>
+      </c>
+      <c r="H68">
+        <v>0.15</v>
+      </c>
+      <c r="I68">
+        <v>0.15</v>
+      </c>
+      <c r="J68">
+        <v>0.15</v>
+      </c>
+      <c r="K68">
+        <v>0.15</v>
+      </c>
+      <c r="L68">
+        <v>0.15</v>
+      </c>
+      <c r="M68">
+        <v>0.15</v>
+      </c>
+      <c r="N68">
+        <v>0.15</v>
+      </c>
+      <c r="O68">
+        <v>0.15</v>
+      </c>
+      <c r="P68">
+        <v>0.15</v>
+      </c>
+      <c r="Q68">
+        <v>0.15</v>
+      </c>
+      <c r="R68">
+        <v>0.15</v>
+      </c>
+      <c r="S68">
+        <v>0.15</v>
+      </c>
+      <c r="T68">
+        <v>0.15</v>
+      </c>
+      <c r="U68">
+        <v>0.15</v>
+      </c>
+      <c r="V68">
+        <v>0.15</v>
+      </c>
+      <c r="W68">
+        <v>0.15</v>
+      </c>
+      <c r="X68">
+        <v>0.15</v>
+      </c>
+      <c r="Y68">
+        <v>0.15</v>
+      </c>
+      <c r="Z68">
+        <v>0.15</v>
+      </c>
+      <c r="AA68">
+        <v>0.15</v>
+      </c>
+      <c r="AB68">
+        <v>0.15</v>
+      </c>
+      <c r="AC68">
+        <v>0.15</v>
+      </c>
+      <c r="AD68">
+        <v>0.15</v>
+      </c>
+      <c r="AE68">
+        <v>0.15</v>
+      </c>
+      <c r="AF68">
+        <v>0.15</v>
+      </c>
+      <c r="AG68">
+        <v>0.15</v>
+      </c>
+      <c r="AH68">
+        <v>0.15</v>
+      </c>
+      <c r="AI68">
+        <v>0.15</v>
+      </c>
+      <c r="AJ68">
+        <v>0.15</v>
+      </c>
+      <c r="AK68">
+        <v>0.15</v>
+      </c>
+      <c r="AL68">
+        <v>0.15</v>
+      </c>
+      <c r="AM68">
+        <v>0.15</v>
+      </c>
+      <c r="AN68">
+        <v>0.15</v>
+      </c>
+      <c r="AO68">
+        <v>0.15</v>
+      </c>
+      <c r="AP68">
+        <v>0.15</v>
+      </c>
+      <c r="AQ68">
+        <v>0.15</v>
+      </c>
+      <c r="AR68">
+        <v>0.15</v>
+      </c>
+      <c r="AS68">
+        <v>0.15</v>
+      </c>
+      <c r="AT68">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>30</v>
+      </c>
+      <c r="B69">
+        <v>9</v>
+      </c>
+      <c r="C69">
+        <v>6</v>
+      </c>
+      <c r="D69">
+        <v>61</v>
+      </c>
+      <c r="E69" t="s">
+        <v>45</v>
+      </c>
+      <c r="F69">
+        <v>0.15</v>
+      </c>
+      <c r="G69">
+        <v>0.15</v>
+      </c>
+      <c r="H69">
+        <v>0.15</v>
+      </c>
+      <c r="I69">
+        <v>0.15</v>
+      </c>
+      <c r="J69">
+        <v>0.15</v>
+      </c>
+      <c r="K69">
+        <v>0.15</v>
+      </c>
+      <c r="L69">
+        <v>0.15</v>
+      </c>
+      <c r="M69">
+        <v>0.15</v>
+      </c>
+      <c r="N69">
+        <v>0.15</v>
+      </c>
+      <c r="O69">
+        <v>0.15</v>
+      </c>
+      <c r="P69">
+        <v>0.15</v>
+      </c>
+      <c r="Q69">
+        <v>0.15</v>
+      </c>
+      <c r="R69">
+        <v>0.15</v>
+      </c>
+      <c r="S69">
+        <v>0.15</v>
+      </c>
+      <c r="T69">
+        <v>0.15</v>
+      </c>
+      <c r="U69">
+        <v>0.15</v>
+      </c>
+      <c r="V69">
+        <v>0.15</v>
+      </c>
+      <c r="W69">
+        <v>0.15</v>
+      </c>
+      <c r="X69">
+        <v>0.15</v>
+      </c>
+      <c r="Y69">
+        <v>0.15</v>
+      </c>
+      <c r="Z69">
+        <v>0.15</v>
+      </c>
+      <c r="AA69">
+        <v>0.15</v>
+      </c>
+      <c r="AB69">
+        <v>0.15</v>
+      </c>
+      <c r="AC69">
+        <v>0.15</v>
+      </c>
+      <c r="AD69">
+        <v>0.15</v>
+      </c>
+      <c r="AE69">
+        <v>0.15</v>
+      </c>
+      <c r="AF69">
+        <v>0.15</v>
+      </c>
+      <c r="AG69">
+        <v>0.15</v>
+      </c>
+      <c r="AH69">
+        <v>0.15</v>
+      </c>
+      <c r="AI69">
+        <v>0.15</v>
+      </c>
+      <c r="AJ69">
+        <v>0.15</v>
+      </c>
+      <c r="AK69">
+        <v>0.15</v>
+      </c>
+      <c r="AL69">
+        <v>0.15</v>
+      </c>
+      <c r="AM69">
+        <v>0.15</v>
+      </c>
+      <c r="AN69">
+        <v>0.15</v>
+      </c>
+      <c r="AO69">
+        <v>0.15</v>
+      </c>
+      <c r="AP69">
+        <v>0.15</v>
+      </c>
+      <c r="AQ69">
+        <v>0.15</v>
+      </c>
+      <c r="AR69">
+        <v>0.15</v>
+      </c>
+      <c r="AS69">
+        <v>0.15</v>
+      </c>
+      <c r="AT69">
+        <v>0.15</v>
       </c>
     </row>
   </sheetData>

--- a/projects/test_building/input/Scenario_PV_SelfConsumptionRate.xlsx
+++ b/projects/test_building/input/Scenario_PV_SelfConsumptionRate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RenderNew\projects\test_building\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace_sia\RenderNew\projects\test_building\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -575,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3122,127 +3122,127 @@
         <v>45</v>
       </c>
       <c r="F19">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="G19">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H19">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="I19">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="J19">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="K19">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="L19">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="M19">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N19">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="O19">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="P19">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="Q19">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="R19">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="S19">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="T19">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="U19">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="V19">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="W19">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="X19">
         <v>0.5</v>
       </c>
       <c r="Y19">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Z19">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AA19">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AB19">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AC19">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AD19">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AE19">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AF19">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AG19">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AH19">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AI19">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AJ19">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AK19">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AL19">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AM19">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AN19">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AO19">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AP19">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AQ19">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR19">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AS19">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AT19">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="20" spans="1:46" x14ac:dyDescent="0.25">
@@ -3262,127 +3262,127 @@
         <v>45</v>
       </c>
       <c r="F20">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="G20">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H20">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="I20">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="J20">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="K20">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="L20">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="M20">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N20">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="O20">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="P20">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="Q20">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="R20">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="S20">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="T20">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="U20">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="V20">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="W20">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="X20">
         <v>0.5</v>
       </c>
       <c r="Y20">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Z20">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AA20">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AB20">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AC20">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AD20">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AE20">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AF20">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AG20">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AH20">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AI20">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AJ20">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AK20">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AL20">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AM20">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AN20">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AO20">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AP20">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AQ20">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR20">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AS20">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AT20">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="21" spans="1:46" x14ac:dyDescent="0.25">
@@ -3402,127 +3402,127 @@
         <v>45</v>
       </c>
       <c r="F21">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="G21">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H21">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="I21">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="J21">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="K21">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="L21">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="M21">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N21">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="O21">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="P21">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="Q21">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="R21">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="S21">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="T21">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="U21">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="V21">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="W21">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="X21">
         <v>0.5</v>
       </c>
       <c r="Y21">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Z21">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AA21">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AB21">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AC21">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AD21">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AE21">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AF21">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AG21">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AH21">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AI21">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AJ21">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AK21">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AL21">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AM21">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AN21">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AO21">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AP21">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AQ21">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR21">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AS21">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AT21">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="22" spans="1:46" x14ac:dyDescent="0.25">
@@ -3542,127 +3542,127 @@
         <v>45</v>
       </c>
       <c r="F22">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="G22">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H22">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="I22">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="J22">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="K22">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="L22">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="M22">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N22">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="O22">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="P22">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="Q22">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="R22">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="S22">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="T22">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="U22">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="V22">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="W22">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="X22">
         <v>0.5</v>
       </c>
       <c r="Y22">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Z22">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AA22">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AB22">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AC22">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AD22">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AE22">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AF22">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AG22">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AH22">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AI22">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AJ22">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AK22">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AL22">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AM22">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AN22">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AO22">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AP22">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AQ22">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR22">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AS22">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AT22">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="23" spans="1:46" x14ac:dyDescent="0.25">
@@ -3682,127 +3682,127 @@
         <v>45</v>
       </c>
       <c r="F23">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="G23">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H23">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="I23">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="J23">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="K23">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="L23">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="M23">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N23">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="O23">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="P23">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="Q23">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="R23">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="S23">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="T23">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="U23">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="V23">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="W23">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="X23">
         <v>0.5</v>
       </c>
       <c r="Y23">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Z23">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AA23">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AB23">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AC23">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AD23">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AE23">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AF23">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AG23">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AH23">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AI23">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AJ23">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AK23">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AL23">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AM23">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AN23">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AO23">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AP23">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AQ23">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR23">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AS23">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AT23">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="24" spans="1:46" x14ac:dyDescent="0.25">
@@ -3822,127 +3822,127 @@
         <v>45</v>
       </c>
       <c r="F24">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="G24">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H24">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="I24">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="J24">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="K24">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="L24">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="M24">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N24">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="O24">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="P24">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="Q24">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="R24">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="S24">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="T24">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="U24">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="V24">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="W24">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="X24">
         <v>0.5</v>
       </c>
       <c r="Y24">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Z24">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AA24">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AB24">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AC24">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AD24">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AE24">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AF24">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AG24">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AH24">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AI24">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AJ24">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AK24">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AL24">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AM24">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AN24">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AO24">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AP24">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AQ24">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR24">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AS24">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AT24">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="25" spans="1:46" x14ac:dyDescent="0.25">
@@ -3962,127 +3962,127 @@
         <v>45</v>
       </c>
       <c r="F25">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="G25">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H25">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="I25">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="J25">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="K25">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="L25">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="M25">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N25">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="O25">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="P25">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="Q25">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="R25">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="S25">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="T25">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="U25">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="V25">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="W25">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="X25">
         <v>0.5</v>
       </c>
       <c r="Y25">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Z25">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AA25">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AB25">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AC25">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AD25">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AE25">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AF25">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AG25">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AH25">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AI25">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AJ25">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AK25">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AL25">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AM25">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AN25">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AO25">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AP25">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AQ25">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR25">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AS25">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AT25">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="26" spans="1:46" x14ac:dyDescent="0.25">
@@ -4102,127 +4102,127 @@
         <v>45</v>
       </c>
       <c r="F26">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="G26">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H26">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="I26">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="J26">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="K26">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="L26">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="M26">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N26">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="O26">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="P26">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="Q26">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="R26">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="S26">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="T26">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="U26">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="V26">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="W26">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="X26">
         <v>0.5</v>
       </c>
       <c r="Y26">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Z26">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AA26">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AB26">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AC26">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AD26">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AE26">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AF26">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AG26">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AH26">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AI26">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AJ26">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AK26">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AL26">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AM26">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AN26">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AO26">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AP26">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AQ26">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR26">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AS26">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AT26">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="27" spans="1:46" x14ac:dyDescent="0.25">
@@ -4242,127 +4242,127 @@
         <v>45</v>
       </c>
       <c r="F27">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="G27">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H27">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="I27">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="J27">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="K27">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="L27">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="M27">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N27">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="O27">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="P27">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="Q27">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="R27">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="S27">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="T27">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="U27">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="V27">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="W27">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="X27">
         <v>0.5</v>
       </c>
       <c r="Y27">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Z27">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AA27">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AB27">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AC27">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AD27">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AE27">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AF27">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AG27">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AH27">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AI27">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AJ27">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AK27">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AL27">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AM27">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AN27">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AO27">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AP27">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AQ27">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR27">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AS27">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AT27">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="28" spans="1:46" x14ac:dyDescent="0.25">
@@ -4382,127 +4382,127 @@
         <v>45</v>
       </c>
       <c r="F28">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="G28">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H28">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="I28">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="J28">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="K28">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="L28">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="M28">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N28">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="O28">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="P28">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="Q28">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="R28">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="S28">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="T28">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="U28">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="V28">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="W28">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="X28">
         <v>0.5</v>
       </c>
       <c r="Y28">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Z28">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AA28">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AB28">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AC28">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AD28">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AE28">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AF28">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AG28">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AH28">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AI28">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AJ28">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AK28">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AL28">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AM28">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AN28">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AO28">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AP28">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AQ28">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR28">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AS28">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AT28">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="29" spans="1:46" x14ac:dyDescent="0.25">
@@ -4522,127 +4522,127 @@
         <v>45</v>
       </c>
       <c r="F29">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="G29">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H29">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="I29">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="J29">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="K29">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="L29">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="M29">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N29">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="O29">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="P29">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="Q29">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="R29">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="S29">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="T29">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="U29">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="V29">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="W29">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="X29">
         <v>0.5</v>
       </c>
       <c r="Y29">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Z29">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AA29">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AB29">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AC29">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AD29">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AE29">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AF29">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AG29">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AH29">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AI29">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AJ29">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AK29">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AL29">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AM29">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AN29">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AO29">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AP29">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AQ29">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR29">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AS29">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AT29">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="30" spans="1:46" x14ac:dyDescent="0.25">
@@ -4662,127 +4662,127 @@
         <v>45</v>
       </c>
       <c r="F30">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="G30">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H30">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="I30">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="J30">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="K30">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="L30">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="M30">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N30">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="O30">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="P30">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="Q30">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="R30">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="S30">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="T30">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="U30">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="V30">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="W30">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="X30">
         <v>0.5</v>
       </c>
       <c r="Y30">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Z30">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AA30">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AB30">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AC30">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AD30">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AE30">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AF30">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AG30">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AH30">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AI30">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AJ30">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AK30">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AL30">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AM30">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AN30">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AO30">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AP30">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AQ30">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR30">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AS30">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AT30">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="31" spans="1:46" x14ac:dyDescent="0.25">
@@ -4802,127 +4802,127 @@
         <v>45</v>
       </c>
       <c r="F31">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="G31">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H31">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="I31">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="J31">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="K31">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="L31">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="M31">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N31">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="O31">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="P31">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="Q31">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="R31">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="S31">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="T31">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="U31">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="V31">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="W31">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="X31">
         <v>0.5</v>
       </c>
       <c r="Y31">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Z31">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AA31">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AB31">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AC31">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AD31">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AE31">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AF31">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AG31">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AH31">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AI31">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AJ31">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AK31">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AL31">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AM31">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AN31">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AO31">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AP31">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AQ31">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR31">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AS31">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AT31">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="32" spans="1:46" x14ac:dyDescent="0.25">
@@ -4942,127 +4942,127 @@
         <v>45</v>
       </c>
       <c r="F32">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="G32">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H32">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="I32">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="J32">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="K32">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="L32">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="M32">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N32">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="O32">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="P32">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="Q32">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="R32">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="S32">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="T32">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="U32">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="V32">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="W32">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="X32">
         <v>0.5</v>
       </c>
       <c r="Y32">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Z32">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AA32">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AB32">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AC32">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AD32">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AE32">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AF32">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AG32">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AH32">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AI32">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AJ32">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AK32">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AL32">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AM32">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AN32">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AO32">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AP32">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AQ32">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR32">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AS32">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AT32">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="33" spans="1:46" x14ac:dyDescent="0.25">
@@ -5082,127 +5082,127 @@
         <v>45</v>
       </c>
       <c r="F33">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="G33">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H33">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="I33">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="J33">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="K33">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="L33">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="M33">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N33">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="O33">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="P33">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="Q33">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="R33">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="S33">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="T33">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="U33">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="V33">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="W33">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="X33">
         <v>0.5</v>
       </c>
       <c r="Y33">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Z33">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AA33">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AB33">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AC33">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AD33">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AE33">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AF33">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AG33">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AH33">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AI33">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AJ33">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AK33">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AL33">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AM33">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AN33">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AO33">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AP33">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AQ33">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR33">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AS33">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AT33">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="34" spans="1:46" x14ac:dyDescent="0.25">
@@ -5222,127 +5222,127 @@
         <v>45</v>
       </c>
       <c r="F34">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="G34">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H34">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="I34">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="J34">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="K34">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="L34">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="M34">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N34">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="O34">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="P34">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="Q34">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="R34">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="S34">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="T34">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="U34">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="V34">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="W34">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="X34">
         <v>0.5</v>
       </c>
       <c r="Y34">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Z34">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AA34">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AB34">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AC34">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AD34">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AE34">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AF34">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AG34">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AH34">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AI34">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AJ34">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AK34">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AL34">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AM34">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AN34">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AO34">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AP34">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AQ34">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR34">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AS34">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AT34">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="35" spans="1:46" x14ac:dyDescent="0.25">
@@ -5362,127 +5362,127 @@
         <v>45</v>
       </c>
       <c r="F35">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="G35">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H35">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="I35">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="J35">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="K35">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="L35">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="M35">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N35">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="O35">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="P35">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="Q35">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="R35">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="S35">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="T35">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="U35">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="V35">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="W35">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="X35">
         <v>0.5</v>
       </c>
       <c r="Y35">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="Z35">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AA35">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AB35">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AC35">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AD35">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AE35">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AF35">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AG35">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AH35">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AI35">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AJ35">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AK35">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AL35">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AM35">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AN35">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AO35">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AP35">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AQ35">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR35">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AS35">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AT35">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="36" spans="1:46" x14ac:dyDescent="0.25">
@@ -5550,79 +5550,79 @@
         <v>0.3</v>
       </c>
       <c r="V36">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="W36">
-        <v>0.3</v>
+        <v>0.34</v>
       </c>
       <c r="X36">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="Y36">
-        <v>0.3</v>
+        <v>0.38</v>
       </c>
       <c r="Z36">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AA36">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AB36">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AC36">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AD36">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AE36">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AF36">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AG36">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AH36">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AI36">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AJ36">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AK36">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AL36">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AM36">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AN36">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AO36">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AP36">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AQ36">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AR36">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AS36">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AT36">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="37" spans="1:46" x14ac:dyDescent="0.25">
@@ -5690,79 +5690,79 @@
         <v>0.3</v>
       </c>
       <c r="V37">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="W37">
-        <v>0.3</v>
+        <v>0.34</v>
       </c>
       <c r="X37">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="Y37">
-        <v>0.3</v>
+        <v>0.38</v>
       </c>
       <c r="Z37">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AA37">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AB37">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AC37">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AD37">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AE37">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AF37">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AG37">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AH37">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AI37">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AJ37">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AK37">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AL37">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AM37">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AN37">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AO37">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AP37">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AQ37">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AR37">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AS37">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AT37">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="38" spans="1:46" x14ac:dyDescent="0.25">
@@ -5830,79 +5830,79 @@
         <v>0.3</v>
       </c>
       <c r="V38">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="W38">
-        <v>0.3</v>
+        <v>0.34</v>
       </c>
       <c r="X38">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="Y38">
-        <v>0.3</v>
+        <v>0.38</v>
       </c>
       <c r="Z38">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AA38">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AB38">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AC38">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AD38">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AE38">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AF38">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AG38">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AH38">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AI38">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AJ38">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AK38">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AL38">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AM38">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AN38">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AO38">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AP38">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AQ38">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AR38">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AS38">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AT38">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="39" spans="1:46" x14ac:dyDescent="0.25">
@@ -5970,79 +5970,79 @@
         <v>0.3</v>
       </c>
       <c r="V39">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="W39">
-        <v>0.3</v>
+        <v>0.34</v>
       </c>
       <c r="X39">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="Y39">
-        <v>0.3</v>
+        <v>0.38</v>
       </c>
       <c r="Z39">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AA39">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AB39">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AC39">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AD39">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AE39">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AF39">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AG39">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AH39">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AI39">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AJ39">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AK39">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AL39">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AM39">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AN39">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AO39">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AP39">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AQ39">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AR39">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AS39">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AT39">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="40" spans="1:46" x14ac:dyDescent="0.25">
@@ -6110,79 +6110,79 @@
         <v>0.3</v>
       </c>
       <c r="V40">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="W40">
-        <v>0.3</v>
+        <v>0.34</v>
       </c>
       <c r="X40">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="Y40">
-        <v>0.3</v>
+        <v>0.38</v>
       </c>
       <c r="Z40">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AA40">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AB40">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AC40">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AD40">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AE40">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AF40">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AG40">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AH40">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AI40">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AJ40">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AK40">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AL40">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AM40">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AN40">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AO40">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AP40">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AQ40">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AR40">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AS40">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AT40">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="41" spans="1:46" x14ac:dyDescent="0.25">
@@ -6250,79 +6250,79 @@
         <v>0.3</v>
       </c>
       <c r="V41">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="W41">
-        <v>0.3</v>
+        <v>0.34</v>
       </c>
       <c r="X41">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="Y41">
-        <v>0.3</v>
+        <v>0.38</v>
       </c>
       <c r="Z41">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AA41">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AB41">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AC41">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AD41">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AE41">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AF41">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AG41">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AH41">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AI41">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AJ41">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AK41">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AL41">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AM41">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AN41">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AO41">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AP41">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AQ41">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AR41">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AS41">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AT41">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="42" spans="1:46" x14ac:dyDescent="0.25">
@@ -6390,79 +6390,79 @@
         <v>0.3</v>
       </c>
       <c r="V42">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="W42">
-        <v>0.3</v>
+        <v>0.34</v>
       </c>
       <c r="X42">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="Y42">
-        <v>0.3</v>
+        <v>0.38</v>
       </c>
       <c r="Z42">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AA42">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AB42">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AC42">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AD42">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AE42">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AF42">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AG42">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AH42">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AI42">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AJ42">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AK42">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AL42">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AM42">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AN42">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AO42">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AP42">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AQ42">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AR42">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AS42">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AT42">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="43" spans="1:46" x14ac:dyDescent="0.25">
@@ -6530,79 +6530,79 @@
         <v>0.3</v>
       </c>
       <c r="V43">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="W43">
-        <v>0.3</v>
+        <v>0.34</v>
       </c>
       <c r="X43">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="Y43">
-        <v>0.3</v>
+        <v>0.38</v>
       </c>
       <c r="Z43">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AA43">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AB43">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AC43">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AD43">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AE43">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AF43">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AG43">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AH43">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AI43">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AJ43">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AK43">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AL43">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AM43">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AN43">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AO43">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AP43">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AQ43">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AR43">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AS43">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AT43">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="44" spans="1:46" x14ac:dyDescent="0.25">
@@ -6670,79 +6670,79 @@
         <v>0.3</v>
       </c>
       <c r="V44">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="W44">
-        <v>0.3</v>
+        <v>0.34</v>
       </c>
       <c r="X44">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="Y44">
-        <v>0.3</v>
+        <v>0.38</v>
       </c>
       <c r="Z44">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AA44">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AB44">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AC44">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AD44">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AE44">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AF44">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AG44">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AH44">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AI44">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AJ44">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AK44">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AL44">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AM44">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AN44">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AO44">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AP44">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AQ44">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AR44">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AS44">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AT44">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="45" spans="1:46" x14ac:dyDescent="0.25">
@@ -6810,79 +6810,79 @@
         <v>0.3</v>
       </c>
       <c r="V45">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="W45">
-        <v>0.3</v>
+        <v>0.34</v>
       </c>
       <c r="X45">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="Y45">
-        <v>0.3</v>
+        <v>0.38</v>
       </c>
       <c r="Z45">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AA45">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AB45">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AC45">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AD45">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AE45">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AF45">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AG45">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AH45">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AI45">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AJ45">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AK45">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AL45">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AM45">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AN45">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AO45">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AP45">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AQ45">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AR45">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AS45">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AT45">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="46" spans="1:46" x14ac:dyDescent="0.25">
@@ -6950,79 +6950,79 @@
         <v>0.3</v>
       </c>
       <c r="V46">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="W46">
-        <v>0.3</v>
+        <v>0.34</v>
       </c>
       <c r="X46">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="Y46">
-        <v>0.3</v>
+        <v>0.38</v>
       </c>
       <c r="Z46">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AA46">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AB46">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AC46">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AD46">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AE46">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AF46">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AG46">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AH46">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AI46">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AJ46">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AK46">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AL46">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AM46">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AN46">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AO46">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AP46">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AQ46">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AR46">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AS46">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AT46">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="47" spans="1:46" x14ac:dyDescent="0.25">
@@ -7090,79 +7090,79 @@
         <v>0.3</v>
       </c>
       <c r="V47">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="W47">
-        <v>0.3</v>
+        <v>0.34</v>
       </c>
       <c r="X47">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="Y47">
-        <v>0.3</v>
+        <v>0.38</v>
       </c>
       <c r="Z47">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AA47">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AB47">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AC47">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AD47">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AE47">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AF47">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AG47">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AH47">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AI47">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AJ47">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AK47">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AL47">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AM47">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AN47">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AO47">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AP47">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AQ47">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AR47">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AS47">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AT47">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="48" spans="1:46" x14ac:dyDescent="0.25">
@@ -7230,79 +7230,79 @@
         <v>0.3</v>
       </c>
       <c r="V48">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="W48">
-        <v>0.3</v>
+        <v>0.34</v>
       </c>
       <c r="X48">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="Y48">
-        <v>0.3</v>
+        <v>0.38</v>
       </c>
       <c r="Z48">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AA48">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AB48">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AC48">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AD48">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AE48">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AF48">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AG48">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AH48">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AI48">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AJ48">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AK48">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AL48">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AM48">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AN48">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AO48">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AP48">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AQ48">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AR48">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AS48">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AT48">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="49" spans="1:46" x14ac:dyDescent="0.25">
@@ -7370,79 +7370,79 @@
         <v>0.3</v>
       </c>
       <c r="V49">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="W49">
-        <v>0.3</v>
+        <v>0.34</v>
       </c>
       <c r="X49">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="Y49">
-        <v>0.3</v>
+        <v>0.38</v>
       </c>
       <c r="Z49">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AA49">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AB49">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AC49">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AD49">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AE49">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AF49">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AG49">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AH49">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AI49">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AJ49">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AK49">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AL49">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AM49">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AN49">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AO49">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AP49">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AQ49">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AR49">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AS49">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AT49">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="50" spans="1:46" x14ac:dyDescent="0.25">
@@ -7510,79 +7510,79 @@
         <v>0.3</v>
       </c>
       <c r="V50">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="W50">
-        <v>0.3</v>
+        <v>0.34</v>
       </c>
       <c r="X50">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="Y50">
-        <v>0.3</v>
+        <v>0.38</v>
       </c>
       <c r="Z50">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AA50">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AB50">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AC50">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AD50">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AE50">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AF50">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AG50">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AH50">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AI50">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AJ50">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AK50">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AL50">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AM50">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AN50">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AO50">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AP50">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AQ50">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AR50">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AS50">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AT50">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="51" spans="1:46" x14ac:dyDescent="0.25">
@@ -7650,79 +7650,79 @@
         <v>0.3</v>
       </c>
       <c r="V51">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="W51">
-        <v>0.3</v>
+        <v>0.34</v>
       </c>
       <c r="X51">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="Y51">
-        <v>0.3</v>
+        <v>0.38</v>
       </c>
       <c r="Z51">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AA51">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AB51">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AC51">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AD51">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AE51">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AF51">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AG51">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AH51">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AI51">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AJ51">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AK51">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AL51">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AM51">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AN51">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AO51">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AP51">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AQ51">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AR51">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AS51">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AT51">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="52" spans="1:46" x14ac:dyDescent="0.25">
@@ -7790,79 +7790,79 @@
         <v>0.3</v>
       </c>
       <c r="V52">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="W52">
-        <v>0.3</v>
+        <v>0.34</v>
       </c>
       <c r="X52">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="Y52">
-        <v>0.3</v>
+        <v>0.38</v>
       </c>
       <c r="Z52">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AA52">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AB52">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AC52">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AD52">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AE52">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AF52">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AG52">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AH52">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AI52">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AJ52">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AK52">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AL52">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AM52">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AN52">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AO52">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AP52">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AQ52">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AR52">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AS52">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AT52">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="53" spans="1:46" x14ac:dyDescent="0.25">
@@ -7882,127 +7882,127 @@
         <v>45</v>
       </c>
       <c r="F53">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="G53">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="H53">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="I53">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="J53">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="K53">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="L53">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="M53">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="N53">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="O53">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="P53">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="Q53">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="R53">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="S53">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="T53">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="U53">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="V53">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="W53">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="X53">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="Y53">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="Z53">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AA53">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AB53">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AC53">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AD53">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AE53">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AF53">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AG53">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AH53">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AI53">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AJ53">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AK53">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AL53">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AM53">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AN53">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AO53">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AP53">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AQ53">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AR53">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AS53">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AT53">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="54" spans="1:46" x14ac:dyDescent="0.25">
@@ -8022,127 +8022,127 @@
         <v>45</v>
       </c>
       <c r="F54">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="G54">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="H54">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="I54">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="J54">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="K54">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="L54">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="M54">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="N54">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="O54">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="P54">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="Q54">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="R54">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="S54">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="T54">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="U54">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="V54">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="W54">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="X54">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="Y54">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="Z54">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AA54">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AB54">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AC54">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AD54">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AE54">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AF54">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AG54">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AH54">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AI54">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AJ54">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AK54">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AL54">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AM54">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AN54">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AO54">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AP54">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AQ54">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AR54">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AS54">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AT54">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="55" spans="1:46" x14ac:dyDescent="0.25">
@@ -8162,127 +8162,127 @@
         <v>45</v>
       </c>
       <c r="F55">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="G55">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="H55">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="I55">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="J55">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="K55">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="L55">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="M55">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="N55">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="O55">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="P55">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="Q55">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="R55">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="S55">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="T55">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="U55">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="V55">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="W55">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="X55">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="Y55">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="Z55">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AA55">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AB55">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AC55">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AD55">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AE55">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AF55">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AG55">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AH55">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AI55">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AJ55">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AK55">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AL55">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AM55">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AN55">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AO55">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AP55">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AQ55">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AR55">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AS55">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AT55">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="56" spans="1:46" x14ac:dyDescent="0.25">
@@ -8302,127 +8302,127 @@
         <v>45</v>
       </c>
       <c r="F56">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="G56">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="H56">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="I56">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="J56">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="K56">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="L56">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="M56">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="N56">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="O56">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="P56">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="Q56">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="R56">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="S56">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="T56">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="U56">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="V56">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="W56">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="X56">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="Y56">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="Z56">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AA56">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AB56">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AC56">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AD56">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AE56">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AF56">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AG56">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AH56">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AI56">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AJ56">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AK56">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AL56">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AM56">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AN56">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AO56">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AP56">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AQ56">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AR56">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AS56">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AT56">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="57" spans="1:46" x14ac:dyDescent="0.25">
@@ -8442,127 +8442,127 @@
         <v>45</v>
       </c>
       <c r="F57">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="G57">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="H57">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="I57">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="J57">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="K57">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="L57">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="M57">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="N57">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="O57">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="P57">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="Q57">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="R57">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="S57">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="T57">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="U57">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="V57">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="W57">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="X57">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="Y57">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="Z57">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AA57">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AB57">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AC57">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AD57">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AE57">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AF57">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AG57">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AH57">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AI57">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AJ57">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AK57">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AL57">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AM57">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AN57">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AO57">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AP57">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AQ57">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AR57">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AS57">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AT57">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="58" spans="1:46" x14ac:dyDescent="0.25">
@@ -8582,127 +8582,127 @@
         <v>45</v>
       </c>
       <c r="F58">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="G58">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="H58">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="I58">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="J58">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="K58">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="L58">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="M58">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="N58">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="O58">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="P58">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="Q58">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="R58">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="S58">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="T58">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="U58">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="V58">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="W58">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="X58">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="Y58">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="Z58">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AA58">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AB58">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AC58">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AD58">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AE58">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AF58">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AG58">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AH58">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AI58">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AJ58">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AK58">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AL58">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AM58">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AN58">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AO58">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AP58">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AQ58">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AR58">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AS58">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AT58">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="59" spans="1:46" x14ac:dyDescent="0.25">
@@ -8722,127 +8722,127 @@
         <v>45</v>
       </c>
       <c r="F59">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="G59">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="H59">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="I59">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="J59">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="K59">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="L59">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="M59">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="N59">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="O59">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="P59">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="Q59">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="R59">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="S59">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="T59">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="U59">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="V59">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="W59">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="X59">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="Y59">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="Z59">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AA59">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AB59">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AC59">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AD59">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AE59">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AF59">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AG59">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AH59">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AI59">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AJ59">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AK59">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AL59">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AM59">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AN59">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AO59">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AP59">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AQ59">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AR59">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AS59">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AT59">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="60" spans="1:46" x14ac:dyDescent="0.25">
@@ -8862,127 +8862,127 @@
         <v>45</v>
       </c>
       <c r="F60">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="G60">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="H60">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="I60">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="J60">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="K60">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="L60">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="M60">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="N60">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="O60">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="P60">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="Q60">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="R60">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="S60">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="T60">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="U60">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="V60">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="W60">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="X60">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="Y60">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="Z60">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AA60">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AB60">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AC60">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AD60">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AE60">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AF60">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AG60">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AH60">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AI60">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AJ60">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AK60">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AL60">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AM60">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AN60">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AO60">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AP60">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AQ60">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AR60">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AS60">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AT60">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="61" spans="1:46" x14ac:dyDescent="0.25">
@@ -9002,127 +9002,127 @@
         <v>45</v>
       </c>
       <c r="F61">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="G61">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="H61">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="I61">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="J61">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="K61">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="L61">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="M61">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="N61">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="O61">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="P61">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="Q61">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="R61">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="S61">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="T61">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="U61">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="V61">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="W61">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="X61">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="Y61">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="Z61">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AA61">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AB61">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AC61">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AD61">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AE61">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AF61">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AG61">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AH61">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AI61">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AJ61">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AK61">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AL61">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AM61">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AN61">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AO61">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AP61">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AQ61">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AR61">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AS61">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AT61">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="62" spans="1:46" x14ac:dyDescent="0.25">
@@ -9142,127 +9142,127 @@
         <v>45</v>
       </c>
       <c r="F62">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="G62">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="H62">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="I62">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="J62">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="K62">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="L62">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="M62">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="N62">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="O62">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="P62">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="Q62">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="R62">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="S62">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="T62">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="U62">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="V62">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="W62">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="X62">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="Y62">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="Z62">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AA62">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AB62">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AC62">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AD62">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AE62">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AF62">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AG62">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AH62">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AI62">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AJ62">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AK62">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AL62">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AM62">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AN62">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AO62">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AP62">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AQ62">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AR62">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AS62">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AT62">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="63" spans="1:46" x14ac:dyDescent="0.25">
@@ -9282,127 +9282,127 @@
         <v>45</v>
       </c>
       <c r="F63">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="G63">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="H63">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="I63">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="J63">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="K63">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="L63">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="M63">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="N63">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="O63">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="P63">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="Q63">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="R63">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="S63">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="T63">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="U63">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="V63">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="W63">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="X63">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="Y63">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="Z63">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AA63">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AB63">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AC63">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AD63">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AE63">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AF63">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AG63">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AH63">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AI63">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AJ63">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AK63">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AL63">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AM63">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AN63">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AO63">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AP63">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AQ63">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AR63">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AS63">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AT63">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="64" spans="1:46" x14ac:dyDescent="0.25">
@@ -9422,127 +9422,127 @@
         <v>45</v>
       </c>
       <c r="F64">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="G64">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="H64">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="I64">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="J64">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="K64">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="L64">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="M64">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="N64">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="O64">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="P64">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="Q64">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="R64">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="S64">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="T64">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="U64">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="V64">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="W64">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="X64">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="Y64">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="Z64">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AA64">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AB64">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AC64">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AD64">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AE64">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AF64">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AG64">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AH64">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AI64">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AJ64">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AK64">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AL64">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AM64">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AN64">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AO64">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AP64">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AQ64">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AR64">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AS64">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AT64">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="65" spans="1:46" x14ac:dyDescent="0.25">
@@ -9562,127 +9562,127 @@
         <v>45</v>
       </c>
       <c r="F65">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="G65">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="H65">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="I65">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="J65">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="K65">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="L65">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="M65">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="N65">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="O65">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="P65">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="Q65">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="R65">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="S65">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="T65">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="U65">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="V65">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="W65">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="X65">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="Y65">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="Z65">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AA65">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AB65">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AC65">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AD65">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AE65">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AF65">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AG65">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AH65">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AI65">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AJ65">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AK65">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AL65">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AM65">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AN65">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AO65">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AP65">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AQ65">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AR65">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AS65">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AT65">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="66" spans="1:46" x14ac:dyDescent="0.25">
@@ -9702,127 +9702,127 @@
         <v>45</v>
       </c>
       <c r="F66">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="G66">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="H66">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="I66">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="J66">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="K66">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="L66">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="M66">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="N66">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="O66">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="P66">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="Q66">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="R66">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="S66">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="T66">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="U66">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="V66">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="W66">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="X66">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="Y66">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="Z66">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AA66">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AB66">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AC66">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AD66">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AE66">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AF66">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AG66">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AH66">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AI66">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AJ66">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AK66">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AL66">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AM66">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AN66">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AO66">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AP66">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AQ66">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AR66">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AS66">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AT66">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="67" spans="1:46" x14ac:dyDescent="0.25">
@@ -9842,127 +9842,127 @@
         <v>45</v>
       </c>
       <c r="F67">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="G67">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="H67">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="I67">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="J67">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="K67">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="L67">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="M67">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="N67">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="O67">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="P67">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="Q67">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="R67">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="S67">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="T67">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="U67">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="V67">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="W67">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="X67">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="Y67">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="Z67">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AA67">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AB67">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AC67">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AD67">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AE67">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AF67">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AG67">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AH67">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AI67">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AJ67">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AK67">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AL67">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AM67">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AN67">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AO67">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AP67">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AQ67">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AR67">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AS67">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AT67">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="68" spans="1:46" x14ac:dyDescent="0.25">
@@ -9982,127 +9982,127 @@
         <v>45</v>
       </c>
       <c r="F68">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="G68">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="H68">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="I68">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="J68">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="K68">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="L68">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="M68">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="N68">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="O68">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="P68">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="Q68">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="R68">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="S68">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="T68">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="U68">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="V68">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="W68">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="X68">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="Y68">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="Z68">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AA68">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AB68">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AC68">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AD68">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AE68">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AF68">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AG68">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AH68">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AI68">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AJ68">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AK68">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AL68">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AM68">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AN68">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AO68">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AP68">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AQ68">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AR68">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AS68">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AT68">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="69" spans="1:46" x14ac:dyDescent="0.25">
@@ -10122,127 +10122,127 @@
         <v>45</v>
       </c>
       <c r="F69">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="G69">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="H69">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="I69">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="J69">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="K69">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="L69">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="M69">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="N69">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="O69">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="P69">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="Q69">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="R69">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="S69">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="T69">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="U69">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="V69">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="W69">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="X69">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="Y69">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="Z69">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AA69">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AB69">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AC69">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AD69">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AE69">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AF69">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AG69">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AH69">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AI69">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AJ69">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AK69">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AL69">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AM69">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AN69">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AO69">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AP69">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AQ69">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AR69">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AS69">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="AT69">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>

--- a/projects/test_building/input/Scenario_PV_SelfConsumptionRate.xlsx
+++ b/projects/test_building/input/Scenario_PV_SelfConsumptionRate.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-1760" yWindow="-20780" windowWidth="33060" windowHeight="19160"/>
+    <workbookView xWindow="-1755" yWindow="-20775" windowWidth="33060" windowHeight="19155"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="4" r:id="rId1"/>
+    <sheet name="updated" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="47">
   <si>
     <t>id_region</t>
   </si>
@@ -234,8 +234,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:AT18" totalsRowShown="0">
-  <autoFilter ref="A1:AT18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:AT69" totalsRowShown="0">
+  <autoFilter ref="A1:AT69"/>
   <tableColumns count="46">
     <tableColumn id="5" name="id_scenario"/>
     <tableColumn id="1" name="id_region"/>
@@ -573,19 +573,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT18"/>
+  <dimension ref="A1:AT69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -725,7 +725,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -865,7 +865,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1285,7 +1285,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1985,7 +1985,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -2405,7 +2405,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -2685,7 +2685,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -2825,7 +2825,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -2965,7 +2965,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -3102,6 +3102,7146 @@
         <v>0.3</v>
       </c>
       <c r="AT18">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>31</v>
+      </c>
+      <c r="E19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19">
+        <v>0.3</v>
+      </c>
+      <c r="G19">
+        <v>0.3</v>
+      </c>
+      <c r="H19">
+        <v>0.3</v>
+      </c>
+      <c r="I19">
+        <v>0.3</v>
+      </c>
+      <c r="J19">
+        <v>0.3</v>
+      </c>
+      <c r="K19">
+        <v>0.3</v>
+      </c>
+      <c r="L19">
+        <v>0.3</v>
+      </c>
+      <c r="M19">
+        <v>0.3</v>
+      </c>
+      <c r="N19">
+        <v>0.3</v>
+      </c>
+      <c r="O19">
+        <v>0.3</v>
+      </c>
+      <c r="P19">
+        <v>0.3</v>
+      </c>
+      <c r="Q19">
+        <v>0.3</v>
+      </c>
+      <c r="R19">
+        <v>0.3</v>
+      </c>
+      <c r="S19">
+        <v>0.3</v>
+      </c>
+      <c r="T19">
+        <v>0.3</v>
+      </c>
+      <c r="U19">
+        <v>0.35</v>
+      </c>
+      <c r="V19">
+        <v>0.4</v>
+      </c>
+      <c r="W19">
+        <v>0.45</v>
+      </c>
+      <c r="X19">
+        <v>0.5</v>
+      </c>
+      <c r="Y19">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Z19">
+        <v>0.6</v>
+      </c>
+      <c r="AA19">
+        <v>0.6</v>
+      </c>
+      <c r="AB19">
+        <v>0.6</v>
+      </c>
+      <c r="AC19">
+        <v>0.6</v>
+      </c>
+      <c r="AD19">
+        <v>0.6</v>
+      </c>
+      <c r="AE19">
+        <v>0.6</v>
+      </c>
+      <c r="AF19">
+        <v>0.6</v>
+      </c>
+      <c r="AG19">
+        <v>0.6</v>
+      </c>
+      <c r="AH19">
+        <v>0.6</v>
+      </c>
+      <c r="AI19">
+        <v>0.6</v>
+      </c>
+      <c r="AJ19">
+        <v>0.6</v>
+      </c>
+      <c r="AK19">
+        <v>0.6</v>
+      </c>
+      <c r="AL19">
+        <v>0.6</v>
+      </c>
+      <c r="AM19">
+        <v>0.6</v>
+      </c>
+      <c r="AN19">
+        <v>0.6</v>
+      </c>
+      <c r="AO19">
+        <v>0.6</v>
+      </c>
+      <c r="AP19">
+        <v>0.6</v>
+      </c>
+      <c r="AQ19">
+        <v>0.6</v>
+      </c>
+      <c r="AR19">
+        <v>0.6</v>
+      </c>
+      <c r="AS19">
+        <v>0.6</v>
+      </c>
+      <c r="AT19">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>10</v>
+      </c>
+      <c r="B20">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>32</v>
+      </c>
+      <c r="E20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20">
+        <v>0.3</v>
+      </c>
+      <c r="G20">
+        <v>0.3</v>
+      </c>
+      <c r="H20">
+        <v>0.3</v>
+      </c>
+      <c r="I20">
+        <v>0.3</v>
+      </c>
+      <c r="J20">
+        <v>0.3</v>
+      </c>
+      <c r="K20">
+        <v>0.3</v>
+      </c>
+      <c r="L20">
+        <v>0.3</v>
+      </c>
+      <c r="M20">
+        <v>0.3</v>
+      </c>
+      <c r="N20">
+        <v>0.3</v>
+      </c>
+      <c r="O20">
+        <v>0.3</v>
+      </c>
+      <c r="P20">
+        <v>0.3</v>
+      </c>
+      <c r="Q20">
+        <v>0.3</v>
+      </c>
+      <c r="R20">
+        <v>0.3</v>
+      </c>
+      <c r="S20">
+        <v>0.3</v>
+      </c>
+      <c r="T20">
+        <v>0.3</v>
+      </c>
+      <c r="U20">
+        <v>0.35</v>
+      </c>
+      <c r="V20">
+        <v>0.4</v>
+      </c>
+      <c r="W20">
+        <v>0.45</v>
+      </c>
+      <c r="X20">
+        <v>0.5</v>
+      </c>
+      <c r="Y20">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Z20">
+        <v>0.6</v>
+      </c>
+      <c r="AA20">
+        <v>0.6</v>
+      </c>
+      <c r="AB20">
+        <v>0.6</v>
+      </c>
+      <c r="AC20">
+        <v>0.6</v>
+      </c>
+      <c r="AD20">
+        <v>0.6</v>
+      </c>
+      <c r="AE20">
+        <v>0.6</v>
+      </c>
+      <c r="AF20">
+        <v>0.6</v>
+      </c>
+      <c r="AG20">
+        <v>0.6</v>
+      </c>
+      <c r="AH20">
+        <v>0.6</v>
+      </c>
+      <c r="AI20">
+        <v>0.6</v>
+      </c>
+      <c r="AJ20">
+        <v>0.6</v>
+      </c>
+      <c r="AK20">
+        <v>0.6</v>
+      </c>
+      <c r="AL20">
+        <v>0.6</v>
+      </c>
+      <c r="AM20">
+        <v>0.6</v>
+      </c>
+      <c r="AN20">
+        <v>0.6</v>
+      </c>
+      <c r="AO20">
+        <v>0.6</v>
+      </c>
+      <c r="AP20">
+        <v>0.6</v>
+      </c>
+      <c r="AQ20">
+        <v>0.6</v>
+      </c>
+      <c r="AR20">
+        <v>0.6</v>
+      </c>
+      <c r="AS20">
+        <v>0.6</v>
+      </c>
+      <c r="AT20">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>10</v>
+      </c>
+      <c r="B21">
+        <v>9</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>33</v>
+      </c>
+      <c r="E21" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21">
+        <v>0.3</v>
+      </c>
+      <c r="G21">
+        <v>0.3</v>
+      </c>
+      <c r="H21">
+        <v>0.3</v>
+      </c>
+      <c r="I21">
+        <v>0.3</v>
+      </c>
+      <c r="J21">
+        <v>0.3</v>
+      </c>
+      <c r="K21">
+        <v>0.3</v>
+      </c>
+      <c r="L21">
+        <v>0.3</v>
+      </c>
+      <c r="M21">
+        <v>0.3</v>
+      </c>
+      <c r="N21">
+        <v>0.3</v>
+      </c>
+      <c r="O21">
+        <v>0.3</v>
+      </c>
+      <c r="P21">
+        <v>0.3</v>
+      </c>
+      <c r="Q21">
+        <v>0.3</v>
+      </c>
+      <c r="R21">
+        <v>0.3</v>
+      </c>
+      <c r="S21">
+        <v>0.3</v>
+      </c>
+      <c r="T21">
+        <v>0.3</v>
+      </c>
+      <c r="U21">
+        <v>0.35</v>
+      </c>
+      <c r="V21">
+        <v>0.4</v>
+      </c>
+      <c r="W21">
+        <v>0.45</v>
+      </c>
+      <c r="X21">
+        <v>0.5</v>
+      </c>
+      <c r="Y21">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Z21">
+        <v>0.6</v>
+      </c>
+      <c r="AA21">
+        <v>0.6</v>
+      </c>
+      <c r="AB21">
+        <v>0.6</v>
+      </c>
+      <c r="AC21">
+        <v>0.6</v>
+      </c>
+      <c r="AD21">
+        <v>0.6</v>
+      </c>
+      <c r="AE21">
+        <v>0.6</v>
+      </c>
+      <c r="AF21">
+        <v>0.6</v>
+      </c>
+      <c r="AG21">
+        <v>0.6</v>
+      </c>
+      <c r="AH21">
+        <v>0.6</v>
+      </c>
+      <c r="AI21">
+        <v>0.6</v>
+      </c>
+      <c r="AJ21">
+        <v>0.6</v>
+      </c>
+      <c r="AK21">
+        <v>0.6</v>
+      </c>
+      <c r="AL21">
+        <v>0.6</v>
+      </c>
+      <c r="AM21">
+        <v>0.6</v>
+      </c>
+      <c r="AN21">
+        <v>0.6</v>
+      </c>
+      <c r="AO21">
+        <v>0.6</v>
+      </c>
+      <c r="AP21">
+        <v>0.6</v>
+      </c>
+      <c r="AQ21">
+        <v>0.6</v>
+      </c>
+      <c r="AR21">
+        <v>0.6</v>
+      </c>
+      <c r="AS21">
+        <v>0.6</v>
+      </c>
+      <c r="AT21">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>10</v>
+      </c>
+      <c r="B22">
+        <v>9</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>34</v>
+      </c>
+      <c r="E22" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22">
+        <v>0.3</v>
+      </c>
+      <c r="G22">
+        <v>0.3</v>
+      </c>
+      <c r="H22">
+        <v>0.3</v>
+      </c>
+      <c r="I22">
+        <v>0.3</v>
+      </c>
+      <c r="J22">
+        <v>0.3</v>
+      </c>
+      <c r="K22">
+        <v>0.3</v>
+      </c>
+      <c r="L22">
+        <v>0.3</v>
+      </c>
+      <c r="M22">
+        <v>0.3</v>
+      </c>
+      <c r="N22">
+        <v>0.3</v>
+      </c>
+      <c r="O22">
+        <v>0.3</v>
+      </c>
+      <c r="P22">
+        <v>0.3</v>
+      </c>
+      <c r="Q22">
+        <v>0.3</v>
+      </c>
+      <c r="R22">
+        <v>0.3</v>
+      </c>
+      <c r="S22">
+        <v>0.3</v>
+      </c>
+      <c r="T22">
+        <v>0.3</v>
+      </c>
+      <c r="U22">
+        <v>0.35</v>
+      </c>
+      <c r="V22">
+        <v>0.4</v>
+      </c>
+      <c r="W22">
+        <v>0.45</v>
+      </c>
+      <c r="X22">
+        <v>0.5</v>
+      </c>
+      <c r="Y22">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Z22">
+        <v>0.6</v>
+      </c>
+      <c r="AA22">
+        <v>0.6</v>
+      </c>
+      <c r="AB22">
+        <v>0.6</v>
+      </c>
+      <c r="AC22">
+        <v>0.6</v>
+      </c>
+      <c r="AD22">
+        <v>0.6</v>
+      </c>
+      <c r="AE22">
+        <v>0.6</v>
+      </c>
+      <c r="AF22">
+        <v>0.6</v>
+      </c>
+      <c r="AG22">
+        <v>0.6</v>
+      </c>
+      <c r="AH22">
+        <v>0.6</v>
+      </c>
+      <c r="AI22">
+        <v>0.6</v>
+      </c>
+      <c r="AJ22">
+        <v>0.6</v>
+      </c>
+      <c r="AK22">
+        <v>0.6</v>
+      </c>
+      <c r="AL22">
+        <v>0.6</v>
+      </c>
+      <c r="AM22">
+        <v>0.6</v>
+      </c>
+      <c r="AN22">
+        <v>0.6</v>
+      </c>
+      <c r="AO22">
+        <v>0.6</v>
+      </c>
+      <c r="AP22">
+        <v>0.6</v>
+      </c>
+      <c r="AQ22">
+        <v>0.6</v>
+      </c>
+      <c r="AR22">
+        <v>0.6</v>
+      </c>
+      <c r="AS22">
+        <v>0.6</v>
+      </c>
+      <c r="AT22">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>10</v>
+      </c>
+      <c r="B23">
+        <v>9</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>35</v>
+      </c>
+      <c r="E23" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23">
+        <v>0.3</v>
+      </c>
+      <c r="G23">
+        <v>0.3</v>
+      </c>
+      <c r="H23">
+        <v>0.3</v>
+      </c>
+      <c r="I23">
+        <v>0.3</v>
+      </c>
+      <c r="J23">
+        <v>0.3</v>
+      </c>
+      <c r="K23">
+        <v>0.3</v>
+      </c>
+      <c r="L23">
+        <v>0.3</v>
+      </c>
+      <c r="M23">
+        <v>0.3</v>
+      </c>
+      <c r="N23">
+        <v>0.3</v>
+      </c>
+      <c r="O23">
+        <v>0.3</v>
+      </c>
+      <c r="P23">
+        <v>0.3</v>
+      </c>
+      <c r="Q23">
+        <v>0.3</v>
+      </c>
+      <c r="R23">
+        <v>0.3</v>
+      </c>
+      <c r="S23">
+        <v>0.3</v>
+      </c>
+      <c r="T23">
+        <v>0.3</v>
+      </c>
+      <c r="U23">
+        <v>0.35</v>
+      </c>
+      <c r="V23">
+        <v>0.4</v>
+      </c>
+      <c r="W23">
+        <v>0.45</v>
+      </c>
+      <c r="X23">
+        <v>0.5</v>
+      </c>
+      <c r="Y23">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Z23">
+        <v>0.6</v>
+      </c>
+      <c r="AA23">
+        <v>0.6</v>
+      </c>
+      <c r="AB23">
+        <v>0.6</v>
+      </c>
+      <c r="AC23">
+        <v>0.6</v>
+      </c>
+      <c r="AD23">
+        <v>0.6</v>
+      </c>
+      <c r="AE23">
+        <v>0.6</v>
+      </c>
+      <c r="AF23">
+        <v>0.6</v>
+      </c>
+      <c r="AG23">
+        <v>0.6</v>
+      </c>
+      <c r="AH23">
+        <v>0.6</v>
+      </c>
+      <c r="AI23">
+        <v>0.6</v>
+      </c>
+      <c r="AJ23">
+        <v>0.6</v>
+      </c>
+      <c r="AK23">
+        <v>0.6</v>
+      </c>
+      <c r="AL23">
+        <v>0.6</v>
+      </c>
+      <c r="AM23">
+        <v>0.6</v>
+      </c>
+      <c r="AN23">
+        <v>0.6</v>
+      </c>
+      <c r="AO23">
+        <v>0.6</v>
+      </c>
+      <c r="AP23">
+        <v>0.6</v>
+      </c>
+      <c r="AQ23">
+        <v>0.6</v>
+      </c>
+      <c r="AR23">
+        <v>0.6</v>
+      </c>
+      <c r="AS23">
+        <v>0.6</v>
+      </c>
+      <c r="AT23">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>10</v>
+      </c>
+      <c r="B24">
+        <v>9</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>36</v>
+      </c>
+      <c r="E24" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24">
+        <v>0.3</v>
+      </c>
+      <c r="G24">
+        <v>0.3</v>
+      </c>
+      <c r="H24">
+        <v>0.3</v>
+      </c>
+      <c r="I24">
+        <v>0.3</v>
+      </c>
+      <c r="J24">
+        <v>0.3</v>
+      </c>
+      <c r="K24">
+        <v>0.3</v>
+      </c>
+      <c r="L24">
+        <v>0.3</v>
+      </c>
+      <c r="M24">
+        <v>0.3</v>
+      </c>
+      <c r="N24">
+        <v>0.3</v>
+      </c>
+      <c r="O24">
+        <v>0.3</v>
+      </c>
+      <c r="P24">
+        <v>0.3</v>
+      </c>
+      <c r="Q24">
+        <v>0.3</v>
+      </c>
+      <c r="R24">
+        <v>0.3</v>
+      </c>
+      <c r="S24">
+        <v>0.3</v>
+      </c>
+      <c r="T24">
+        <v>0.3</v>
+      </c>
+      <c r="U24">
+        <v>0.35</v>
+      </c>
+      <c r="V24">
+        <v>0.4</v>
+      </c>
+      <c r="W24">
+        <v>0.45</v>
+      </c>
+      <c r="X24">
+        <v>0.5</v>
+      </c>
+      <c r="Y24">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Z24">
+        <v>0.6</v>
+      </c>
+      <c r="AA24">
+        <v>0.6</v>
+      </c>
+      <c r="AB24">
+        <v>0.6</v>
+      </c>
+      <c r="AC24">
+        <v>0.6</v>
+      </c>
+      <c r="AD24">
+        <v>0.6</v>
+      </c>
+      <c r="AE24">
+        <v>0.6</v>
+      </c>
+      <c r="AF24">
+        <v>0.6</v>
+      </c>
+      <c r="AG24">
+        <v>0.6</v>
+      </c>
+      <c r="AH24">
+        <v>0.6</v>
+      </c>
+      <c r="AI24">
+        <v>0.6</v>
+      </c>
+      <c r="AJ24">
+        <v>0.6</v>
+      </c>
+      <c r="AK24">
+        <v>0.6</v>
+      </c>
+      <c r="AL24">
+        <v>0.6</v>
+      </c>
+      <c r="AM24">
+        <v>0.6</v>
+      </c>
+      <c r="AN24">
+        <v>0.6</v>
+      </c>
+      <c r="AO24">
+        <v>0.6</v>
+      </c>
+      <c r="AP24">
+        <v>0.6</v>
+      </c>
+      <c r="AQ24">
+        <v>0.6</v>
+      </c>
+      <c r="AR24">
+        <v>0.6</v>
+      </c>
+      <c r="AS24">
+        <v>0.6</v>
+      </c>
+      <c r="AT24">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>10</v>
+      </c>
+      <c r="B25">
+        <v>9</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>37</v>
+      </c>
+      <c r="E25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25">
+        <v>0.3</v>
+      </c>
+      <c r="G25">
+        <v>0.3</v>
+      </c>
+      <c r="H25">
+        <v>0.3</v>
+      </c>
+      <c r="I25">
+        <v>0.3</v>
+      </c>
+      <c r="J25">
+        <v>0.3</v>
+      </c>
+      <c r="K25">
+        <v>0.3</v>
+      </c>
+      <c r="L25">
+        <v>0.3</v>
+      </c>
+      <c r="M25">
+        <v>0.3</v>
+      </c>
+      <c r="N25">
+        <v>0.3</v>
+      </c>
+      <c r="O25">
+        <v>0.3</v>
+      </c>
+      <c r="P25">
+        <v>0.3</v>
+      </c>
+      <c r="Q25">
+        <v>0.3</v>
+      </c>
+      <c r="R25">
+        <v>0.3</v>
+      </c>
+      <c r="S25">
+        <v>0.3</v>
+      </c>
+      <c r="T25">
+        <v>0.3</v>
+      </c>
+      <c r="U25">
+        <v>0.35</v>
+      </c>
+      <c r="V25">
+        <v>0.4</v>
+      </c>
+      <c r="W25">
+        <v>0.45</v>
+      </c>
+      <c r="X25">
+        <v>0.5</v>
+      </c>
+      <c r="Y25">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Z25">
+        <v>0.6</v>
+      </c>
+      <c r="AA25">
+        <v>0.6</v>
+      </c>
+      <c r="AB25">
+        <v>0.6</v>
+      </c>
+      <c r="AC25">
+        <v>0.6</v>
+      </c>
+      <c r="AD25">
+        <v>0.6</v>
+      </c>
+      <c r="AE25">
+        <v>0.6</v>
+      </c>
+      <c r="AF25">
+        <v>0.6</v>
+      </c>
+      <c r="AG25">
+        <v>0.6</v>
+      </c>
+      <c r="AH25">
+        <v>0.6</v>
+      </c>
+      <c r="AI25">
+        <v>0.6</v>
+      </c>
+      <c r="AJ25">
+        <v>0.6</v>
+      </c>
+      <c r="AK25">
+        <v>0.6</v>
+      </c>
+      <c r="AL25">
+        <v>0.6</v>
+      </c>
+      <c r="AM25">
+        <v>0.6</v>
+      </c>
+      <c r="AN25">
+        <v>0.6</v>
+      </c>
+      <c r="AO25">
+        <v>0.6</v>
+      </c>
+      <c r="AP25">
+        <v>0.6</v>
+      </c>
+      <c r="AQ25">
+        <v>0.6</v>
+      </c>
+      <c r="AR25">
+        <v>0.6</v>
+      </c>
+      <c r="AS25">
+        <v>0.6</v>
+      </c>
+      <c r="AT25">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>10</v>
+      </c>
+      <c r="B26">
+        <v>9</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>38</v>
+      </c>
+      <c r="E26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26">
+        <v>0.3</v>
+      </c>
+      <c r="G26">
+        <v>0.3</v>
+      </c>
+      <c r="H26">
+        <v>0.3</v>
+      </c>
+      <c r="I26">
+        <v>0.3</v>
+      </c>
+      <c r="J26">
+        <v>0.3</v>
+      </c>
+      <c r="K26">
+        <v>0.3</v>
+      </c>
+      <c r="L26">
+        <v>0.3</v>
+      </c>
+      <c r="M26">
+        <v>0.3</v>
+      </c>
+      <c r="N26">
+        <v>0.3</v>
+      </c>
+      <c r="O26">
+        <v>0.3</v>
+      </c>
+      <c r="P26">
+        <v>0.3</v>
+      </c>
+      <c r="Q26">
+        <v>0.3</v>
+      </c>
+      <c r="R26">
+        <v>0.3</v>
+      </c>
+      <c r="S26">
+        <v>0.3</v>
+      </c>
+      <c r="T26">
+        <v>0.3</v>
+      </c>
+      <c r="U26">
+        <v>0.35</v>
+      </c>
+      <c r="V26">
+        <v>0.4</v>
+      </c>
+      <c r="W26">
+        <v>0.45</v>
+      </c>
+      <c r="X26">
+        <v>0.5</v>
+      </c>
+      <c r="Y26">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Z26">
+        <v>0.6</v>
+      </c>
+      <c r="AA26">
+        <v>0.6</v>
+      </c>
+      <c r="AB26">
+        <v>0.6</v>
+      </c>
+      <c r="AC26">
+        <v>0.6</v>
+      </c>
+      <c r="AD26">
+        <v>0.6</v>
+      </c>
+      <c r="AE26">
+        <v>0.6</v>
+      </c>
+      <c r="AF26">
+        <v>0.6</v>
+      </c>
+      <c r="AG26">
+        <v>0.6</v>
+      </c>
+      <c r="AH26">
+        <v>0.6</v>
+      </c>
+      <c r="AI26">
+        <v>0.6</v>
+      </c>
+      <c r="AJ26">
+        <v>0.6</v>
+      </c>
+      <c r="AK26">
+        <v>0.6</v>
+      </c>
+      <c r="AL26">
+        <v>0.6</v>
+      </c>
+      <c r="AM26">
+        <v>0.6</v>
+      </c>
+      <c r="AN26">
+        <v>0.6</v>
+      </c>
+      <c r="AO26">
+        <v>0.6</v>
+      </c>
+      <c r="AP26">
+        <v>0.6</v>
+      </c>
+      <c r="AQ26">
+        <v>0.6</v>
+      </c>
+      <c r="AR26">
+        <v>0.6</v>
+      </c>
+      <c r="AS26">
+        <v>0.6</v>
+      </c>
+      <c r="AT26">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <v>9</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>39</v>
+      </c>
+      <c r="E27" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27">
+        <v>0.3</v>
+      </c>
+      <c r="G27">
+        <v>0.3</v>
+      </c>
+      <c r="H27">
+        <v>0.3</v>
+      </c>
+      <c r="I27">
+        <v>0.3</v>
+      </c>
+      <c r="J27">
+        <v>0.3</v>
+      </c>
+      <c r="K27">
+        <v>0.3</v>
+      </c>
+      <c r="L27">
+        <v>0.3</v>
+      </c>
+      <c r="M27">
+        <v>0.3</v>
+      </c>
+      <c r="N27">
+        <v>0.3</v>
+      </c>
+      <c r="O27">
+        <v>0.3</v>
+      </c>
+      <c r="P27">
+        <v>0.3</v>
+      </c>
+      <c r="Q27">
+        <v>0.3</v>
+      </c>
+      <c r="R27">
+        <v>0.3</v>
+      </c>
+      <c r="S27">
+        <v>0.3</v>
+      </c>
+      <c r="T27">
+        <v>0.3</v>
+      </c>
+      <c r="U27">
+        <v>0.35</v>
+      </c>
+      <c r="V27">
+        <v>0.4</v>
+      </c>
+      <c r="W27">
+        <v>0.45</v>
+      </c>
+      <c r="X27">
+        <v>0.5</v>
+      </c>
+      <c r="Y27">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Z27">
+        <v>0.6</v>
+      </c>
+      <c r="AA27">
+        <v>0.6</v>
+      </c>
+      <c r="AB27">
+        <v>0.6</v>
+      </c>
+      <c r="AC27">
+        <v>0.6</v>
+      </c>
+      <c r="AD27">
+        <v>0.6</v>
+      </c>
+      <c r="AE27">
+        <v>0.6</v>
+      </c>
+      <c r="AF27">
+        <v>0.6</v>
+      </c>
+      <c r="AG27">
+        <v>0.6</v>
+      </c>
+      <c r="AH27">
+        <v>0.6</v>
+      </c>
+      <c r="AI27">
+        <v>0.6</v>
+      </c>
+      <c r="AJ27">
+        <v>0.6</v>
+      </c>
+      <c r="AK27">
+        <v>0.6</v>
+      </c>
+      <c r="AL27">
+        <v>0.6</v>
+      </c>
+      <c r="AM27">
+        <v>0.6</v>
+      </c>
+      <c r="AN27">
+        <v>0.6</v>
+      </c>
+      <c r="AO27">
+        <v>0.6</v>
+      </c>
+      <c r="AP27">
+        <v>0.6</v>
+      </c>
+      <c r="AQ27">
+        <v>0.6</v>
+      </c>
+      <c r="AR27">
+        <v>0.6</v>
+      </c>
+      <c r="AS27">
+        <v>0.6</v>
+      </c>
+      <c r="AT27">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <v>9</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>310</v>
+      </c>
+      <c r="E28" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28">
+        <v>0.3</v>
+      </c>
+      <c r="G28">
+        <v>0.3</v>
+      </c>
+      <c r="H28">
+        <v>0.3</v>
+      </c>
+      <c r="I28">
+        <v>0.3</v>
+      </c>
+      <c r="J28">
+        <v>0.3</v>
+      </c>
+      <c r="K28">
+        <v>0.3</v>
+      </c>
+      <c r="L28">
+        <v>0.3</v>
+      </c>
+      <c r="M28">
+        <v>0.3</v>
+      </c>
+      <c r="N28">
+        <v>0.3</v>
+      </c>
+      <c r="O28">
+        <v>0.3</v>
+      </c>
+      <c r="P28">
+        <v>0.3</v>
+      </c>
+      <c r="Q28">
+        <v>0.3</v>
+      </c>
+      <c r="R28">
+        <v>0.3</v>
+      </c>
+      <c r="S28">
+        <v>0.3</v>
+      </c>
+      <c r="T28">
+        <v>0.3</v>
+      </c>
+      <c r="U28">
+        <v>0.35</v>
+      </c>
+      <c r="V28">
+        <v>0.4</v>
+      </c>
+      <c r="W28">
+        <v>0.45</v>
+      </c>
+      <c r="X28">
+        <v>0.5</v>
+      </c>
+      <c r="Y28">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Z28">
+        <v>0.6</v>
+      </c>
+      <c r="AA28">
+        <v>0.6</v>
+      </c>
+      <c r="AB28">
+        <v>0.6</v>
+      </c>
+      <c r="AC28">
+        <v>0.6</v>
+      </c>
+      <c r="AD28">
+        <v>0.6</v>
+      </c>
+      <c r="AE28">
+        <v>0.6</v>
+      </c>
+      <c r="AF28">
+        <v>0.6</v>
+      </c>
+      <c r="AG28">
+        <v>0.6</v>
+      </c>
+      <c r="AH28">
+        <v>0.6</v>
+      </c>
+      <c r="AI28">
+        <v>0.6</v>
+      </c>
+      <c r="AJ28">
+        <v>0.6</v>
+      </c>
+      <c r="AK28">
+        <v>0.6</v>
+      </c>
+      <c r="AL28">
+        <v>0.6</v>
+      </c>
+      <c r="AM28">
+        <v>0.6</v>
+      </c>
+      <c r="AN28">
+        <v>0.6</v>
+      </c>
+      <c r="AO28">
+        <v>0.6</v>
+      </c>
+      <c r="AP28">
+        <v>0.6</v>
+      </c>
+      <c r="AQ28">
+        <v>0.6</v>
+      </c>
+      <c r="AR28">
+        <v>0.6</v>
+      </c>
+      <c r="AS28">
+        <v>0.6</v>
+      </c>
+      <c r="AT28">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>9</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>311</v>
+      </c>
+      <c r="E29" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29">
+        <v>0.3</v>
+      </c>
+      <c r="G29">
+        <v>0.3</v>
+      </c>
+      <c r="H29">
+        <v>0.3</v>
+      </c>
+      <c r="I29">
+        <v>0.3</v>
+      </c>
+      <c r="J29">
+        <v>0.3</v>
+      </c>
+      <c r="K29">
+        <v>0.3</v>
+      </c>
+      <c r="L29">
+        <v>0.3</v>
+      </c>
+      <c r="M29">
+        <v>0.3</v>
+      </c>
+      <c r="N29">
+        <v>0.3</v>
+      </c>
+      <c r="O29">
+        <v>0.3</v>
+      </c>
+      <c r="P29">
+        <v>0.3</v>
+      </c>
+      <c r="Q29">
+        <v>0.3</v>
+      </c>
+      <c r="R29">
+        <v>0.3</v>
+      </c>
+      <c r="S29">
+        <v>0.3</v>
+      </c>
+      <c r="T29">
+        <v>0.3</v>
+      </c>
+      <c r="U29">
+        <v>0.35</v>
+      </c>
+      <c r="V29">
+        <v>0.4</v>
+      </c>
+      <c r="W29">
+        <v>0.45</v>
+      </c>
+      <c r="X29">
+        <v>0.5</v>
+      </c>
+      <c r="Y29">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Z29">
+        <v>0.6</v>
+      </c>
+      <c r="AA29">
+        <v>0.6</v>
+      </c>
+      <c r="AB29">
+        <v>0.6</v>
+      </c>
+      <c r="AC29">
+        <v>0.6</v>
+      </c>
+      <c r="AD29">
+        <v>0.6</v>
+      </c>
+      <c r="AE29">
+        <v>0.6</v>
+      </c>
+      <c r="AF29">
+        <v>0.6</v>
+      </c>
+      <c r="AG29">
+        <v>0.6</v>
+      </c>
+      <c r="AH29">
+        <v>0.6</v>
+      </c>
+      <c r="AI29">
+        <v>0.6</v>
+      </c>
+      <c r="AJ29">
+        <v>0.6</v>
+      </c>
+      <c r="AK29">
+        <v>0.6</v>
+      </c>
+      <c r="AL29">
+        <v>0.6</v>
+      </c>
+      <c r="AM29">
+        <v>0.6</v>
+      </c>
+      <c r="AN29">
+        <v>0.6</v>
+      </c>
+      <c r="AO29">
+        <v>0.6</v>
+      </c>
+      <c r="AP29">
+        <v>0.6</v>
+      </c>
+      <c r="AQ29">
+        <v>0.6</v>
+      </c>
+      <c r="AR29">
+        <v>0.6</v>
+      </c>
+      <c r="AS29">
+        <v>0.6</v>
+      </c>
+      <c r="AT29">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>10</v>
+      </c>
+      <c r="B30">
+        <v>9</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>312</v>
+      </c>
+      <c r="E30" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30">
+        <v>0.3</v>
+      </c>
+      <c r="G30">
+        <v>0.3</v>
+      </c>
+      <c r="H30">
+        <v>0.3</v>
+      </c>
+      <c r="I30">
+        <v>0.3</v>
+      </c>
+      <c r="J30">
+        <v>0.3</v>
+      </c>
+      <c r="K30">
+        <v>0.3</v>
+      </c>
+      <c r="L30">
+        <v>0.3</v>
+      </c>
+      <c r="M30">
+        <v>0.3</v>
+      </c>
+      <c r="N30">
+        <v>0.3</v>
+      </c>
+      <c r="O30">
+        <v>0.3</v>
+      </c>
+      <c r="P30">
+        <v>0.3</v>
+      </c>
+      <c r="Q30">
+        <v>0.3</v>
+      </c>
+      <c r="R30">
+        <v>0.3</v>
+      </c>
+      <c r="S30">
+        <v>0.3</v>
+      </c>
+      <c r="T30">
+        <v>0.3</v>
+      </c>
+      <c r="U30">
+        <v>0.35</v>
+      </c>
+      <c r="V30">
+        <v>0.4</v>
+      </c>
+      <c r="W30">
+        <v>0.45</v>
+      </c>
+      <c r="X30">
+        <v>0.5</v>
+      </c>
+      <c r="Y30">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Z30">
+        <v>0.6</v>
+      </c>
+      <c r="AA30">
+        <v>0.6</v>
+      </c>
+      <c r="AB30">
+        <v>0.6</v>
+      </c>
+      <c r="AC30">
+        <v>0.6</v>
+      </c>
+      <c r="AD30">
+        <v>0.6</v>
+      </c>
+      <c r="AE30">
+        <v>0.6</v>
+      </c>
+      <c r="AF30">
+        <v>0.6</v>
+      </c>
+      <c r="AG30">
+        <v>0.6</v>
+      </c>
+      <c r="AH30">
+        <v>0.6</v>
+      </c>
+      <c r="AI30">
+        <v>0.6</v>
+      </c>
+      <c r="AJ30">
+        <v>0.6</v>
+      </c>
+      <c r="AK30">
+        <v>0.6</v>
+      </c>
+      <c r="AL30">
+        <v>0.6</v>
+      </c>
+      <c r="AM30">
+        <v>0.6</v>
+      </c>
+      <c r="AN30">
+        <v>0.6</v>
+      </c>
+      <c r="AO30">
+        <v>0.6</v>
+      </c>
+      <c r="AP30">
+        <v>0.6</v>
+      </c>
+      <c r="AQ30">
+        <v>0.6</v>
+      </c>
+      <c r="AR30">
+        <v>0.6</v>
+      </c>
+      <c r="AS30">
+        <v>0.6</v>
+      </c>
+      <c r="AT30">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>10</v>
+      </c>
+      <c r="B31">
+        <v>9</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>313</v>
+      </c>
+      <c r="E31" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31">
+        <v>0.3</v>
+      </c>
+      <c r="G31">
+        <v>0.3</v>
+      </c>
+      <c r="H31">
+        <v>0.3</v>
+      </c>
+      <c r="I31">
+        <v>0.3</v>
+      </c>
+      <c r="J31">
+        <v>0.3</v>
+      </c>
+      <c r="K31">
+        <v>0.3</v>
+      </c>
+      <c r="L31">
+        <v>0.3</v>
+      </c>
+      <c r="M31">
+        <v>0.3</v>
+      </c>
+      <c r="N31">
+        <v>0.3</v>
+      </c>
+      <c r="O31">
+        <v>0.3</v>
+      </c>
+      <c r="P31">
+        <v>0.3</v>
+      </c>
+      <c r="Q31">
+        <v>0.3</v>
+      </c>
+      <c r="R31">
+        <v>0.3</v>
+      </c>
+      <c r="S31">
+        <v>0.3</v>
+      </c>
+      <c r="T31">
+        <v>0.3</v>
+      </c>
+      <c r="U31">
+        <v>0.35</v>
+      </c>
+      <c r="V31">
+        <v>0.4</v>
+      </c>
+      <c r="W31">
+        <v>0.45</v>
+      </c>
+      <c r="X31">
+        <v>0.5</v>
+      </c>
+      <c r="Y31">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Z31">
+        <v>0.6</v>
+      </c>
+      <c r="AA31">
+        <v>0.6</v>
+      </c>
+      <c r="AB31">
+        <v>0.6</v>
+      </c>
+      <c r="AC31">
+        <v>0.6</v>
+      </c>
+      <c r="AD31">
+        <v>0.6</v>
+      </c>
+      <c r="AE31">
+        <v>0.6</v>
+      </c>
+      <c r="AF31">
+        <v>0.6</v>
+      </c>
+      <c r="AG31">
+        <v>0.6</v>
+      </c>
+      <c r="AH31">
+        <v>0.6</v>
+      </c>
+      <c r="AI31">
+        <v>0.6</v>
+      </c>
+      <c r="AJ31">
+        <v>0.6</v>
+      </c>
+      <c r="AK31">
+        <v>0.6</v>
+      </c>
+      <c r="AL31">
+        <v>0.6</v>
+      </c>
+      <c r="AM31">
+        <v>0.6</v>
+      </c>
+      <c r="AN31">
+        <v>0.6</v>
+      </c>
+      <c r="AO31">
+        <v>0.6</v>
+      </c>
+      <c r="AP31">
+        <v>0.6</v>
+      </c>
+      <c r="AQ31">
+        <v>0.6</v>
+      </c>
+      <c r="AR31">
+        <v>0.6</v>
+      </c>
+      <c r="AS31">
+        <v>0.6</v>
+      </c>
+      <c r="AT31">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>10</v>
+      </c>
+      <c r="B32">
+        <v>9</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>314</v>
+      </c>
+      <c r="E32" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32">
+        <v>0.3</v>
+      </c>
+      <c r="G32">
+        <v>0.3</v>
+      </c>
+      <c r="H32">
+        <v>0.3</v>
+      </c>
+      <c r="I32">
+        <v>0.3</v>
+      </c>
+      <c r="J32">
+        <v>0.3</v>
+      </c>
+      <c r="K32">
+        <v>0.3</v>
+      </c>
+      <c r="L32">
+        <v>0.3</v>
+      </c>
+      <c r="M32">
+        <v>0.3</v>
+      </c>
+      <c r="N32">
+        <v>0.3</v>
+      </c>
+      <c r="O32">
+        <v>0.3</v>
+      </c>
+      <c r="P32">
+        <v>0.3</v>
+      </c>
+      <c r="Q32">
+        <v>0.3</v>
+      </c>
+      <c r="R32">
+        <v>0.3</v>
+      </c>
+      <c r="S32">
+        <v>0.3</v>
+      </c>
+      <c r="T32">
+        <v>0.3</v>
+      </c>
+      <c r="U32">
+        <v>0.35</v>
+      </c>
+      <c r="V32">
+        <v>0.4</v>
+      </c>
+      <c r="W32">
+        <v>0.45</v>
+      </c>
+      <c r="X32">
+        <v>0.5</v>
+      </c>
+      <c r="Y32">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Z32">
+        <v>0.6</v>
+      </c>
+      <c r="AA32">
+        <v>0.6</v>
+      </c>
+      <c r="AB32">
+        <v>0.6</v>
+      </c>
+      <c r="AC32">
+        <v>0.6</v>
+      </c>
+      <c r="AD32">
+        <v>0.6</v>
+      </c>
+      <c r="AE32">
+        <v>0.6</v>
+      </c>
+      <c r="AF32">
+        <v>0.6</v>
+      </c>
+      <c r="AG32">
+        <v>0.6</v>
+      </c>
+      <c r="AH32">
+        <v>0.6</v>
+      </c>
+      <c r="AI32">
+        <v>0.6</v>
+      </c>
+      <c r="AJ32">
+        <v>0.6</v>
+      </c>
+      <c r="AK32">
+        <v>0.6</v>
+      </c>
+      <c r="AL32">
+        <v>0.6</v>
+      </c>
+      <c r="AM32">
+        <v>0.6</v>
+      </c>
+      <c r="AN32">
+        <v>0.6</v>
+      </c>
+      <c r="AO32">
+        <v>0.6</v>
+      </c>
+      <c r="AP32">
+        <v>0.6</v>
+      </c>
+      <c r="AQ32">
+        <v>0.6</v>
+      </c>
+      <c r="AR32">
+        <v>0.6</v>
+      </c>
+      <c r="AS32">
+        <v>0.6</v>
+      </c>
+      <c r="AT32">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>10</v>
+      </c>
+      <c r="B33">
+        <v>9</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>315</v>
+      </c>
+      <c r="E33" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33">
+        <v>0.3</v>
+      </c>
+      <c r="G33">
+        <v>0.3</v>
+      </c>
+      <c r="H33">
+        <v>0.3</v>
+      </c>
+      <c r="I33">
+        <v>0.3</v>
+      </c>
+      <c r="J33">
+        <v>0.3</v>
+      </c>
+      <c r="K33">
+        <v>0.3</v>
+      </c>
+      <c r="L33">
+        <v>0.3</v>
+      </c>
+      <c r="M33">
+        <v>0.3</v>
+      </c>
+      <c r="N33">
+        <v>0.3</v>
+      </c>
+      <c r="O33">
+        <v>0.3</v>
+      </c>
+      <c r="P33">
+        <v>0.3</v>
+      </c>
+      <c r="Q33">
+        <v>0.3</v>
+      </c>
+      <c r="R33">
+        <v>0.3</v>
+      </c>
+      <c r="S33">
+        <v>0.3</v>
+      </c>
+      <c r="T33">
+        <v>0.3</v>
+      </c>
+      <c r="U33">
+        <v>0.35</v>
+      </c>
+      <c r="V33">
+        <v>0.4</v>
+      </c>
+      <c r="W33">
+        <v>0.45</v>
+      </c>
+      <c r="X33">
+        <v>0.5</v>
+      </c>
+      <c r="Y33">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Z33">
+        <v>0.6</v>
+      </c>
+      <c r="AA33">
+        <v>0.6</v>
+      </c>
+      <c r="AB33">
+        <v>0.6</v>
+      </c>
+      <c r="AC33">
+        <v>0.6</v>
+      </c>
+      <c r="AD33">
+        <v>0.6</v>
+      </c>
+      <c r="AE33">
+        <v>0.6</v>
+      </c>
+      <c r="AF33">
+        <v>0.6</v>
+      </c>
+      <c r="AG33">
+        <v>0.6</v>
+      </c>
+      <c r="AH33">
+        <v>0.6</v>
+      </c>
+      <c r="AI33">
+        <v>0.6</v>
+      </c>
+      <c r="AJ33">
+        <v>0.6</v>
+      </c>
+      <c r="AK33">
+        <v>0.6</v>
+      </c>
+      <c r="AL33">
+        <v>0.6</v>
+      </c>
+      <c r="AM33">
+        <v>0.6</v>
+      </c>
+      <c r="AN33">
+        <v>0.6</v>
+      </c>
+      <c r="AO33">
+        <v>0.6</v>
+      </c>
+      <c r="AP33">
+        <v>0.6</v>
+      </c>
+      <c r="AQ33">
+        <v>0.6</v>
+      </c>
+      <c r="AR33">
+        <v>0.6</v>
+      </c>
+      <c r="AS33">
+        <v>0.6</v>
+      </c>
+      <c r="AT33">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>10</v>
+      </c>
+      <c r="B34">
+        <v>9</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>316</v>
+      </c>
+      <c r="E34" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34">
+        <v>0.3</v>
+      </c>
+      <c r="G34">
+        <v>0.3</v>
+      </c>
+      <c r="H34">
+        <v>0.3</v>
+      </c>
+      <c r="I34">
+        <v>0.3</v>
+      </c>
+      <c r="J34">
+        <v>0.3</v>
+      </c>
+      <c r="K34">
+        <v>0.3</v>
+      </c>
+      <c r="L34">
+        <v>0.3</v>
+      </c>
+      <c r="M34">
+        <v>0.3</v>
+      </c>
+      <c r="N34">
+        <v>0.3</v>
+      </c>
+      <c r="O34">
+        <v>0.3</v>
+      </c>
+      <c r="P34">
+        <v>0.3</v>
+      </c>
+      <c r="Q34">
+        <v>0.3</v>
+      </c>
+      <c r="R34">
+        <v>0.3</v>
+      </c>
+      <c r="S34">
+        <v>0.3</v>
+      </c>
+      <c r="T34">
+        <v>0.3</v>
+      </c>
+      <c r="U34">
+        <v>0.35</v>
+      </c>
+      <c r="V34">
+        <v>0.4</v>
+      </c>
+      <c r="W34">
+        <v>0.45</v>
+      </c>
+      <c r="X34">
+        <v>0.5</v>
+      </c>
+      <c r="Y34">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Z34">
+        <v>0.6</v>
+      </c>
+      <c r="AA34">
+        <v>0.6</v>
+      </c>
+      <c r="AB34">
+        <v>0.6</v>
+      </c>
+      <c r="AC34">
+        <v>0.6</v>
+      </c>
+      <c r="AD34">
+        <v>0.6</v>
+      </c>
+      <c r="AE34">
+        <v>0.6</v>
+      </c>
+      <c r="AF34">
+        <v>0.6</v>
+      </c>
+      <c r="AG34">
+        <v>0.6</v>
+      </c>
+      <c r="AH34">
+        <v>0.6</v>
+      </c>
+      <c r="AI34">
+        <v>0.6</v>
+      </c>
+      <c r="AJ34">
+        <v>0.6</v>
+      </c>
+      <c r="AK34">
+        <v>0.6</v>
+      </c>
+      <c r="AL34">
+        <v>0.6</v>
+      </c>
+      <c r="AM34">
+        <v>0.6</v>
+      </c>
+      <c r="AN34">
+        <v>0.6</v>
+      </c>
+      <c r="AO34">
+        <v>0.6</v>
+      </c>
+      <c r="AP34">
+        <v>0.6</v>
+      </c>
+      <c r="AQ34">
+        <v>0.6</v>
+      </c>
+      <c r="AR34">
+        <v>0.6</v>
+      </c>
+      <c r="AS34">
+        <v>0.6</v>
+      </c>
+      <c r="AT34">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>10</v>
+      </c>
+      <c r="B35">
+        <v>9</v>
+      </c>
+      <c r="C35">
+        <v>6</v>
+      </c>
+      <c r="D35">
+        <v>61</v>
+      </c>
+      <c r="E35" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35">
+        <v>0.3</v>
+      </c>
+      <c r="G35">
+        <v>0.3</v>
+      </c>
+      <c r="H35">
+        <v>0.3</v>
+      </c>
+      <c r="I35">
+        <v>0.3</v>
+      </c>
+      <c r="J35">
+        <v>0.3</v>
+      </c>
+      <c r="K35">
+        <v>0.3</v>
+      </c>
+      <c r="L35">
+        <v>0.3</v>
+      </c>
+      <c r="M35">
+        <v>0.3</v>
+      </c>
+      <c r="N35">
+        <v>0.3</v>
+      </c>
+      <c r="O35">
+        <v>0.3</v>
+      </c>
+      <c r="P35">
+        <v>0.3</v>
+      </c>
+      <c r="Q35">
+        <v>0.3</v>
+      </c>
+      <c r="R35">
+        <v>0.3</v>
+      </c>
+      <c r="S35">
+        <v>0.3</v>
+      </c>
+      <c r="T35">
+        <v>0.3</v>
+      </c>
+      <c r="U35">
+        <v>0.35</v>
+      </c>
+      <c r="V35">
+        <v>0.4</v>
+      </c>
+      <c r="W35">
+        <v>0.45</v>
+      </c>
+      <c r="X35">
+        <v>0.5</v>
+      </c>
+      <c r="Y35">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Z35">
+        <v>0.6</v>
+      </c>
+      <c r="AA35">
+        <v>0.6</v>
+      </c>
+      <c r="AB35">
+        <v>0.6</v>
+      </c>
+      <c r="AC35">
+        <v>0.6</v>
+      </c>
+      <c r="AD35">
+        <v>0.6</v>
+      </c>
+      <c r="AE35">
+        <v>0.6</v>
+      </c>
+      <c r="AF35">
+        <v>0.6</v>
+      </c>
+      <c r="AG35">
+        <v>0.6</v>
+      </c>
+      <c r="AH35">
+        <v>0.6</v>
+      </c>
+      <c r="AI35">
+        <v>0.6</v>
+      </c>
+      <c r="AJ35">
+        <v>0.6</v>
+      </c>
+      <c r="AK35">
+        <v>0.6</v>
+      </c>
+      <c r="AL35">
+        <v>0.6</v>
+      </c>
+      <c r="AM35">
+        <v>0.6</v>
+      </c>
+      <c r="AN35">
+        <v>0.6</v>
+      </c>
+      <c r="AO35">
+        <v>0.6</v>
+      </c>
+      <c r="AP35">
+        <v>0.6</v>
+      </c>
+      <c r="AQ35">
+        <v>0.6</v>
+      </c>
+      <c r="AR35">
+        <v>0.6</v>
+      </c>
+      <c r="AS35">
+        <v>0.6</v>
+      </c>
+      <c r="AT35">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>20</v>
+      </c>
+      <c r="B36">
+        <v>9</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>31</v>
+      </c>
+      <c r="E36" t="s">
+        <v>45</v>
+      </c>
+      <c r="F36">
+        <v>0.3</v>
+      </c>
+      <c r="G36">
+        <v>0.3</v>
+      </c>
+      <c r="H36">
+        <v>0.3</v>
+      </c>
+      <c r="I36">
+        <v>0.3</v>
+      </c>
+      <c r="J36">
+        <v>0.3</v>
+      </c>
+      <c r="K36">
+        <v>0.3</v>
+      </c>
+      <c r="L36">
+        <v>0.3</v>
+      </c>
+      <c r="M36">
+        <v>0.3</v>
+      </c>
+      <c r="N36">
+        <v>0.3</v>
+      </c>
+      <c r="O36">
+        <v>0.3</v>
+      </c>
+      <c r="P36">
+        <v>0.3</v>
+      </c>
+      <c r="Q36">
+        <v>0.3</v>
+      </c>
+      <c r="R36">
+        <v>0.3</v>
+      </c>
+      <c r="S36">
+        <v>0.3</v>
+      </c>
+      <c r="T36">
+        <v>0.3</v>
+      </c>
+      <c r="U36">
+        <v>0.3</v>
+      </c>
+      <c r="V36">
+        <v>0.32</v>
+      </c>
+      <c r="W36">
+        <v>0.34</v>
+      </c>
+      <c r="X36">
+        <v>0.36</v>
+      </c>
+      <c r="Y36">
+        <v>0.38</v>
+      </c>
+      <c r="Z36">
+        <v>0.4</v>
+      </c>
+      <c r="AA36">
+        <v>0.4</v>
+      </c>
+      <c r="AB36">
+        <v>0.4</v>
+      </c>
+      <c r="AC36">
+        <v>0.4</v>
+      </c>
+      <c r="AD36">
+        <v>0.4</v>
+      </c>
+      <c r="AE36">
+        <v>0.4</v>
+      </c>
+      <c r="AF36">
+        <v>0.4</v>
+      </c>
+      <c r="AG36">
+        <v>0.4</v>
+      </c>
+      <c r="AH36">
+        <v>0.4</v>
+      </c>
+      <c r="AI36">
+        <v>0.4</v>
+      </c>
+      <c r="AJ36">
+        <v>0.4</v>
+      </c>
+      <c r="AK36">
+        <v>0.4</v>
+      </c>
+      <c r="AL36">
+        <v>0.4</v>
+      </c>
+      <c r="AM36">
+        <v>0.4</v>
+      </c>
+      <c r="AN36">
+        <v>0.4</v>
+      </c>
+      <c r="AO36">
+        <v>0.4</v>
+      </c>
+      <c r="AP36">
+        <v>0.4</v>
+      </c>
+      <c r="AQ36">
+        <v>0.4</v>
+      </c>
+      <c r="AR36">
+        <v>0.4</v>
+      </c>
+      <c r="AS36">
+        <v>0.4</v>
+      </c>
+      <c r="AT36">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>20</v>
+      </c>
+      <c r="B37">
+        <v>9</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37">
+        <v>32</v>
+      </c>
+      <c r="E37" t="s">
+        <v>45</v>
+      </c>
+      <c r="F37">
+        <v>0.3</v>
+      </c>
+      <c r="G37">
+        <v>0.3</v>
+      </c>
+      <c r="H37">
+        <v>0.3</v>
+      </c>
+      <c r="I37">
+        <v>0.3</v>
+      </c>
+      <c r="J37">
+        <v>0.3</v>
+      </c>
+      <c r="K37">
+        <v>0.3</v>
+      </c>
+      <c r="L37">
+        <v>0.3</v>
+      </c>
+      <c r="M37">
+        <v>0.3</v>
+      </c>
+      <c r="N37">
+        <v>0.3</v>
+      </c>
+      <c r="O37">
+        <v>0.3</v>
+      </c>
+      <c r="P37">
+        <v>0.3</v>
+      </c>
+      <c r="Q37">
+        <v>0.3</v>
+      </c>
+      <c r="R37">
+        <v>0.3</v>
+      </c>
+      <c r="S37">
+        <v>0.3</v>
+      </c>
+      <c r="T37">
+        <v>0.3</v>
+      </c>
+      <c r="U37">
+        <v>0.3</v>
+      </c>
+      <c r="V37">
+        <v>0.32</v>
+      </c>
+      <c r="W37">
+        <v>0.34</v>
+      </c>
+      <c r="X37">
+        <v>0.36</v>
+      </c>
+      <c r="Y37">
+        <v>0.38</v>
+      </c>
+      <c r="Z37">
+        <v>0.4</v>
+      </c>
+      <c r="AA37">
+        <v>0.4</v>
+      </c>
+      <c r="AB37">
+        <v>0.4</v>
+      </c>
+      <c r="AC37">
+        <v>0.4</v>
+      </c>
+      <c r="AD37">
+        <v>0.4</v>
+      </c>
+      <c r="AE37">
+        <v>0.4</v>
+      </c>
+      <c r="AF37">
+        <v>0.4</v>
+      </c>
+      <c r="AG37">
+        <v>0.4</v>
+      </c>
+      <c r="AH37">
+        <v>0.4</v>
+      </c>
+      <c r="AI37">
+        <v>0.4</v>
+      </c>
+      <c r="AJ37">
+        <v>0.4</v>
+      </c>
+      <c r="AK37">
+        <v>0.4</v>
+      </c>
+      <c r="AL37">
+        <v>0.4</v>
+      </c>
+      <c r="AM37">
+        <v>0.4</v>
+      </c>
+      <c r="AN37">
+        <v>0.4</v>
+      </c>
+      <c r="AO37">
+        <v>0.4</v>
+      </c>
+      <c r="AP37">
+        <v>0.4</v>
+      </c>
+      <c r="AQ37">
+        <v>0.4</v>
+      </c>
+      <c r="AR37">
+        <v>0.4</v>
+      </c>
+      <c r="AS37">
+        <v>0.4</v>
+      </c>
+      <c r="AT37">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>20</v>
+      </c>
+      <c r="B38">
+        <v>9</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38">
+        <v>33</v>
+      </c>
+      <c r="E38" t="s">
+        <v>45</v>
+      </c>
+      <c r="F38">
+        <v>0.3</v>
+      </c>
+      <c r="G38">
+        <v>0.3</v>
+      </c>
+      <c r="H38">
+        <v>0.3</v>
+      </c>
+      <c r="I38">
+        <v>0.3</v>
+      </c>
+      <c r="J38">
+        <v>0.3</v>
+      </c>
+      <c r="K38">
+        <v>0.3</v>
+      </c>
+      <c r="L38">
+        <v>0.3</v>
+      </c>
+      <c r="M38">
+        <v>0.3</v>
+      </c>
+      <c r="N38">
+        <v>0.3</v>
+      </c>
+      <c r="O38">
+        <v>0.3</v>
+      </c>
+      <c r="P38">
+        <v>0.3</v>
+      </c>
+      <c r="Q38">
+        <v>0.3</v>
+      </c>
+      <c r="R38">
+        <v>0.3</v>
+      </c>
+      <c r="S38">
+        <v>0.3</v>
+      </c>
+      <c r="T38">
+        <v>0.3</v>
+      </c>
+      <c r="U38">
+        <v>0.3</v>
+      </c>
+      <c r="V38">
+        <v>0.32</v>
+      </c>
+      <c r="W38">
+        <v>0.34</v>
+      </c>
+      <c r="X38">
+        <v>0.36</v>
+      </c>
+      <c r="Y38">
+        <v>0.38</v>
+      </c>
+      <c r="Z38">
+        <v>0.4</v>
+      </c>
+      <c r="AA38">
+        <v>0.4</v>
+      </c>
+      <c r="AB38">
+        <v>0.4</v>
+      </c>
+      <c r="AC38">
+        <v>0.4</v>
+      </c>
+      <c r="AD38">
+        <v>0.4</v>
+      </c>
+      <c r="AE38">
+        <v>0.4</v>
+      </c>
+      <c r="AF38">
+        <v>0.4</v>
+      </c>
+      <c r="AG38">
+        <v>0.4</v>
+      </c>
+      <c r="AH38">
+        <v>0.4</v>
+      </c>
+      <c r="AI38">
+        <v>0.4</v>
+      </c>
+      <c r="AJ38">
+        <v>0.4</v>
+      </c>
+      <c r="AK38">
+        <v>0.4</v>
+      </c>
+      <c r="AL38">
+        <v>0.4</v>
+      </c>
+      <c r="AM38">
+        <v>0.4</v>
+      </c>
+      <c r="AN38">
+        <v>0.4</v>
+      </c>
+      <c r="AO38">
+        <v>0.4</v>
+      </c>
+      <c r="AP38">
+        <v>0.4</v>
+      </c>
+      <c r="AQ38">
+        <v>0.4</v>
+      </c>
+      <c r="AR38">
+        <v>0.4</v>
+      </c>
+      <c r="AS38">
+        <v>0.4</v>
+      </c>
+      <c r="AT38">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>20</v>
+      </c>
+      <c r="B39">
+        <v>9</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39">
+        <v>34</v>
+      </c>
+      <c r="E39" t="s">
+        <v>45</v>
+      </c>
+      <c r="F39">
+        <v>0.3</v>
+      </c>
+      <c r="G39">
+        <v>0.3</v>
+      </c>
+      <c r="H39">
+        <v>0.3</v>
+      </c>
+      <c r="I39">
+        <v>0.3</v>
+      </c>
+      <c r="J39">
+        <v>0.3</v>
+      </c>
+      <c r="K39">
+        <v>0.3</v>
+      </c>
+      <c r="L39">
+        <v>0.3</v>
+      </c>
+      <c r="M39">
+        <v>0.3</v>
+      </c>
+      <c r="N39">
+        <v>0.3</v>
+      </c>
+      <c r="O39">
+        <v>0.3</v>
+      </c>
+      <c r="P39">
+        <v>0.3</v>
+      </c>
+      <c r="Q39">
+        <v>0.3</v>
+      </c>
+      <c r="R39">
+        <v>0.3</v>
+      </c>
+      <c r="S39">
+        <v>0.3</v>
+      </c>
+      <c r="T39">
+        <v>0.3</v>
+      </c>
+      <c r="U39">
+        <v>0.3</v>
+      </c>
+      <c r="V39">
+        <v>0.32</v>
+      </c>
+      <c r="W39">
+        <v>0.34</v>
+      </c>
+      <c r="X39">
+        <v>0.36</v>
+      </c>
+      <c r="Y39">
+        <v>0.38</v>
+      </c>
+      <c r="Z39">
+        <v>0.4</v>
+      </c>
+      <c r="AA39">
+        <v>0.4</v>
+      </c>
+      <c r="AB39">
+        <v>0.4</v>
+      </c>
+      <c r="AC39">
+        <v>0.4</v>
+      </c>
+      <c r="AD39">
+        <v>0.4</v>
+      </c>
+      <c r="AE39">
+        <v>0.4</v>
+      </c>
+      <c r="AF39">
+        <v>0.4</v>
+      </c>
+      <c r="AG39">
+        <v>0.4</v>
+      </c>
+      <c r="AH39">
+        <v>0.4</v>
+      </c>
+      <c r="AI39">
+        <v>0.4</v>
+      </c>
+      <c r="AJ39">
+        <v>0.4</v>
+      </c>
+      <c r="AK39">
+        <v>0.4</v>
+      </c>
+      <c r="AL39">
+        <v>0.4</v>
+      </c>
+      <c r="AM39">
+        <v>0.4</v>
+      </c>
+      <c r="AN39">
+        <v>0.4</v>
+      </c>
+      <c r="AO39">
+        <v>0.4</v>
+      </c>
+      <c r="AP39">
+        <v>0.4</v>
+      </c>
+      <c r="AQ39">
+        <v>0.4</v>
+      </c>
+      <c r="AR39">
+        <v>0.4</v>
+      </c>
+      <c r="AS39">
+        <v>0.4</v>
+      </c>
+      <c r="AT39">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>20</v>
+      </c>
+      <c r="B40">
+        <v>9</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>35</v>
+      </c>
+      <c r="E40" t="s">
+        <v>45</v>
+      </c>
+      <c r="F40">
+        <v>0.3</v>
+      </c>
+      <c r="G40">
+        <v>0.3</v>
+      </c>
+      <c r="H40">
+        <v>0.3</v>
+      </c>
+      <c r="I40">
+        <v>0.3</v>
+      </c>
+      <c r="J40">
+        <v>0.3</v>
+      </c>
+      <c r="K40">
+        <v>0.3</v>
+      </c>
+      <c r="L40">
+        <v>0.3</v>
+      </c>
+      <c r="M40">
+        <v>0.3</v>
+      </c>
+      <c r="N40">
+        <v>0.3</v>
+      </c>
+      <c r="O40">
+        <v>0.3</v>
+      </c>
+      <c r="P40">
+        <v>0.3</v>
+      </c>
+      <c r="Q40">
+        <v>0.3</v>
+      </c>
+      <c r="R40">
+        <v>0.3</v>
+      </c>
+      <c r="S40">
+        <v>0.3</v>
+      </c>
+      <c r="T40">
+        <v>0.3</v>
+      </c>
+      <c r="U40">
+        <v>0.3</v>
+      </c>
+      <c r="V40">
+        <v>0.32</v>
+      </c>
+      <c r="W40">
+        <v>0.34</v>
+      </c>
+      <c r="X40">
+        <v>0.36</v>
+      </c>
+      <c r="Y40">
+        <v>0.38</v>
+      </c>
+      <c r="Z40">
+        <v>0.4</v>
+      </c>
+      <c r="AA40">
+        <v>0.4</v>
+      </c>
+      <c r="AB40">
+        <v>0.4</v>
+      </c>
+      <c r="AC40">
+        <v>0.4</v>
+      </c>
+      <c r="AD40">
+        <v>0.4</v>
+      </c>
+      <c r="AE40">
+        <v>0.4</v>
+      </c>
+      <c r="AF40">
+        <v>0.4</v>
+      </c>
+      <c r="AG40">
+        <v>0.4</v>
+      </c>
+      <c r="AH40">
+        <v>0.4</v>
+      </c>
+      <c r="AI40">
+        <v>0.4</v>
+      </c>
+      <c r="AJ40">
+        <v>0.4</v>
+      </c>
+      <c r="AK40">
+        <v>0.4</v>
+      </c>
+      <c r="AL40">
+        <v>0.4</v>
+      </c>
+      <c r="AM40">
+        <v>0.4</v>
+      </c>
+      <c r="AN40">
+        <v>0.4</v>
+      </c>
+      <c r="AO40">
+        <v>0.4</v>
+      </c>
+      <c r="AP40">
+        <v>0.4</v>
+      </c>
+      <c r="AQ40">
+        <v>0.4</v>
+      </c>
+      <c r="AR40">
+        <v>0.4</v>
+      </c>
+      <c r="AS40">
+        <v>0.4</v>
+      </c>
+      <c r="AT40">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>20</v>
+      </c>
+      <c r="B41">
+        <v>9</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41">
+        <v>36</v>
+      </c>
+      <c r="E41" t="s">
+        <v>45</v>
+      </c>
+      <c r="F41">
+        <v>0.3</v>
+      </c>
+      <c r="G41">
+        <v>0.3</v>
+      </c>
+      <c r="H41">
+        <v>0.3</v>
+      </c>
+      <c r="I41">
+        <v>0.3</v>
+      </c>
+      <c r="J41">
+        <v>0.3</v>
+      </c>
+      <c r="K41">
+        <v>0.3</v>
+      </c>
+      <c r="L41">
+        <v>0.3</v>
+      </c>
+      <c r="M41">
+        <v>0.3</v>
+      </c>
+      <c r="N41">
+        <v>0.3</v>
+      </c>
+      <c r="O41">
+        <v>0.3</v>
+      </c>
+      <c r="P41">
+        <v>0.3</v>
+      </c>
+      <c r="Q41">
+        <v>0.3</v>
+      </c>
+      <c r="R41">
+        <v>0.3</v>
+      </c>
+      <c r="S41">
+        <v>0.3</v>
+      </c>
+      <c r="T41">
+        <v>0.3</v>
+      </c>
+      <c r="U41">
+        <v>0.3</v>
+      </c>
+      <c r="V41">
+        <v>0.32</v>
+      </c>
+      <c r="W41">
+        <v>0.34</v>
+      </c>
+      <c r="X41">
+        <v>0.36</v>
+      </c>
+      <c r="Y41">
+        <v>0.38</v>
+      </c>
+      <c r="Z41">
+        <v>0.4</v>
+      </c>
+      <c r="AA41">
+        <v>0.4</v>
+      </c>
+      <c r="AB41">
+        <v>0.4</v>
+      </c>
+      <c r="AC41">
+        <v>0.4</v>
+      </c>
+      <c r="AD41">
+        <v>0.4</v>
+      </c>
+      <c r="AE41">
+        <v>0.4</v>
+      </c>
+      <c r="AF41">
+        <v>0.4</v>
+      </c>
+      <c r="AG41">
+        <v>0.4</v>
+      </c>
+      <c r="AH41">
+        <v>0.4</v>
+      </c>
+      <c r="AI41">
+        <v>0.4</v>
+      </c>
+      <c r="AJ41">
+        <v>0.4</v>
+      </c>
+      <c r="AK41">
+        <v>0.4</v>
+      </c>
+      <c r="AL41">
+        <v>0.4</v>
+      </c>
+      <c r="AM41">
+        <v>0.4</v>
+      </c>
+      <c r="AN41">
+        <v>0.4</v>
+      </c>
+      <c r="AO41">
+        <v>0.4</v>
+      </c>
+      <c r="AP41">
+        <v>0.4</v>
+      </c>
+      <c r="AQ41">
+        <v>0.4</v>
+      </c>
+      <c r="AR41">
+        <v>0.4</v>
+      </c>
+      <c r="AS41">
+        <v>0.4</v>
+      </c>
+      <c r="AT41">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>20</v>
+      </c>
+      <c r="B42">
+        <v>9</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42">
+        <v>37</v>
+      </c>
+      <c r="E42" t="s">
+        <v>45</v>
+      </c>
+      <c r="F42">
+        <v>0.3</v>
+      </c>
+      <c r="G42">
+        <v>0.3</v>
+      </c>
+      <c r="H42">
+        <v>0.3</v>
+      </c>
+      <c r="I42">
+        <v>0.3</v>
+      </c>
+      <c r="J42">
+        <v>0.3</v>
+      </c>
+      <c r="K42">
+        <v>0.3</v>
+      </c>
+      <c r="L42">
+        <v>0.3</v>
+      </c>
+      <c r="M42">
+        <v>0.3</v>
+      </c>
+      <c r="N42">
+        <v>0.3</v>
+      </c>
+      <c r="O42">
+        <v>0.3</v>
+      </c>
+      <c r="P42">
+        <v>0.3</v>
+      </c>
+      <c r="Q42">
+        <v>0.3</v>
+      </c>
+      <c r="R42">
+        <v>0.3</v>
+      </c>
+      <c r="S42">
+        <v>0.3</v>
+      </c>
+      <c r="T42">
+        <v>0.3</v>
+      </c>
+      <c r="U42">
+        <v>0.3</v>
+      </c>
+      <c r="V42">
+        <v>0.32</v>
+      </c>
+      <c r="W42">
+        <v>0.34</v>
+      </c>
+      <c r="X42">
+        <v>0.36</v>
+      </c>
+      <c r="Y42">
+        <v>0.38</v>
+      </c>
+      <c r="Z42">
+        <v>0.4</v>
+      </c>
+      <c r="AA42">
+        <v>0.4</v>
+      </c>
+      <c r="AB42">
+        <v>0.4</v>
+      </c>
+      <c r="AC42">
+        <v>0.4</v>
+      </c>
+      <c r="AD42">
+        <v>0.4</v>
+      </c>
+      <c r="AE42">
+        <v>0.4</v>
+      </c>
+      <c r="AF42">
+        <v>0.4</v>
+      </c>
+      <c r="AG42">
+        <v>0.4</v>
+      </c>
+      <c r="AH42">
+        <v>0.4</v>
+      </c>
+      <c r="AI42">
+        <v>0.4</v>
+      </c>
+      <c r="AJ42">
+        <v>0.4</v>
+      </c>
+      <c r="AK42">
+        <v>0.4</v>
+      </c>
+      <c r="AL42">
+        <v>0.4</v>
+      </c>
+      <c r="AM42">
+        <v>0.4</v>
+      </c>
+      <c r="AN42">
+        <v>0.4</v>
+      </c>
+      <c r="AO42">
+        <v>0.4</v>
+      </c>
+      <c r="AP42">
+        <v>0.4</v>
+      </c>
+      <c r="AQ42">
+        <v>0.4</v>
+      </c>
+      <c r="AR42">
+        <v>0.4</v>
+      </c>
+      <c r="AS42">
+        <v>0.4</v>
+      </c>
+      <c r="AT42">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>20</v>
+      </c>
+      <c r="B43">
+        <v>9</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43">
+        <v>38</v>
+      </c>
+      <c r="E43" t="s">
+        <v>45</v>
+      </c>
+      <c r="F43">
+        <v>0.3</v>
+      </c>
+      <c r="G43">
+        <v>0.3</v>
+      </c>
+      <c r="H43">
+        <v>0.3</v>
+      </c>
+      <c r="I43">
+        <v>0.3</v>
+      </c>
+      <c r="J43">
+        <v>0.3</v>
+      </c>
+      <c r="K43">
+        <v>0.3</v>
+      </c>
+      <c r="L43">
+        <v>0.3</v>
+      </c>
+      <c r="M43">
+        <v>0.3</v>
+      </c>
+      <c r="N43">
+        <v>0.3</v>
+      </c>
+      <c r="O43">
+        <v>0.3</v>
+      </c>
+      <c r="P43">
+        <v>0.3</v>
+      </c>
+      <c r="Q43">
+        <v>0.3</v>
+      </c>
+      <c r="R43">
+        <v>0.3</v>
+      </c>
+      <c r="S43">
+        <v>0.3</v>
+      </c>
+      <c r="T43">
+        <v>0.3</v>
+      </c>
+      <c r="U43">
+        <v>0.3</v>
+      </c>
+      <c r="V43">
+        <v>0.32</v>
+      </c>
+      <c r="W43">
+        <v>0.34</v>
+      </c>
+      <c r="X43">
+        <v>0.36</v>
+      </c>
+      <c r="Y43">
+        <v>0.38</v>
+      </c>
+      <c r="Z43">
+        <v>0.4</v>
+      </c>
+      <c r="AA43">
+        <v>0.4</v>
+      </c>
+      <c r="AB43">
+        <v>0.4</v>
+      </c>
+      <c r="AC43">
+        <v>0.4</v>
+      </c>
+      <c r="AD43">
+        <v>0.4</v>
+      </c>
+      <c r="AE43">
+        <v>0.4</v>
+      </c>
+      <c r="AF43">
+        <v>0.4</v>
+      </c>
+      <c r="AG43">
+        <v>0.4</v>
+      </c>
+      <c r="AH43">
+        <v>0.4</v>
+      </c>
+      <c r="AI43">
+        <v>0.4</v>
+      </c>
+      <c r="AJ43">
+        <v>0.4</v>
+      </c>
+      <c r="AK43">
+        <v>0.4</v>
+      </c>
+      <c r="AL43">
+        <v>0.4</v>
+      </c>
+      <c r="AM43">
+        <v>0.4</v>
+      </c>
+      <c r="AN43">
+        <v>0.4</v>
+      </c>
+      <c r="AO43">
+        <v>0.4</v>
+      </c>
+      <c r="AP43">
+        <v>0.4</v>
+      </c>
+      <c r="AQ43">
+        <v>0.4</v>
+      </c>
+      <c r="AR43">
+        <v>0.4</v>
+      </c>
+      <c r="AS43">
+        <v>0.4</v>
+      </c>
+      <c r="AT43">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>20</v>
+      </c>
+      <c r="B44">
+        <v>9</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44">
+        <v>39</v>
+      </c>
+      <c r="E44" t="s">
+        <v>45</v>
+      </c>
+      <c r="F44">
+        <v>0.3</v>
+      </c>
+      <c r="G44">
+        <v>0.3</v>
+      </c>
+      <c r="H44">
+        <v>0.3</v>
+      </c>
+      <c r="I44">
+        <v>0.3</v>
+      </c>
+      <c r="J44">
+        <v>0.3</v>
+      </c>
+      <c r="K44">
+        <v>0.3</v>
+      </c>
+      <c r="L44">
+        <v>0.3</v>
+      </c>
+      <c r="M44">
+        <v>0.3</v>
+      </c>
+      <c r="N44">
+        <v>0.3</v>
+      </c>
+      <c r="O44">
+        <v>0.3</v>
+      </c>
+      <c r="P44">
+        <v>0.3</v>
+      </c>
+      <c r="Q44">
+        <v>0.3</v>
+      </c>
+      <c r="R44">
+        <v>0.3</v>
+      </c>
+      <c r="S44">
+        <v>0.3</v>
+      </c>
+      <c r="T44">
+        <v>0.3</v>
+      </c>
+      <c r="U44">
+        <v>0.3</v>
+      </c>
+      <c r="V44">
+        <v>0.32</v>
+      </c>
+      <c r="W44">
+        <v>0.34</v>
+      </c>
+      <c r="X44">
+        <v>0.36</v>
+      </c>
+      <c r="Y44">
+        <v>0.38</v>
+      </c>
+      <c r="Z44">
+        <v>0.4</v>
+      </c>
+      <c r="AA44">
+        <v>0.4</v>
+      </c>
+      <c r="AB44">
+        <v>0.4</v>
+      </c>
+      <c r="AC44">
+        <v>0.4</v>
+      </c>
+      <c r="AD44">
+        <v>0.4</v>
+      </c>
+      <c r="AE44">
+        <v>0.4</v>
+      </c>
+      <c r="AF44">
+        <v>0.4</v>
+      </c>
+      <c r="AG44">
+        <v>0.4</v>
+      </c>
+      <c r="AH44">
+        <v>0.4</v>
+      </c>
+      <c r="AI44">
+        <v>0.4</v>
+      </c>
+      <c r="AJ44">
+        <v>0.4</v>
+      </c>
+      <c r="AK44">
+        <v>0.4</v>
+      </c>
+      <c r="AL44">
+        <v>0.4</v>
+      </c>
+      <c r="AM44">
+        <v>0.4</v>
+      </c>
+      <c r="AN44">
+        <v>0.4</v>
+      </c>
+      <c r="AO44">
+        <v>0.4</v>
+      </c>
+      <c r="AP44">
+        <v>0.4</v>
+      </c>
+      <c r="AQ44">
+        <v>0.4</v>
+      </c>
+      <c r="AR44">
+        <v>0.4</v>
+      </c>
+      <c r="AS44">
+        <v>0.4</v>
+      </c>
+      <c r="AT44">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>20</v>
+      </c>
+      <c r="B45">
+        <v>9</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45">
+        <v>310</v>
+      </c>
+      <c r="E45" t="s">
+        <v>45</v>
+      </c>
+      <c r="F45">
+        <v>0.3</v>
+      </c>
+      <c r="G45">
+        <v>0.3</v>
+      </c>
+      <c r="H45">
+        <v>0.3</v>
+      </c>
+      <c r="I45">
+        <v>0.3</v>
+      </c>
+      <c r="J45">
+        <v>0.3</v>
+      </c>
+      <c r="K45">
+        <v>0.3</v>
+      </c>
+      <c r="L45">
+        <v>0.3</v>
+      </c>
+      <c r="M45">
+        <v>0.3</v>
+      </c>
+      <c r="N45">
+        <v>0.3</v>
+      </c>
+      <c r="O45">
+        <v>0.3</v>
+      </c>
+      <c r="P45">
+        <v>0.3</v>
+      </c>
+      <c r="Q45">
+        <v>0.3</v>
+      </c>
+      <c r="R45">
+        <v>0.3</v>
+      </c>
+      <c r="S45">
+        <v>0.3</v>
+      </c>
+      <c r="T45">
+        <v>0.3</v>
+      </c>
+      <c r="U45">
+        <v>0.3</v>
+      </c>
+      <c r="V45">
+        <v>0.32</v>
+      </c>
+      <c r="W45">
+        <v>0.34</v>
+      </c>
+      <c r="X45">
+        <v>0.36</v>
+      </c>
+      <c r="Y45">
+        <v>0.38</v>
+      </c>
+      <c r="Z45">
+        <v>0.4</v>
+      </c>
+      <c r="AA45">
+        <v>0.4</v>
+      </c>
+      <c r="AB45">
+        <v>0.4</v>
+      </c>
+      <c r="AC45">
+        <v>0.4</v>
+      </c>
+      <c r="AD45">
+        <v>0.4</v>
+      </c>
+      <c r="AE45">
+        <v>0.4</v>
+      </c>
+      <c r="AF45">
+        <v>0.4</v>
+      </c>
+      <c r="AG45">
+        <v>0.4</v>
+      </c>
+      <c r="AH45">
+        <v>0.4</v>
+      </c>
+      <c r="AI45">
+        <v>0.4</v>
+      </c>
+      <c r="AJ45">
+        <v>0.4</v>
+      </c>
+      <c r="AK45">
+        <v>0.4</v>
+      </c>
+      <c r="AL45">
+        <v>0.4</v>
+      </c>
+      <c r="AM45">
+        <v>0.4</v>
+      </c>
+      <c r="AN45">
+        <v>0.4</v>
+      </c>
+      <c r="AO45">
+        <v>0.4</v>
+      </c>
+      <c r="AP45">
+        <v>0.4</v>
+      </c>
+      <c r="AQ45">
+        <v>0.4</v>
+      </c>
+      <c r="AR45">
+        <v>0.4</v>
+      </c>
+      <c r="AS45">
+        <v>0.4</v>
+      </c>
+      <c r="AT45">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>20</v>
+      </c>
+      <c r="B46">
+        <v>9</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46">
+        <v>311</v>
+      </c>
+      <c r="E46" t="s">
+        <v>45</v>
+      </c>
+      <c r="F46">
+        <v>0.3</v>
+      </c>
+      <c r="G46">
+        <v>0.3</v>
+      </c>
+      <c r="H46">
+        <v>0.3</v>
+      </c>
+      <c r="I46">
+        <v>0.3</v>
+      </c>
+      <c r="J46">
+        <v>0.3</v>
+      </c>
+      <c r="K46">
+        <v>0.3</v>
+      </c>
+      <c r="L46">
+        <v>0.3</v>
+      </c>
+      <c r="M46">
+        <v>0.3</v>
+      </c>
+      <c r="N46">
+        <v>0.3</v>
+      </c>
+      <c r="O46">
+        <v>0.3</v>
+      </c>
+      <c r="P46">
+        <v>0.3</v>
+      </c>
+      <c r="Q46">
+        <v>0.3</v>
+      </c>
+      <c r="R46">
+        <v>0.3</v>
+      </c>
+      <c r="S46">
+        <v>0.3</v>
+      </c>
+      <c r="T46">
+        <v>0.3</v>
+      </c>
+      <c r="U46">
+        <v>0.3</v>
+      </c>
+      <c r="V46">
+        <v>0.32</v>
+      </c>
+      <c r="W46">
+        <v>0.34</v>
+      </c>
+      <c r="X46">
+        <v>0.36</v>
+      </c>
+      <c r="Y46">
+        <v>0.38</v>
+      </c>
+      <c r="Z46">
+        <v>0.4</v>
+      </c>
+      <c r="AA46">
+        <v>0.4</v>
+      </c>
+      <c r="AB46">
+        <v>0.4</v>
+      </c>
+      <c r="AC46">
+        <v>0.4</v>
+      </c>
+      <c r="AD46">
+        <v>0.4</v>
+      </c>
+      <c r="AE46">
+        <v>0.4</v>
+      </c>
+      <c r="AF46">
+        <v>0.4</v>
+      </c>
+      <c r="AG46">
+        <v>0.4</v>
+      </c>
+      <c r="AH46">
+        <v>0.4</v>
+      </c>
+      <c r="AI46">
+        <v>0.4</v>
+      </c>
+      <c r="AJ46">
+        <v>0.4</v>
+      </c>
+      <c r="AK46">
+        <v>0.4</v>
+      </c>
+      <c r="AL46">
+        <v>0.4</v>
+      </c>
+      <c r="AM46">
+        <v>0.4</v>
+      </c>
+      <c r="AN46">
+        <v>0.4</v>
+      </c>
+      <c r="AO46">
+        <v>0.4</v>
+      </c>
+      <c r="AP46">
+        <v>0.4</v>
+      </c>
+      <c r="AQ46">
+        <v>0.4</v>
+      </c>
+      <c r="AR46">
+        <v>0.4</v>
+      </c>
+      <c r="AS46">
+        <v>0.4</v>
+      </c>
+      <c r="AT46">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>20</v>
+      </c>
+      <c r="B47">
+        <v>9</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="D47">
+        <v>312</v>
+      </c>
+      <c r="E47" t="s">
+        <v>45</v>
+      </c>
+      <c r="F47">
+        <v>0.3</v>
+      </c>
+      <c r="G47">
+        <v>0.3</v>
+      </c>
+      <c r="H47">
+        <v>0.3</v>
+      </c>
+      <c r="I47">
+        <v>0.3</v>
+      </c>
+      <c r="J47">
+        <v>0.3</v>
+      </c>
+      <c r="K47">
+        <v>0.3</v>
+      </c>
+      <c r="L47">
+        <v>0.3</v>
+      </c>
+      <c r="M47">
+        <v>0.3</v>
+      </c>
+      <c r="N47">
+        <v>0.3</v>
+      </c>
+      <c r="O47">
+        <v>0.3</v>
+      </c>
+      <c r="P47">
+        <v>0.3</v>
+      </c>
+      <c r="Q47">
+        <v>0.3</v>
+      </c>
+      <c r="R47">
+        <v>0.3</v>
+      </c>
+      <c r="S47">
+        <v>0.3</v>
+      </c>
+      <c r="T47">
+        <v>0.3</v>
+      </c>
+      <c r="U47">
+        <v>0.3</v>
+      </c>
+      <c r="V47">
+        <v>0.32</v>
+      </c>
+      <c r="W47">
+        <v>0.34</v>
+      </c>
+      <c r="X47">
+        <v>0.36</v>
+      </c>
+      <c r="Y47">
+        <v>0.38</v>
+      </c>
+      <c r="Z47">
+        <v>0.4</v>
+      </c>
+      <c r="AA47">
+        <v>0.4</v>
+      </c>
+      <c r="AB47">
+        <v>0.4</v>
+      </c>
+      <c r="AC47">
+        <v>0.4</v>
+      </c>
+      <c r="AD47">
+        <v>0.4</v>
+      </c>
+      <c r="AE47">
+        <v>0.4</v>
+      </c>
+      <c r="AF47">
+        <v>0.4</v>
+      </c>
+      <c r="AG47">
+        <v>0.4</v>
+      </c>
+      <c r="AH47">
+        <v>0.4</v>
+      </c>
+      <c r="AI47">
+        <v>0.4</v>
+      </c>
+      <c r="AJ47">
+        <v>0.4</v>
+      </c>
+      <c r="AK47">
+        <v>0.4</v>
+      </c>
+      <c r="AL47">
+        <v>0.4</v>
+      </c>
+      <c r="AM47">
+        <v>0.4</v>
+      </c>
+      <c r="AN47">
+        <v>0.4</v>
+      </c>
+      <c r="AO47">
+        <v>0.4</v>
+      </c>
+      <c r="AP47">
+        <v>0.4</v>
+      </c>
+      <c r="AQ47">
+        <v>0.4</v>
+      </c>
+      <c r="AR47">
+        <v>0.4</v>
+      </c>
+      <c r="AS47">
+        <v>0.4</v>
+      </c>
+      <c r="AT47">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>20</v>
+      </c>
+      <c r="B48">
+        <v>9</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="D48">
+        <v>313</v>
+      </c>
+      <c r="E48" t="s">
+        <v>45</v>
+      </c>
+      <c r="F48">
+        <v>0.3</v>
+      </c>
+      <c r="G48">
+        <v>0.3</v>
+      </c>
+      <c r="H48">
+        <v>0.3</v>
+      </c>
+      <c r="I48">
+        <v>0.3</v>
+      </c>
+      <c r="J48">
+        <v>0.3</v>
+      </c>
+      <c r="K48">
+        <v>0.3</v>
+      </c>
+      <c r="L48">
+        <v>0.3</v>
+      </c>
+      <c r="M48">
+        <v>0.3</v>
+      </c>
+      <c r="N48">
+        <v>0.3</v>
+      </c>
+      <c r="O48">
+        <v>0.3</v>
+      </c>
+      <c r="P48">
+        <v>0.3</v>
+      </c>
+      <c r="Q48">
+        <v>0.3</v>
+      </c>
+      <c r="R48">
+        <v>0.3</v>
+      </c>
+      <c r="S48">
+        <v>0.3</v>
+      </c>
+      <c r="T48">
+        <v>0.3</v>
+      </c>
+      <c r="U48">
+        <v>0.3</v>
+      </c>
+      <c r="V48">
+        <v>0.32</v>
+      </c>
+      <c r="W48">
+        <v>0.34</v>
+      </c>
+      <c r="X48">
+        <v>0.36</v>
+      </c>
+      <c r="Y48">
+        <v>0.38</v>
+      </c>
+      <c r="Z48">
+        <v>0.4</v>
+      </c>
+      <c r="AA48">
+        <v>0.4</v>
+      </c>
+      <c r="AB48">
+        <v>0.4</v>
+      </c>
+      <c r="AC48">
+        <v>0.4</v>
+      </c>
+      <c r="AD48">
+        <v>0.4</v>
+      </c>
+      <c r="AE48">
+        <v>0.4</v>
+      </c>
+      <c r="AF48">
+        <v>0.4</v>
+      </c>
+      <c r="AG48">
+        <v>0.4</v>
+      </c>
+      <c r="AH48">
+        <v>0.4</v>
+      </c>
+      <c r="AI48">
+        <v>0.4</v>
+      </c>
+      <c r="AJ48">
+        <v>0.4</v>
+      </c>
+      <c r="AK48">
+        <v>0.4</v>
+      </c>
+      <c r="AL48">
+        <v>0.4</v>
+      </c>
+      <c r="AM48">
+        <v>0.4</v>
+      </c>
+      <c r="AN48">
+        <v>0.4</v>
+      </c>
+      <c r="AO48">
+        <v>0.4</v>
+      </c>
+      <c r="AP48">
+        <v>0.4</v>
+      </c>
+      <c r="AQ48">
+        <v>0.4</v>
+      </c>
+      <c r="AR48">
+        <v>0.4</v>
+      </c>
+      <c r="AS48">
+        <v>0.4</v>
+      </c>
+      <c r="AT48">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>20</v>
+      </c>
+      <c r="B49">
+        <v>9</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="D49">
+        <v>314</v>
+      </c>
+      <c r="E49" t="s">
+        <v>45</v>
+      </c>
+      <c r="F49">
+        <v>0.3</v>
+      </c>
+      <c r="G49">
+        <v>0.3</v>
+      </c>
+      <c r="H49">
+        <v>0.3</v>
+      </c>
+      <c r="I49">
+        <v>0.3</v>
+      </c>
+      <c r="J49">
+        <v>0.3</v>
+      </c>
+      <c r="K49">
+        <v>0.3</v>
+      </c>
+      <c r="L49">
+        <v>0.3</v>
+      </c>
+      <c r="M49">
+        <v>0.3</v>
+      </c>
+      <c r="N49">
+        <v>0.3</v>
+      </c>
+      <c r="O49">
+        <v>0.3</v>
+      </c>
+      <c r="P49">
+        <v>0.3</v>
+      </c>
+      <c r="Q49">
+        <v>0.3</v>
+      </c>
+      <c r="R49">
+        <v>0.3</v>
+      </c>
+      <c r="S49">
+        <v>0.3</v>
+      </c>
+      <c r="T49">
+        <v>0.3</v>
+      </c>
+      <c r="U49">
+        <v>0.3</v>
+      </c>
+      <c r="V49">
+        <v>0.32</v>
+      </c>
+      <c r="W49">
+        <v>0.34</v>
+      </c>
+      <c r="X49">
+        <v>0.36</v>
+      </c>
+      <c r="Y49">
+        <v>0.38</v>
+      </c>
+      <c r="Z49">
+        <v>0.4</v>
+      </c>
+      <c r="AA49">
+        <v>0.4</v>
+      </c>
+      <c r="AB49">
+        <v>0.4</v>
+      </c>
+      <c r="AC49">
+        <v>0.4</v>
+      </c>
+      <c r="AD49">
+        <v>0.4</v>
+      </c>
+      <c r="AE49">
+        <v>0.4</v>
+      </c>
+      <c r="AF49">
+        <v>0.4</v>
+      </c>
+      <c r="AG49">
+        <v>0.4</v>
+      </c>
+      <c r="AH49">
+        <v>0.4</v>
+      </c>
+      <c r="AI49">
+        <v>0.4</v>
+      </c>
+      <c r="AJ49">
+        <v>0.4</v>
+      </c>
+      <c r="AK49">
+        <v>0.4</v>
+      </c>
+      <c r="AL49">
+        <v>0.4</v>
+      </c>
+      <c r="AM49">
+        <v>0.4</v>
+      </c>
+      <c r="AN49">
+        <v>0.4</v>
+      </c>
+      <c r="AO49">
+        <v>0.4</v>
+      </c>
+      <c r="AP49">
+        <v>0.4</v>
+      </c>
+      <c r="AQ49">
+        <v>0.4</v>
+      </c>
+      <c r="AR49">
+        <v>0.4</v>
+      </c>
+      <c r="AS49">
+        <v>0.4</v>
+      </c>
+      <c r="AT49">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>20</v>
+      </c>
+      <c r="B50">
+        <v>9</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="D50">
+        <v>315</v>
+      </c>
+      <c r="E50" t="s">
+        <v>45</v>
+      </c>
+      <c r="F50">
+        <v>0.3</v>
+      </c>
+      <c r="G50">
+        <v>0.3</v>
+      </c>
+      <c r="H50">
+        <v>0.3</v>
+      </c>
+      <c r="I50">
+        <v>0.3</v>
+      </c>
+      <c r="J50">
+        <v>0.3</v>
+      </c>
+      <c r="K50">
+        <v>0.3</v>
+      </c>
+      <c r="L50">
+        <v>0.3</v>
+      </c>
+      <c r="M50">
+        <v>0.3</v>
+      </c>
+      <c r="N50">
+        <v>0.3</v>
+      </c>
+      <c r="O50">
+        <v>0.3</v>
+      </c>
+      <c r="P50">
+        <v>0.3</v>
+      </c>
+      <c r="Q50">
+        <v>0.3</v>
+      </c>
+      <c r="R50">
+        <v>0.3</v>
+      </c>
+      <c r="S50">
+        <v>0.3</v>
+      </c>
+      <c r="T50">
+        <v>0.3</v>
+      </c>
+      <c r="U50">
+        <v>0.3</v>
+      </c>
+      <c r="V50">
+        <v>0.32</v>
+      </c>
+      <c r="W50">
+        <v>0.34</v>
+      </c>
+      <c r="X50">
+        <v>0.36</v>
+      </c>
+      <c r="Y50">
+        <v>0.38</v>
+      </c>
+      <c r="Z50">
+        <v>0.4</v>
+      </c>
+      <c r="AA50">
+        <v>0.4</v>
+      </c>
+      <c r="AB50">
+        <v>0.4</v>
+      </c>
+      <c r="AC50">
+        <v>0.4</v>
+      </c>
+      <c r="AD50">
+        <v>0.4</v>
+      </c>
+      <c r="AE50">
+        <v>0.4</v>
+      </c>
+      <c r="AF50">
+        <v>0.4</v>
+      </c>
+      <c r="AG50">
+        <v>0.4</v>
+      </c>
+      <c r="AH50">
+        <v>0.4</v>
+      </c>
+      <c r="AI50">
+        <v>0.4</v>
+      </c>
+      <c r="AJ50">
+        <v>0.4</v>
+      </c>
+      <c r="AK50">
+        <v>0.4</v>
+      </c>
+      <c r="AL50">
+        <v>0.4</v>
+      </c>
+      <c r="AM50">
+        <v>0.4</v>
+      </c>
+      <c r="AN50">
+        <v>0.4</v>
+      </c>
+      <c r="AO50">
+        <v>0.4</v>
+      </c>
+      <c r="AP50">
+        <v>0.4</v>
+      </c>
+      <c r="AQ50">
+        <v>0.4</v>
+      </c>
+      <c r="AR50">
+        <v>0.4</v>
+      </c>
+      <c r="AS50">
+        <v>0.4</v>
+      </c>
+      <c r="AT50">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>20</v>
+      </c>
+      <c r="B51">
+        <v>9</v>
+      </c>
+      <c r="C51">
+        <v>3</v>
+      </c>
+      <c r="D51">
+        <v>316</v>
+      </c>
+      <c r="E51" t="s">
+        <v>45</v>
+      </c>
+      <c r="F51">
+        <v>0.3</v>
+      </c>
+      <c r="G51">
+        <v>0.3</v>
+      </c>
+      <c r="H51">
+        <v>0.3</v>
+      </c>
+      <c r="I51">
+        <v>0.3</v>
+      </c>
+      <c r="J51">
+        <v>0.3</v>
+      </c>
+      <c r="K51">
+        <v>0.3</v>
+      </c>
+      <c r="L51">
+        <v>0.3</v>
+      </c>
+      <c r="M51">
+        <v>0.3</v>
+      </c>
+      <c r="N51">
+        <v>0.3</v>
+      </c>
+      <c r="O51">
+        <v>0.3</v>
+      </c>
+      <c r="P51">
+        <v>0.3</v>
+      </c>
+      <c r="Q51">
+        <v>0.3</v>
+      </c>
+      <c r="R51">
+        <v>0.3</v>
+      </c>
+      <c r="S51">
+        <v>0.3</v>
+      </c>
+      <c r="T51">
+        <v>0.3</v>
+      </c>
+      <c r="U51">
+        <v>0.3</v>
+      </c>
+      <c r="V51">
+        <v>0.32</v>
+      </c>
+      <c r="W51">
+        <v>0.34</v>
+      </c>
+      <c r="X51">
+        <v>0.36</v>
+      </c>
+      <c r="Y51">
+        <v>0.38</v>
+      </c>
+      <c r="Z51">
+        <v>0.4</v>
+      </c>
+      <c r="AA51">
+        <v>0.4</v>
+      </c>
+      <c r="AB51">
+        <v>0.4</v>
+      </c>
+      <c r="AC51">
+        <v>0.4</v>
+      </c>
+      <c r="AD51">
+        <v>0.4</v>
+      </c>
+      <c r="AE51">
+        <v>0.4</v>
+      </c>
+      <c r="AF51">
+        <v>0.4</v>
+      </c>
+      <c r="AG51">
+        <v>0.4</v>
+      </c>
+      <c r="AH51">
+        <v>0.4</v>
+      </c>
+      <c r="AI51">
+        <v>0.4</v>
+      </c>
+      <c r="AJ51">
+        <v>0.4</v>
+      </c>
+      <c r="AK51">
+        <v>0.4</v>
+      </c>
+      <c r="AL51">
+        <v>0.4</v>
+      </c>
+      <c r="AM51">
+        <v>0.4</v>
+      </c>
+      <c r="AN51">
+        <v>0.4</v>
+      </c>
+      <c r="AO51">
+        <v>0.4</v>
+      </c>
+      <c r="AP51">
+        <v>0.4</v>
+      </c>
+      <c r="AQ51">
+        <v>0.4</v>
+      </c>
+      <c r="AR51">
+        <v>0.4</v>
+      </c>
+      <c r="AS51">
+        <v>0.4</v>
+      </c>
+      <c r="AT51">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>20</v>
+      </c>
+      <c r="B52">
+        <v>9</v>
+      </c>
+      <c r="C52">
+        <v>6</v>
+      </c>
+      <c r="D52">
+        <v>61</v>
+      </c>
+      <c r="E52" t="s">
+        <v>45</v>
+      </c>
+      <c r="F52">
+        <v>0.3</v>
+      </c>
+      <c r="G52">
+        <v>0.3</v>
+      </c>
+      <c r="H52">
+        <v>0.3</v>
+      </c>
+      <c r="I52">
+        <v>0.3</v>
+      </c>
+      <c r="J52">
+        <v>0.3</v>
+      </c>
+      <c r="K52">
+        <v>0.3</v>
+      </c>
+      <c r="L52">
+        <v>0.3</v>
+      </c>
+      <c r="M52">
+        <v>0.3</v>
+      </c>
+      <c r="N52">
+        <v>0.3</v>
+      </c>
+      <c r="O52">
+        <v>0.3</v>
+      </c>
+      <c r="P52">
+        <v>0.3</v>
+      </c>
+      <c r="Q52">
+        <v>0.3</v>
+      </c>
+      <c r="R52">
+        <v>0.3</v>
+      </c>
+      <c r="S52">
+        <v>0.3</v>
+      </c>
+      <c r="T52">
+        <v>0.3</v>
+      </c>
+      <c r="U52">
+        <v>0.3</v>
+      </c>
+      <c r="V52">
+        <v>0.32</v>
+      </c>
+      <c r="W52">
+        <v>0.34</v>
+      </c>
+      <c r="X52">
+        <v>0.36</v>
+      </c>
+      <c r="Y52">
+        <v>0.38</v>
+      </c>
+      <c r="Z52">
+        <v>0.4</v>
+      </c>
+      <c r="AA52">
+        <v>0.4</v>
+      </c>
+      <c r="AB52">
+        <v>0.4</v>
+      </c>
+      <c r="AC52">
+        <v>0.4</v>
+      </c>
+      <c r="AD52">
+        <v>0.4</v>
+      </c>
+      <c r="AE52">
+        <v>0.4</v>
+      </c>
+      <c r="AF52">
+        <v>0.4</v>
+      </c>
+      <c r="AG52">
+        <v>0.4</v>
+      </c>
+      <c r="AH52">
+        <v>0.4</v>
+      </c>
+      <c r="AI52">
+        <v>0.4</v>
+      </c>
+      <c r="AJ52">
+        <v>0.4</v>
+      </c>
+      <c r="AK52">
+        <v>0.4</v>
+      </c>
+      <c r="AL52">
+        <v>0.4</v>
+      </c>
+      <c r="AM52">
+        <v>0.4</v>
+      </c>
+      <c r="AN52">
+        <v>0.4</v>
+      </c>
+      <c r="AO52">
+        <v>0.4</v>
+      </c>
+      <c r="AP52">
+        <v>0.4</v>
+      </c>
+      <c r="AQ52">
+        <v>0.4</v>
+      </c>
+      <c r="AR52">
+        <v>0.4</v>
+      </c>
+      <c r="AS52">
+        <v>0.4</v>
+      </c>
+      <c r="AT52">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>30</v>
+      </c>
+      <c r="B53">
+        <v>9</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
+      </c>
+      <c r="D53">
+        <v>31</v>
+      </c>
+      <c r="E53" t="s">
+        <v>45</v>
+      </c>
+      <c r="F53">
+        <v>0.3</v>
+      </c>
+      <c r="G53">
+        <v>0.3</v>
+      </c>
+      <c r="H53">
+        <v>0.3</v>
+      </c>
+      <c r="I53">
+        <v>0.3</v>
+      </c>
+      <c r="J53">
+        <v>0.3</v>
+      </c>
+      <c r="K53">
+        <v>0.3</v>
+      </c>
+      <c r="L53">
+        <v>0.3</v>
+      </c>
+      <c r="M53">
+        <v>0.3</v>
+      </c>
+      <c r="N53">
+        <v>0.3</v>
+      </c>
+      <c r="O53">
+        <v>0.3</v>
+      </c>
+      <c r="P53">
+        <v>0.3</v>
+      </c>
+      <c r="Q53">
+        <v>0.3</v>
+      </c>
+      <c r="R53">
+        <v>0.3</v>
+      </c>
+      <c r="S53">
+        <v>0.3</v>
+      </c>
+      <c r="T53">
+        <v>0.3</v>
+      </c>
+      <c r="U53">
+        <v>0.3</v>
+      </c>
+      <c r="V53">
+        <v>0.3</v>
+      </c>
+      <c r="W53">
+        <v>0.3</v>
+      </c>
+      <c r="X53">
+        <v>0.3</v>
+      </c>
+      <c r="Y53">
+        <v>0.3</v>
+      </c>
+      <c r="Z53">
+        <v>0.3</v>
+      </c>
+      <c r="AA53">
+        <v>0.3</v>
+      </c>
+      <c r="AB53">
+        <v>0.3</v>
+      </c>
+      <c r="AC53">
+        <v>0.3</v>
+      </c>
+      <c r="AD53">
+        <v>0.3</v>
+      </c>
+      <c r="AE53">
+        <v>0.3</v>
+      </c>
+      <c r="AF53">
+        <v>0.3</v>
+      </c>
+      <c r="AG53">
+        <v>0.3</v>
+      </c>
+      <c r="AH53">
+        <v>0.3</v>
+      </c>
+      <c r="AI53">
+        <v>0.3</v>
+      </c>
+      <c r="AJ53">
+        <v>0.3</v>
+      </c>
+      <c r="AK53">
+        <v>0.3</v>
+      </c>
+      <c r="AL53">
+        <v>0.3</v>
+      </c>
+      <c r="AM53">
+        <v>0.3</v>
+      </c>
+      <c r="AN53">
+        <v>0.3</v>
+      </c>
+      <c r="AO53">
+        <v>0.3</v>
+      </c>
+      <c r="AP53">
+        <v>0.3</v>
+      </c>
+      <c r="AQ53">
+        <v>0.3</v>
+      </c>
+      <c r="AR53">
+        <v>0.3</v>
+      </c>
+      <c r="AS53">
+        <v>0.3</v>
+      </c>
+      <c r="AT53">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>30</v>
+      </c>
+      <c r="B54">
+        <v>9</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+      <c r="D54">
+        <v>32</v>
+      </c>
+      <c r="E54" t="s">
+        <v>45</v>
+      </c>
+      <c r="F54">
+        <v>0.3</v>
+      </c>
+      <c r="G54">
+        <v>0.3</v>
+      </c>
+      <c r="H54">
+        <v>0.3</v>
+      </c>
+      <c r="I54">
+        <v>0.3</v>
+      </c>
+      <c r="J54">
+        <v>0.3</v>
+      </c>
+      <c r="K54">
+        <v>0.3</v>
+      </c>
+      <c r="L54">
+        <v>0.3</v>
+      </c>
+      <c r="M54">
+        <v>0.3</v>
+      </c>
+      <c r="N54">
+        <v>0.3</v>
+      </c>
+      <c r="O54">
+        <v>0.3</v>
+      </c>
+      <c r="P54">
+        <v>0.3</v>
+      </c>
+      <c r="Q54">
+        <v>0.3</v>
+      </c>
+      <c r="R54">
+        <v>0.3</v>
+      </c>
+      <c r="S54">
+        <v>0.3</v>
+      </c>
+      <c r="T54">
+        <v>0.3</v>
+      </c>
+      <c r="U54">
+        <v>0.3</v>
+      </c>
+      <c r="V54">
+        <v>0.3</v>
+      </c>
+      <c r="W54">
+        <v>0.3</v>
+      </c>
+      <c r="X54">
+        <v>0.3</v>
+      </c>
+      <c r="Y54">
+        <v>0.3</v>
+      </c>
+      <c r="Z54">
+        <v>0.3</v>
+      </c>
+      <c r="AA54">
+        <v>0.3</v>
+      </c>
+      <c r="AB54">
+        <v>0.3</v>
+      </c>
+      <c r="AC54">
+        <v>0.3</v>
+      </c>
+      <c r="AD54">
+        <v>0.3</v>
+      </c>
+      <c r="AE54">
+        <v>0.3</v>
+      </c>
+      <c r="AF54">
+        <v>0.3</v>
+      </c>
+      <c r="AG54">
+        <v>0.3</v>
+      </c>
+      <c r="AH54">
+        <v>0.3</v>
+      </c>
+      <c r="AI54">
+        <v>0.3</v>
+      </c>
+      <c r="AJ54">
+        <v>0.3</v>
+      </c>
+      <c r="AK54">
+        <v>0.3</v>
+      </c>
+      <c r="AL54">
+        <v>0.3</v>
+      </c>
+      <c r="AM54">
+        <v>0.3</v>
+      </c>
+      <c r="AN54">
+        <v>0.3</v>
+      </c>
+      <c r="AO54">
+        <v>0.3</v>
+      </c>
+      <c r="AP54">
+        <v>0.3</v>
+      </c>
+      <c r="AQ54">
+        <v>0.3</v>
+      </c>
+      <c r="AR54">
+        <v>0.3</v>
+      </c>
+      <c r="AS54">
+        <v>0.3</v>
+      </c>
+      <c r="AT54">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>30</v>
+      </c>
+      <c r="B55">
+        <v>9</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+      <c r="D55">
+        <v>33</v>
+      </c>
+      <c r="E55" t="s">
+        <v>45</v>
+      </c>
+      <c r="F55">
+        <v>0.3</v>
+      </c>
+      <c r="G55">
+        <v>0.3</v>
+      </c>
+      <c r="H55">
+        <v>0.3</v>
+      </c>
+      <c r="I55">
+        <v>0.3</v>
+      </c>
+      <c r="J55">
+        <v>0.3</v>
+      </c>
+      <c r="K55">
+        <v>0.3</v>
+      </c>
+      <c r="L55">
+        <v>0.3</v>
+      </c>
+      <c r="M55">
+        <v>0.3</v>
+      </c>
+      <c r="N55">
+        <v>0.3</v>
+      </c>
+      <c r="O55">
+        <v>0.3</v>
+      </c>
+      <c r="P55">
+        <v>0.3</v>
+      </c>
+      <c r="Q55">
+        <v>0.3</v>
+      </c>
+      <c r="R55">
+        <v>0.3</v>
+      </c>
+      <c r="S55">
+        <v>0.3</v>
+      </c>
+      <c r="T55">
+        <v>0.3</v>
+      </c>
+      <c r="U55">
+        <v>0.3</v>
+      </c>
+      <c r="V55">
+        <v>0.3</v>
+      </c>
+      <c r="W55">
+        <v>0.3</v>
+      </c>
+      <c r="X55">
+        <v>0.3</v>
+      </c>
+      <c r="Y55">
+        <v>0.3</v>
+      </c>
+      <c r="Z55">
+        <v>0.3</v>
+      </c>
+      <c r="AA55">
+        <v>0.3</v>
+      </c>
+      <c r="AB55">
+        <v>0.3</v>
+      </c>
+      <c r="AC55">
+        <v>0.3</v>
+      </c>
+      <c r="AD55">
+        <v>0.3</v>
+      </c>
+      <c r="AE55">
+        <v>0.3</v>
+      </c>
+      <c r="AF55">
+        <v>0.3</v>
+      </c>
+      <c r="AG55">
+        <v>0.3</v>
+      </c>
+      <c r="AH55">
+        <v>0.3</v>
+      </c>
+      <c r="AI55">
+        <v>0.3</v>
+      </c>
+      <c r="AJ55">
+        <v>0.3</v>
+      </c>
+      <c r="AK55">
+        <v>0.3</v>
+      </c>
+      <c r="AL55">
+        <v>0.3</v>
+      </c>
+      <c r="AM55">
+        <v>0.3</v>
+      </c>
+      <c r="AN55">
+        <v>0.3</v>
+      </c>
+      <c r="AO55">
+        <v>0.3</v>
+      </c>
+      <c r="AP55">
+        <v>0.3</v>
+      </c>
+      <c r="AQ55">
+        <v>0.3</v>
+      </c>
+      <c r="AR55">
+        <v>0.3</v>
+      </c>
+      <c r="AS55">
+        <v>0.3</v>
+      </c>
+      <c r="AT55">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>30</v>
+      </c>
+      <c r="B56">
+        <v>9</v>
+      </c>
+      <c r="C56">
+        <v>3</v>
+      </c>
+      <c r="D56">
+        <v>34</v>
+      </c>
+      <c r="E56" t="s">
+        <v>45</v>
+      </c>
+      <c r="F56">
+        <v>0.3</v>
+      </c>
+      <c r="G56">
+        <v>0.3</v>
+      </c>
+      <c r="H56">
+        <v>0.3</v>
+      </c>
+      <c r="I56">
+        <v>0.3</v>
+      </c>
+      <c r="J56">
+        <v>0.3</v>
+      </c>
+      <c r="K56">
+        <v>0.3</v>
+      </c>
+      <c r="L56">
+        <v>0.3</v>
+      </c>
+      <c r="M56">
+        <v>0.3</v>
+      </c>
+      <c r="N56">
+        <v>0.3</v>
+      </c>
+      <c r="O56">
+        <v>0.3</v>
+      </c>
+      <c r="P56">
+        <v>0.3</v>
+      </c>
+      <c r="Q56">
+        <v>0.3</v>
+      </c>
+      <c r="R56">
+        <v>0.3</v>
+      </c>
+      <c r="S56">
+        <v>0.3</v>
+      </c>
+      <c r="T56">
+        <v>0.3</v>
+      </c>
+      <c r="U56">
+        <v>0.3</v>
+      </c>
+      <c r="V56">
+        <v>0.3</v>
+      </c>
+      <c r="W56">
+        <v>0.3</v>
+      </c>
+      <c r="X56">
+        <v>0.3</v>
+      </c>
+      <c r="Y56">
+        <v>0.3</v>
+      </c>
+      <c r="Z56">
+        <v>0.3</v>
+      </c>
+      <c r="AA56">
+        <v>0.3</v>
+      </c>
+      <c r="AB56">
+        <v>0.3</v>
+      </c>
+      <c r="AC56">
+        <v>0.3</v>
+      </c>
+      <c r="AD56">
+        <v>0.3</v>
+      </c>
+      <c r="AE56">
+        <v>0.3</v>
+      </c>
+      <c r="AF56">
+        <v>0.3</v>
+      </c>
+      <c r="AG56">
+        <v>0.3</v>
+      </c>
+      <c r="AH56">
+        <v>0.3</v>
+      </c>
+      <c r="AI56">
+        <v>0.3</v>
+      </c>
+      <c r="AJ56">
+        <v>0.3</v>
+      </c>
+      <c r="AK56">
+        <v>0.3</v>
+      </c>
+      <c r="AL56">
+        <v>0.3</v>
+      </c>
+      <c r="AM56">
+        <v>0.3</v>
+      </c>
+      <c r="AN56">
+        <v>0.3</v>
+      </c>
+      <c r="AO56">
+        <v>0.3</v>
+      </c>
+      <c r="AP56">
+        <v>0.3</v>
+      </c>
+      <c r="AQ56">
+        <v>0.3</v>
+      </c>
+      <c r="AR56">
+        <v>0.3</v>
+      </c>
+      <c r="AS56">
+        <v>0.3</v>
+      </c>
+      <c r="AT56">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>30</v>
+      </c>
+      <c r="B57">
+        <v>9</v>
+      </c>
+      <c r="C57">
+        <v>3</v>
+      </c>
+      <c r="D57">
+        <v>35</v>
+      </c>
+      <c r="E57" t="s">
+        <v>45</v>
+      </c>
+      <c r="F57">
+        <v>0.3</v>
+      </c>
+      <c r="G57">
+        <v>0.3</v>
+      </c>
+      <c r="H57">
+        <v>0.3</v>
+      </c>
+      <c r="I57">
+        <v>0.3</v>
+      </c>
+      <c r="J57">
+        <v>0.3</v>
+      </c>
+      <c r="K57">
+        <v>0.3</v>
+      </c>
+      <c r="L57">
+        <v>0.3</v>
+      </c>
+      <c r="M57">
+        <v>0.3</v>
+      </c>
+      <c r="N57">
+        <v>0.3</v>
+      </c>
+      <c r="O57">
+        <v>0.3</v>
+      </c>
+      <c r="P57">
+        <v>0.3</v>
+      </c>
+      <c r="Q57">
+        <v>0.3</v>
+      </c>
+      <c r="R57">
+        <v>0.3</v>
+      </c>
+      <c r="S57">
+        <v>0.3</v>
+      </c>
+      <c r="T57">
+        <v>0.3</v>
+      </c>
+      <c r="U57">
+        <v>0.3</v>
+      </c>
+      <c r="V57">
+        <v>0.3</v>
+      </c>
+      <c r="W57">
+        <v>0.3</v>
+      </c>
+      <c r="X57">
+        <v>0.3</v>
+      </c>
+      <c r="Y57">
+        <v>0.3</v>
+      </c>
+      <c r="Z57">
+        <v>0.3</v>
+      </c>
+      <c r="AA57">
+        <v>0.3</v>
+      </c>
+      <c r="AB57">
+        <v>0.3</v>
+      </c>
+      <c r="AC57">
+        <v>0.3</v>
+      </c>
+      <c r="AD57">
+        <v>0.3</v>
+      </c>
+      <c r="AE57">
+        <v>0.3</v>
+      </c>
+      <c r="AF57">
+        <v>0.3</v>
+      </c>
+      <c r="AG57">
+        <v>0.3</v>
+      </c>
+      <c r="AH57">
+        <v>0.3</v>
+      </c>
+      <c r="AI57">
+        <v>0.3</v>
+      </c>
+      <c r="AJ57">
+        <v>0.3</v>
+      </c>
+      <c r="AK57">
+        <v>0.3</v>
+      </c>
+      <c r="AL57">
+        <v>0.3</v>
+      </c>
+      <c r="AM57">
+        <v>0.3</v>
+      </c>
+      <c r="AN57">
+        <v>0.3</v>
+      </c>
+      <c r="AO57">
+        <v>0.3</v>
+      </c>
+      <c r="AP57">
+        <v>0.3</v>
+      </c>
+      <c r="AQ57">
+        <v>0.3</v>
+      </c>
+      <c r="AR57">
+        <v>0.3</v>
+      </c>
+      <c r="AS57">
+        <v>0.3</v>
+      </c>
+      <c r="AT57">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>30</v>
+      </c>
+      <c r="B58">
+        <v>9</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="D58">
+        <v>36</v>
+      </c>
+      <c r="E58" t="s">
+        <v>45</v>
+      </c>
+      <c r="F58">
+        <v>0.3</v>
+      </c>
+      <c r="G58">
+        <v>0.3</v>
+      </c>
+      <c r="H58">
+        <v>0.3</v>
+      </c>
+      <c r="I58">
+        <v>0.3</v>
+      </c>
+      <c r="J58">
+        <v>0.3</v>
+      </c>
+      <c r="K58">
+        <v>0.3</v>
+      </c>
+      <c r="L58">
+        <v>0.3</v>
+      </c>
+      <c r="M58">
+        <v>0.3</v>
+      </c>
+      <c r="N58">
+        <v>0.3</v>
+      </c>
+      <c r="O58">
+        <v>0.3</v>
+      </c>
+      <c r="P58">
+        <v>0.3</v>
+      </c>
+      <c r="Q58">
+        <v>0.3</v>
+      </c>
+      <c r="R58">
+        <v>0.3</v>
+      </c>
+      <c r="S58">
+        <v>0.3</v>
+      </c>
+      <c r="T58">
+        <v>0.3</v>
+      </c>
+      <c r="U58">
+        <v>0.3</v>
+      </c>
+      <c r="V58">
+        <v>0.3</v>
+      </c>
+      <c r="W58">
+        <v>0.3</v>
+      </c>
+      <c r="X58">
+        <v>0.3</v>
+      </c>
+      <c r="Y58">
+        <v>0.3</v>
+      </c>
+      <c r="Z58">
+        <v>0.3</v>
+      </c>
+      <c r="AA58">
+        <v>0.3</v>
+      </c>
+      <c r="AB58">
+        <v>0.3</v>
+      </c>
+      <c r="AC58">
+        <v>0.3</v>
+      </c>
+      <c r="AD58">
+        <v>0.3</v>
+      </c>
+      <c r="AE58">
+        <v>0.3</v>
+      </c>
+      <c r="AF58">
+        <v>0.3</v>
+      </c>
+      <c r="AG58">
+        <v>0.3</v>
+      </c>
+      <c r="AH58">
+        <v>0.3</v>
+      </c>
+      <c r="AI58">
+        <v>0.3</v>
+      </c>
+      <c r="AJ58">
+        <v>0.3</v>
+      </c>
+      <c r="AK58">
+        <v>0.3</v>
+      </c>
+      <c r="AL58">
+        <v>0.3</v>
+      </c>
+      <c r="AM58">
+        <v>0.3</v>
+      </c>
+      <c r="AN58">
+        <v>0.3</v>
+      </c>
+      <c r="AO58">
+        <v>0.3</v>
+      </c>
+      <c r="AP58">
+        <v>0.3</v>
+      </c>
+      <c r="AQ58">
+        <v>0.3</v>
+      </c>
+      <c r="AR58">
+        <v>0.3</v>
+      </c>
+      <c r="AS58">
+        <v>0.3</v>
+      </c>
+      <c r="AT58">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>30</v>
+      </c>
+      <c r="B59">
+        <v>9</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+      <c r="D59">
+        <v>37</v>
+      </c>
+      <c r="E59" t="s">
+        <v>45</v>
+      </c>
+      <c r="F59">
+        <v>0.3</v>
+      </c>
+      <c r="G59">
+        <v>0.3</v>
+      </c>
+      <c r="H59">
+        <v>0.3</v>
+      </c>
+      <c r="I59">
+        <v>0.3</v>
+      </c>
+      <c r="J59">
+        <v>0.3</v>
+      </c>
+      <c r="K59">
+        <v>0.3</v>
+      </c>
+      <c r="L59">
+        <v>0.3</v>
+      </c>
+      <c r="M59">
+        <v>0.3</v>
+      </c>
+      <c r="N59">
+        <v>0.3</v>
+      </c>
+      <c r="O59">
+        <v>0.3</v>
+      </c>
+      <c r="P59">
+        <v>0.3</v>
+      </c>
+      <c r="Q59">
+        <v>0.3</v>
+      </c>
+      <c r="R59">
+        <v>0.3</v>
+      </c>
+      <c r="S59">
+        <v>0.3</v>
+      </c>
+      <c r="T59">
+        <v>0.3</v>
+      </c>
+      <c r="U59">
+        <v>0.3</v>
+      </c>
+      <c r="V59">
+        <v>0.3</v>
+      </c>
+      <c r="W59">
+        <v>0.3</v>
+      </c>
+      <c r="X59">
+        <v>0.3</v>
+      </c>
+      <c r="Y59">
+        <v>0.3</v>
+      </c>
+      <c r="Z59">
+        <v>0.3</v>
+      </c>
+      <c r="AA59">
+        <v>0.3</v>
+      </c>
+      <c r="AB59">
+        <v>0.3</v>
+      </c>
+      <c r="AC59">
+        <v>0.3</v>
+      </c>
+      <c r="AD59">
+        <v>0.3</v>
+      </c>
+      <c r="AE59">
+        <v>0.3</v>
+      </c>
+      <c r="AF59">
+        <v>0.3</v>
+      </c>
+      <c r="AG59">
+        <v>0.3</v>
+      </c>
+      <c r="AH59">
+        <v>0.3</v>
+      </c>
+      <c r="AI59">
+        <v>0.3</v>
+      </c>
+      <c r="AJ59">
+        <v>0.3</v>
+      </c>
+      <c r="AK59">
+        <v>0.3</v>
+      </c>
+      <c r="AL59">
+        <v>0.3</v>
+      </c>
+      <c r="AM59">
+        <v>0.3</v>
+      </c>
+      <c r="AN59">
+        <v>0.3</v>
+      </c>
+      <c r="AO59">
+        <v>0.3</v>
+      </c>
+      <c r="AP59">
+        <v>0.3</v>
+      </c>
+      <c r="AQ59">
+        <v>0.3</v>
+      </c>
+      <c r="AR59">
+        <v>0.3</v>
+      </c>
+      <c r="AS59">
+        <v>0.3</v>
+      </c>
+      <c r="AT59">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>30</v>
+      </c>
+      <c r="B60">
+        <v>9</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+      <c r="D60">
+        <v>38</v>
+      </c>
+      <c r="E60" t="s">
+        <v>45</v>
+      </c>
+      <c r="F60">
+        <v>0.3</v>
+      </c>
+      <c r="G60">
+        <v>0.3</v>
+      </c>
+      <c r="H60">
+        <v>0.3</v>
+      </c>
+      <c r="I60">
+        <v>0.3</v>
+      </c>
+      <c r="J60">
+        <v>0.3</v>
+      </c>
+      <c r="K60">
+        <v>0.3</v>
+      </c>
+      <c r="L60">
+        <v>0.3</v>
+      </c>
+      <c r="M60">
+        <v>0.3</v>
+      </c>
+      <c r="N60">
+        <v>0.3</v>
+      </c>
+      <c r="O60">
+        <v>0.3</v>
+      </c>
+      <c r="P60">
+        <v>0.3</v>
+      </c>
+      <c r="Q60">
+        <v>0.3</v>
+      </c>
+      <c r="R60">
+        <v>0.3</v>
+      </c>
+      <c r="S60">
+        <v>0.3</v>
+      </c>
+      <c r="T60">
+        <v>0.3</v>
+      </c>
+      <c r="U60">
+        <v>0.3</v>
+      </c>
+      <c r="V60">
+        <v>0.3</v>
+      </c>
+      <c r="W60">
+        <v>0.3</v>
+      </c>
+      <c r="X60">
+        <v>0.3</v>
+      </c>
+      <c r="Y60">
+        <v>0.3</v>
+      </c>
+      <c r="Z60">
+        <v>0.3</v>
+      </c>
+      <c r="AA60">
+        <v>0.3</v>
+      </c>
+      <c r="AB60">
+        <v>0.3</v>
+      </c>
+      <c r="AC60">
+        <v>0.3</v>
+      </c>
+      <c r="AD60">
+        <v>0.3</v>
+      </c>
+      <c r="AE60">
+        <v>0.3</v>
+      </c>
+      <c r="AF60">
+        <v>0.3</v>
+      </c>
+      <c r="AG60">
+        <v>0.3</v>
+      </c>
+      <c r="AH60">
+        <v>0.3</v>
+      </c>
+      <c r="AI60">
+        <v>0.3</v>
+      </c>
+      <c r="AJ60">
+        <v>0.3</v>
+      </c>
+      <c r="AK60">
+        <v>0.3</v>
+      </c>
+      <c r="AL60">
+        <v>0.3</v>
+      </c>
+      <c r="AM60">
+        <v>0.3</v>
+      </c>
+      <c r="AN60">
+        <v>0.3</v>
+      </c>
+      <c r="AO60">
+        <v>0.3</v>
+      </c>
+      <c r="AP60">
+        <v>0.3</v>
+      </c>
+      <c r="AQ60">
+        <v>0.3</v>
+      </c>
+      <c r="AR60">
+        <v>0.3</v>
+      </c>
+      <c r="AS60">
+        <v>0.3</v>
+      </c>
+      <c r="AT60">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>30</v>
+      </c>
+      <c r="B61">
+        <v>9</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+      <c r="D61">
+        <v>39</v>
+      </c>
+      <c r="E61" t="s">
+        <v>45</v>
+      </c>
+      <c r="F61">
+        <v>0.3</v>
+      </c>
+      <c r="G61">
+        <v>0.3</v>
+      </c>
+      <c r="H61">
+        <v>0.3</v>
+      </c>
+      <c r="I61">
+        <v>0.3</v>
+      </c>
+      <c r="J61">
+        <v>0.3</v>
+      </c>
+      <c r="K61">
+        <v>0.3</v>
+      </c>
+      <c r="L61">
+        <v>0.3</v>
+      </c>
+      <c r="M61">
+        <v>0.3</v>
+      </c>
+      <c r="N61">
+        <v>0.3</v>
+      </c>
+      <c r="O61">
+        <v>0.3</v>
+      </c>
+      <c r="P61">
+        <v>0.3</v>
+      </c>
+      <c r="Q61">
+        <v>0.3</v>
+      </c>
+      <c r="R61">
+        <v>0.3</v>
+      </c>
+      <c r="S61">
+        <v>0.3</v>
+      </c>
+      <c r="T61">
+        <v>0.3</v>
+      </c>
+      <c r="U61">
+        <v>0.3</v>
+      </c>
+      <c r="V61">
+        <v>0.3</v>
+      </c>
+      <c r="W61">
+        <v>0.3</v>
+      </c>
+      <c r="X61">
+        <v>0.3</v>
+      </c>
+      <c r="Y61">
+        <v>0.3</v>
+      </c>
+      <c r="Z61">
+        <v>0.3</v>
+      </c>
+      <c r="AA61">
+        <v>0.3</v>
+      </c>
+      <c r="AB61">
+        <v>0.3</v>
+      </c>
+      <c r="AC61">
+        <v>0.3</v>
+      </c>
+      <c r="AD61">
+        <v>0.3</v>
+      </c>
+      <c r="AE61">
+        <v>0.3</v>
+      </c>
+      <c r="AF61">
+        <v>0.3</v>
+      </c>
+      <c r="AG61">
+        <v>0.3</v>
+      </c>
+      <c r="AH61">
+        <v>0.3</v>
+      </c>
+      <c r="AI61">
+        <v>0.3</v>
+      </c>
+      <c r="AJ61">
+        <v>0.3</v>
+      </c>
+      <c r="AK61">
+        <v>0.3</v>
+      </c>
+      <c r="AL61">
+        <v>0.3</v>
+      </c>
+      <c r="AM61">
+        <v>0.3</v>
+      </c>
+      <c r="AN61">
+        <v>0.3</v>
+      </c>
+      <c r="AO61">
+        <v>0.3</v>
+      </c>
+      <c r="AP61">
+        <v>0.3</v>
+      </c>
+      <c r="AQ61">
+        <v>0.3</v>
+      </c>
+      <c r="AR61">
+        <v>0.3</v>
+      </c>
+      <c r="AS61">
+        <v>0.3</v>
+      </c>
+      <c r="AT61">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>30</v>
+      </c>
+      <c r="B62">
+        <v>9</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+      <c r="D62">
+        <v>310</v>
+      </c>
+      <c r="E62" t="s">
+        <v>45</v>
+      </c>
+      <c r="F62">
+        <v>0.3</v>
+      </c>
+      <c r="G62">
+        <v>0.3</v>
+      </c>
+      <c r="H62">
+        <v>0.3</v>
+      </c>
+      <c r="I62">
+        <v>0.3</v>
+      </c>
+      <c r="J62">
+        <v>0.3</v>
+      </c>
+      <c r="K62">
+        <v>0.3</v>
+      </c>
+      <c r="L62">
+        <v>0.3</v>
+      </c>
+      <c r="M62">
+        <v>0.3</v>
+      </c>
+      <c r="N62">
+        <v>0.3</v>
+      </c>
+      <c r="O62">
+        <v>0.3</v>
+      </c>
+      <c r="P62">
+        <v>0.3</v>
+      </c>
+      <c r="Q62">
+        <v>0.3</v>
+      </c>
+      <c r="R62">
+        <v>0.3</v>
+      </c>
+      <c r="S62">
+        <v>0.3</v>
+      </c>
+      <c r="T62">
+        <v>0.3</v>
+      </c>
+      <c r="U62">
+        <v>0.3</v>
+      </c>
+      <c r="V62">
+        <v>0.3</v>
+      </c>
+      <c r="W62">
+        <v>0.3</v>
+      </c>
+      <c r="X62">
+        <v>0.3</v>
+      </c>
+      <c r="Y62">
+        <v>0.3</v>
+      </c>
+      <c r="Z62">
+        <v>0.3</v>
+      </c>
+      <c r="AA62">
+        <v>0.3</v>
+      </c>
+      <c r="AB62">
+        <v>0.3</v>
+      </c>
+      <c r="AC62">
+        <v>0.3</v>
+      </c>
+      <c r="AD62">
+        <v>0.3</v>
+      </c>
+      <c r="AE62">
+        <v>0.3</v>
+      </c>
+      <c r="AF62">
+        <v>0.3</v>
+      </c>
+      <c r="AG62">
+        <v>0.3</v>
+      </c>
+      <c r="AH62">
+        <v>0.3</v>
+      </c>
+      <c r="AI62">
+        <v>0.3</v>
+      </c>
+      <c r="AJ62">
+        <v>0.3</v>
+      </c>
+      <c r="AK62">
+        <v>0.3</v>
+      </c>
+      <c r="AL62">
+        <v>0.3</v>
+      </c>
+      <c r="AM62">
+        <v>0.3</v>
+      </c>
+      <c r="AN62">
+        <v>0.3</v>
+      </c>
+      <c r="AO62">
+        <v>0.3</v>
+      </c>
+      <c r="AP62">
+        <v>0.3</v>
+      </c>
+      <c r="AQ62">
+        <v>0.3</v>
+      </c>
+      <c r="AR62">
+        <v>0.3</v>
+      </c>
+      <c r="AS62">
+        <v>0.3</v>
+      </c>
+      <c r="AT62">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>30</v>
+      </c>
+      <c r="B63">
+        <v>9</v>
+      </c>
+      <c r="C63">
+        <v>3</v>
+      </c>
+      <c r="D63">
+        <v>311</v>
+      </c>
+      <c r="E63" t="s">
+        <v>45</v>
+      </c>
+      <c r="F63">
+        <v>0.3</v>
+      </c>
+      <c r="G63">
+        <v>0.3</v>
+      </c>
+      <c r="H63">
+        <v>0.3</v>
+      </c>
+      <c r="I63">
+        <v>0.3</v>
+      </c>
+      <c r="J63">
+        <v>0.3</v>
+      </c>
+      <c r="K63">
+        <v>0.3</v>
+      </c>
+      <c r="L63">
+        <v>0.3</v>
+      </c>
+      <c r="M63">
+        <v>0.3</v>
+      </c>
+      <c r="N63">
+        <v>0.3</v>
+      </c>
+      <c r="O63">
+        <v>0.3</v>
+      </c>
+      <c r="P63">
+        <v>0.3</v>
+      </c>
+      <c r="Q63">
+        <v>0.3</v>
+      </c>
+      <c r="R63">
+        <v>0.3</v>
+      </c>
+      <c r="S63">
+        <v>0.3</v>
+      </c>
+      <c r="T63">
+        <v>0.3</v>
+      </c>
+      <c r="U63">
+        <v>0.3</v>
+      </c>
+      <c r="V63">
+        <v>0.3</v>
+      </c>
+      <c r="W63">
+        <v>0.3</v>
+      </c>
+      <c r="X63">
+        <v>0.3</v>
+      </c>
+      <c r="Y63">
+        <v>0.3</v>
+      </c>
+      <c r="Z63">
+        <v>0.3</v>
+      </c>
+      <c r="AA63">
+        <v>0.3</v>
+      </c>
+      <c r="AB63">
+        <v>0.3</v>
+      </c>
+      <c r="AC63">
+        <v>0.3</v>
+      </c>
+      <c r="AD63">
+        <v>0.3</v>
+      </c>
+      <c r="AE63">
+        <v>0.3</v>
+      </c>
+      <c r="AF63">
+        <v>0.3</v>
+      </c>
+      <c r="AG63">
+        <v>0.3</v>
+      </c>
+      <c r="AH63">
+        <v>0.3</v>
+      </c>
+      <c r="AI63">
+        <v>0.3</v>
+      </c>
+      <c r="AJ63">
+        <v>0.3</v>
+      </c>
+      <c r="AK63">
+        <v>0.3</v>
+      </c>
+      <c r="AL63">
+        <v>0.3</v>
+      </c>
+      <c r="AM63">
+        <v>0.3</v>
+      </c>
+      <c r="AN63">
+        <v>0.3</v>
+      </c>
+      <c r="AO63">
+        <v>0.3</v>
+      </c>
+      <c r="AP63">
+        <v>0.3</v>
+      </c>
+      <c r="AQ63">
+        <v>0.3</v>
+      </c>
+      <c r="AR63">
+        <v>0.3</v>
+      </c>
+      <c r="AS63">
+        <v>0.3</v>
+      </c>
+      <c r="AT63">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>30</v>
+      </c>
+      <c r="B64">
+        <v>9</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="D64">
+        <v>312</v>
+      </c>
+      <c r="E64" t="s">
+        <v>45</v>
+      </c>
+      <c r="F64">
+        <v>0.3</v>
+      </c>
+      <c r="G64">
+        <v>0.3</v>
+      </c>
+      <c r="H64">
+        <v>0.3</v>
+      </c>
+      <c r="I64">
+        <v>0.3</v>
+      </c>
+      <c r="J64">
+        <v>0.3</v>
+      </c>
+      <c r="K64">
+        <v>0.3</v>
+      </c>
+      <c r="L64">
+        <v>0.3</v>
+      </c>
+      <c r="M64">
+        <v>0.3</v>
+      </c>
+      <c r="N64">
+        <v>0.3</v>
+      </c>
+      <c r="O64">
+        <v>0.3</v>
+      </c>
+      <c r="P64">
+        <v>0.3</v>
+      </c>
+      <c r="Q64">
+        <v>0.3</v>
+      </c>
+      <c r="R64">
+        <v>0.3</v>
+      </c>
+      <c r="S64">
+        <v>0.3</v>
+      </c>
+      <c r="T64">
+        <v>0.3</v>
+      </c>
+      <c r="U64">
+        <v>0.3</v>
+      </c>
+      <c r="V64">
+        <v>0.3</v>
+      </c>
+      <c r="W64">
+        <v>0.3</v>
+      </c>
+      <c r="X64">
+        <v>0.3</v>
+      </c>
+      <c r="Y64">
+        <v>0.3</v>
+      </c>
+      <c r="Z64">
+        <v>0.3</v>
+      </c>
+      <c r="AA64">
+        <v>0.3</v>
+      </c>
+      <c r="AB64">
+        <v>0.3</v>
+      </c>
+      <c r="AC64">
+        <v>0.3</v>
+      </c>
+      <c r="AD64">
+        <v>0.3</v>
+      </c>
+      <c r="AE64">
+        <v>0.3</v>
+      </c>
+      <c r="AF64">
+        <v>0.3</v>
+      </c>
+      <c r="AG64">
+        <v>0.3</v>
+      </c>
+      <c r="AH64">
+        <v>0.3</v>
+      </c>
+      <c r="AI64">
+        <v>0.3</v>
+      </c>
+      <c r="AJ64">
+        <v>0.3</v>
+      </c>
+      <c r="AK64">
+        <v>0.3</v>
+      </c>
+      <c r="AL64">
+        <v>0.3</v>
+      </c>
+      <c r="AM64">
+        <v>0.3</v>
+      </c>
+      <c r="AN64">
+        <v>0.3</v>
+      </c>
+      <c r="AO64">
+        <v>0.3</v>
+      </c>
+      <c r="AP64">
+        <v>0.3</v>
+      </c>
+      <c r="AQ64">
+        <v>0.3</v>
+      </c>
+      <c r="AR64">
+        <v>0.3</v>
+      </c>
+      <c r="AS64">
+        <v>0.3</v>
+      </c>
+      <c r="AT64">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>30</v>
+      </c>
+      <c r="B65">
+        <v>9</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+      <c r="D65">
+        <v>313</v>
+      </c>
+      <c r="E65" t="s">
+        <v>45</v>
+      </c>
+      <c r="F65">
+        <v>0.3</v>
+      </c>
+      <c r="G65">
+        <v>0.3</v>
+      </c>
+      <c r="H65">
+        <v>0.3</v>
+      </c>
+      <c r="I65">
+        <v>0.3</v>
+      </c>
+      <c r="J65">
+        <v>0.3</v>
+      </c>
+      <c r="K65">
+        <v>0.3</v>
+      </c>
+      <c r="L65">
+        <v>0.3</v>
+      </c>
+      <c r="M65">
+        <v>0.3</v>
+      </c>
+      <c r="N65">
+        <v>0.3</v>
+      </c>
+      <c r="O65">
+        <v>0.3</v>
+      </c>
+      <c r="P65">
+        <v>0.3</v>
+      </c>
+      <c r="Q65">
+        <v>0.3</v>
+      </c>
+      <c r="R65">
+        <v>0.3</v>
+      </c>
+      <c r="S65">
+        <v>0.3</v>
+      </c>
+      <c r="T65">
+        <v>0.3</v>
+      </c>
+      <c r="U65">
+        <v>0.3</v>
+      </c>
+      <c r="V65">
+        <v>0.3</v>
+      </c>
+      <c r="W65">
+        <v>0.3</v>
+      </c>
+      <c r="X65">
+        <v>0.3</v>
+      </c>
+      <c r="Y65">
+        <v>0.3</v>
+      </c>
+      <c r="Z65">
+        <v>0.3</v>
+      </c>
+      <c r="AA65">
+        <v>0.3</v>
+      </c>
+      <c r="AB65">
+        <v>0.3</v>
+      </c>
+      <c r="AC65">
+        <v>0.3</v>
+      </c>
+      <c r="AD65">
+        <v>0.3</v>
+      </c>
+      <c r="AE65">
+        <v>0.3</v>
+      </c>
+      <c r="AF65">
+        <v>0.3</v>
+      </c>
+      <c r="AG65">
+        <v>0.3</v>
+      </c>
+      <c r="AH65">
+        <v>0.3</v>
+      </c>
+      <c r="AI65">
+        <v>0.3</v>
+      </c>
+      <c r="AJ65">
+        <v>0.3</v>
+      </c>
+      <c r="AK65">
+        <v>0.3</v>
+      </c>
+      <c r="AL65">
+        <v>0.3</v>
+      </c>
+      <c r="AM65">
+        <v>0.3</v>
+      </c>
+      <c r="AN65">
+        <v>0.3</v>
+      </c>
+      <c r="AO65">
+        <v>0.3</v>
+      </c>
+      <c r="AP65">
+        <v>0.3</v>
+      </c>
+      <c r="AQ65">
+        <v>0.3</v>
+      </c>
+      <c r="AR65">
+        <v>0.3</v>
+      </c>
+      <c r="AS65">
+        <v>0.3</v>
+      </c>
+      <c r="AT65">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>30</v>
+      </c>
+      <c r="B66">
+        <v>9</v>
+      </c>
+      <c r="C66">
+        <v>3</v>
+      </c>
+      <c r="D66">
+        <v>314</v>
+      </c>
+      <c r="E66" t="s">
+        <v>45</v>
+      </c>
+      <c r="F66">
+        <v>0.3</v>
+      </c>
+      <c r="G66">
+        <v>0.3</v>
+      </c>
+      <c r="H66">
+        <v>0.3</v>
+      </c>
+      <c r="I66">
+        <v>0.3</v>
+      </c>
+      <c r="J66">
+        <v>0.3</v>
+      </c>
+      <c r="K66">
+        <v>0.3</v>
+      </c>
+      <c r="L66">
+        <v>0.3</v>
+      </c>
+      <c r="M66">
+        <v>0.3</v>
+      </c>
+      <c r="N66">
+        <v>0.3</v>
+      </c>
+      <c r="O66">
+        <v>0.3</v>
+      </c>
+      <c r="P66">
+        <v>0.3</v>
+      </c>
+      <c r="Q66">
+        <v>0.3</v>
+      </c>
+      <c r="R66">
+        <v>0.3</v>
+      </c>
+      <c r="S66">
+        <v>0.3</v>
+      </c>
+      <c r="T66">
+        <v>0.3</v>
+      </c>
+      <c r="U66">
+        <v>0.3</v>
+      </c>
+      <c r="V66">
+        <v>0.3</v>
+      </c>
+      <c r="W66">
+        <v>0.3</v>
+      </c>
+      <c r="X66">
+        <v>0.3</v>
+      </c>
+      <c r="Y66">
+        <v>0.3</v>
+      </c>
+      <c r="Z66">
+        <v>0.3</v>
+      </c>
+      <c r="AA66">
+        <v>0.3</v>
+      </c>
+      <c r="AB66">
+        <v>0.3</v>
+      </c>
+      <c r="AC66">
+        <v>0.3</v>
+      </c>
+      <c r="AD66">
+        <v>0.3</v>
+      </c>
+      <c r="AE66">
+        <v>0.3</v>
+      </c>
+      <c r="AF66">
+        <v>0.3</v>
+      </c>
+      <c r="AG66">
+        <v>0.3</v>
+      </c>
+      <c r="AH66">
+        <v>0.3</v>
+      </c>
+      <c r="AI66">
+        <v>0.3</v>
+      </c>
+      <c r="AJ66">
+        <v>0.3</v>
+      </c>
+      <c r="AK66">
+        <v>0.3</v>
+      </c>
+      <c r="AL66">
+        <v>0.3</v>
+      </c>
+      <c r="AM66">
+        <v>0.3</v>
+      </c>
+      <c r="AN66">
+        <v>0.3</v>
+      </c>
+      <c r="AO66">
+        <v>0.3</v>
+      </c>
+      <c r="AP66">
+        <v>0.3</v>
+      </c>
+      <c r="AQ66">
+        <v>0.3</v>
+      </c>
+      <c r="AR66">
+        <v>0.3</v>
+      </c>
+      <c r="AS66">
+        <v>0.3</v>
+      </c>
+      <c r="AT66">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>30</v>
+      </c>
+      <c r="B67">
+        <v>9</v>
+      </c>
+      <c r="C67">
+        <v>3</v>
+      </c>
+      <c r="D67">
+        <v>315</v>
+      </c>
+      <c r="E67" t="s">
+        <v>45</v>
+      </c>
+      <c r="F67">
+        <v>0.3</v>
+      </c>
+      <c r="G67">
+        <v>0.3</v>
+      </c>
+      <c r="H67">
+        <v>0.3</v>
+      </c>
+      <c r="I67">
+        <v>0.3</v>
+      </c>
+      <c r="J67">
+        <v>0.3</v>
+      </c>
+      <c r="K67">
+        <v>0.3</v>
+      </c>
+      <c r="L67">
+        <v>0.3</v>
+      </c>
+      <c r="M67">
+        <v>0.3</v>
+      </c>
+      <c r="N67">
+        <v>0.3</v>
+      </c>
+      <c r="O67">
+        <v>0.3</v>
+      </c>
+      <c r="P67">
+        <v>0.3</v>
+      </c>
+      <c r="Q67">
+        <v>0.3</v>
+      </c>
+      <c r="R67">
+        <v>0.3</v>
+      </c>
+      <c r="S67">
+        <v>0.3</v>
+      </c>
+      <c r="T67">
+        <v>0.3</v>
+      </c>
+      <c r="U67">
+        <v>0.3</v>
+      </c>
+      <c r="V67">
+        <v>0.3</v>
+      </c>
+      <c r="W67">
+        <v>0.3</v>
+      </c>
+      <c r="X67">
+        <v>0.3</v>
+      </c>
+      <c r="Y67">
+        <v>0.3</v>
+      </c>
+      <c r="Z67">
+        <v>0.3</v>
+      </c>
+      <c r="AA67">
+        <v>0.3</v>
+      </c>
+      <c r="AB67">
+        <v>0.3</v>
+      </c>
+      <c r="AC67">
+        <v>0.3</v>
+      </c>
+      <c r="AD67">
+        <v>0.3</v>
+      </c>
+      <c r="AE67">
+        <v>0.3</v>
+      </c>
+      <c r="AF67">
+        <v>0.3</v>
+      </c>
+      <c r="AG67">
+        <v>0.3</v>
+      </c>
+      <c r="AH67">
+        <v>0.3</v>
+      </c>
+      <c r="AI67">
+        <v>0.3</v>
+      </c>
+      <c r="AJ67">
+        <v>0.3</v>
+      </c>
+      <c r="AK67">
+        <v>0.3</v>
+      </c>
+      <c r="AL67">
+        <v>0.3</v>
+      </c>
+      <c r="AM67">
+        <v>0.3</v>
+      </c>
+      <c r="AN67">
+        <v>0.3</v>
+      </c>
+      <c r="AO67">
+        <v>0.3</v>
+      </c>
+      <c r="AP67">
+        <v>0.3</v>
+      </c>
+      <c r="AQ67">
+        <v>0.3</v>
+      </c>
+      <c r="AR67">
+        <v>0.3</v>
+      </c>
+      <c r="AS67">
+        <v>0.3</v>
+      </c>
+      <c r="AT67">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>30</v>
+      </c>
+      <c r="B68">
+        <v>9</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
+      </c>
+      <c r="D68">
+        <v>316</v>
+      </c>
+      <c r="E68" t="s">
+        <v>45</v>
+      </c>
+      <c r="F68">
+        <v>0.3</v>
+      </c>
+      <c r="G68">
+        <v>0.3</v>
+      </c>
+      <c r="H68">
+        <v>0.3</v>
+      </c>
+      <c r="I68">
+        <v>0.3</v>
+      </c>
+      <c r="J68">
+        <v>0.3</v>
+      </c>
+      <c r="K68">
+        <v>0.3</v>
+      </c>
+      <c r="L68">
+        <v>0.3</v>
+      </c>
+      <c r="M68">
+        <v>0.3</v>
+      </c>
+      <c r="N68">
+        <v>0.3</v>
+      </c>
+      <c r="O68">
+        <v>0.3</v>
+      </c>
+      <c r="P68">
+        <v>0.3</v>
+      </c>
+      <c r="Q68">
+        <v>0.3</v>
+      </c>
+      <c r="R68">
+        <v>0.3</v>
+      </c>
+      <c r="S68">
+        <v>0.3</v>
+      </c>
+      <c r="T68">
+        <v>0.3</v>
+      </c>
+      <c r="U68">
+        <v>0.3</v>
+      </c>
+      <c r="V68">
+        <v>0.3</v>
+      </c>
+      <c r="W68">
+        <v>0.3</v>
+      </c>
+      <c r="X68">
+        <v>0.3</v>
+      </c>
+      <c r="Y68">
+        <v>0.3</v>
+      </c>
+      <c r="Z68">
+        <v>0.3</v>
+      </c>
+      <c r="AA68">
+        <v>0.3</v>
+      </c>
+      <c r="AB68">
+        <v>0.3</v>
+      </c>
+      <c r="AC68">
+        <v>0.3</v>
+      </c>
+      <c r="AD68">
+        <v>0.3</v>
+      </c>
+      <c r="AE68">
+        <v>0.3</v>
+      </c>
+      <c r="AF68">
+        <v>0.3</v>
+      </c>
+      <c r="AG68">
+        <v>0.3</v>
+      </c>
+      <c r="AH68">
+        <v>0.3</v>
+      </c>
+      <c r="AI68">
+        <v>0.3</v>
+      </c>
+      <c r="AJ68">
+        <v>0.3</v>
+      </c>
+      <c r="AK68">
+        <v>0.3</v>
+      </c>
+      <c r="AL68">
+        <v>0.3</v>
+      </c>
+      <c r="AM68">
+        <v>0.3</v>
+      </c>
+      <c r="AN68">
+        <v>0.3</v>
+      </c>
+      <c r="AO68">
+        <v>0.3</v>
+      </c>
+      <c r="AP68">
+        <v>0.3</v>
+      </c>
+      <c r="AQ68">
+        <v>0.3</v>
+      </c>
+      <c r="AR68">
+        <v>0.3</v>
+      </c>
+      <c r="AS68">
+        <v>0.3</v>
+      </c>
+      <c r="AT68">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>30</v>
+      </c>
+      <c r="B69">
+        <v>9</v>
+      </c>
+      <c r="C69">
+        <v>6</v>
+      </c>
+      <c r="D69">
+        <v>61</v>
+      </c>
+      <c r="E69" t="s">
+        <v>45</v>
+      </c>
+      <c r="F69">
+        <v>0.3</v>
+      </c>
+      <c r="G69">
+        <v>0.3</v>
+      </c>
+      <c r="H69">
+        <v>0.3</v>
+      </c>
+      <c r="I69">
+        <v>0.3</v>
+      </c>
+      <c r="J69">
+        <v>0.3</v>
+      </c>
+      <c r="K69">
+        <v>0.3</v>
+      </c>
+      <c r="L69">
+        <v>0.3</v>
+      </c>
+      <c r="M69">
+        <v>0.3</v>
+      </c>
+      <c r="N69">
+        <v>0.3</v>
+      </c>
+      <c r="O69">
+        <v>0.3</v>
+      </c>
+      <c r="P69">
+        <v>0.3</v>
+      </c>
+      <c r="Q69">
+        <v>0.3</v>
+      </c>
+      <c r="R69">
+        <v>0.3</v>
+      </c>
+      <c r="S69">
+        <v>0.3</v>
+      </c>
+      <c r="T69">
+        <v>0.3</v>
+      </c>
+      <c r="U69">
+        <v>0.3</v>
+      </c>
+      <c r="V69">
+        <v>0.3</v>
+      </c>
+      <c r="W69">
+        <v>0.3</v>
+      </c>
+      <c r="X69">
+        <v>0.3</v>
+      </c>
+      <c r="Y69">
+        <v>0.3</v>
+      </c>
+      <c r="Z69">
+        <v>0.3</v>
+      </c>
+      <c r="AA69">
+        <v>0.3</v>
+      </c>
+      <c r="AB69">
+        <v>0.3</v>
+      </c>
+      <c r="AC69">
+        <v>0.3</v>
+      </c>
+      <c r="AD69">
+        <v>0.3</v>
+      </c>
+      <c r="AE69">
+        <v>0.3</v>
+      </c>
+      <c r="AF69">
+        <v>0.3</v>
+      </c>
+      <c r="AG69">
+        <v>0.3</v>
+      </c>
+      <c r="AH69">
+        <v>0.3</v>
+      </c>
+      <c r="AI69">
+        <v>0.3</v>
+      </c>
+      <c r="AJ69">
+        <v>0.3</v>
+      </c>
+      <c r="AK69">
+        <v>0.3</v>
+      </c>
+      <c r="AL69">
+        <v>0.3</v>
+      </c>
+      <c r="AM69">
+        <v>0.3</v>
+      </c>
+      <c r="AN69">
+        <v>0.3</v>
+      </c>
+      <c r="AO69">
+        <v>0.3</v>
+      </c>
+      <c r="AP69">
+        <v>0.3</v>
+      </c>
+      <c r="AQ69">
+        <v>0.3</v>
+      </c>
+      <c r="AR69">
+        <v>0.3</v>
+      </c>
+      <c r="AS69">
+        <v>0.3</v>
+      </c>
+      <c r="AT69">
         <v>0.3</v>
       </c>
     </row>
